--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="572" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{7FCA82F9-F59F-45BA-AB4F-1E80F42C2647}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{848CECB9-517F-4654-A0F6-E53E09DCB8B0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -263,9 +263,6 @@
   <si>
     <t>2255 Eldridge Parkway, Houston, TX</t>
   </si>
-  <si>
-    <t>11150 Beamer Road, Houston, TX</t>
-  </si>
 </sst>
 </file>
 
@@ -407,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L57" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L57" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L56" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L56" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -754,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K43" workbookViewId="0">
       <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
@@ -1796,55 +1793,31 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="B56" s="3">
+        <v>43789.358298611114</v>
+      </c>
+      <c r="C56" s="3">
+        <v>43789.358888888892</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="2">
-        <v>72</v>
-      </c>
-      <c r="B57" s="3">
-        <v>43789.358298611114</v>
-      </c>
-      <c r="C57" s="3">
-        <v>43789.358888888892</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{848CECB9-517F-4654-A0F6-E53E09DCB8B0}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63CA155D-0AB4-4F52-8F8E-B49B6943B566}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -404,8 +406,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L56" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L56" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L57" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L57" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -725,7 +727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -749,22 +751,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
-  <dimension ref="A1:L1057"/>
+  <dimension ref="A1:L1058"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K43" workbookViewId="0">
       <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="44" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="77" style="2" customWidth="1"/>
-    <col min="12" max="12" width="60.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="60.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1821,15 +1823,38 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="2"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:12">
+    <row r="57" spans="1:12" ht="15">
+      <c r="A57" s="2">
+        <v>74</v>
+      </c>
+      <c r="B57" s="3">
+        <v>43802.629733796297</v>
+      </c>
+      <c r="C57" s="3">
+        <v>43802.629953703705</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15"/>
+    <row r="59" spans="1:12" ht="15">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1837,17 +1862,15 @@
       <c r="E59" s="2"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" ht="15">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="5"/>
       <c r="E60" s="2"/>
-      <c r="H60" s="7"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:12" ht="15">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1857,7 +1880,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" ht="15">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1867,17 +1890,17 @@
       <c r="K62" s="8"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" ht="15">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="5"/>
       <c r="E63" s="2"/>
-      <c r="H63" s="8"/>
+      <c r="H63" s="7"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" ht="15">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1887,7 +1910,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" ht="15">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1897,7 +1920,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" ht="15">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1907,15 +1930,17 @@
       <c r="K66" s="8"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" ht="15">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="5"/>
       <c r="E67" s="2"/>
       <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="K67" s="8"/>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12" ht="15">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1923,7 +1948,7 @@
       <c r="E68" s="2"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" ht="15">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1931,7 +1956,7 @@
       <c r="E69" s="2"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" ht="15">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1939,7 +1964,7 @@
       <c r="E70" s="2"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1947,7 +1972,7 @@
       <c r="E71" s="2"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1955,7 +1980,7 @@
       <c r="E72" s="2"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1963,7 +1988,7 @@
       <c r="E73" s="2"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1971,7 +1996,7 @@
       <c r="E74" s="2"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1979,7 +2004,7 @@
       <c r="E75" s="2"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1987,7 +2012,7 @@
       <c r="E76" s="2"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1995,7 +2020,7 @@
       <c r="E77" s="2"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2003,7 +2028,7 @@
       <c r="E78" s="2"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2011,7 +2036,7 @@
       <c r="E79" s="2"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2019,7 +2044,7 @@
       <c r="E80" s="2"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="15">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2027,7 +2052,7 @@
       <c r="E81" s="2"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="15">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2035,7 +2060,7 @@
       <c r="E82" s="2"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" ht="15">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2043,7 +2068,7 @@
       <c r="E83" s="2"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" ht="15">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2051,7 +2076,7 @@
       <c r="E84" s="2"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" ht="15">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2059,7 +2084,7 @@
       <c r="E85" s="2"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" ht="15">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2067,7 +2092,7 @@
       <c r="E86" s="2"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" ht="15">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2075,7 +2100,7 @@
       <c r="E87" s="2"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="15">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2083,7 +2108,7 @@
       <c r="E88" s="2"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" ht="15">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2091,7 +2116,7 @@
       <c r="E89" s="2"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="15">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2099,7 +2124,7 @@
       <c r="E90" s="2"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="15">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2107,7 +2132,7 @@
       <c r="E91" s="2"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" ht="15">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2115,7 +2140,7 @@
       <c r="E92" s="2"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="15">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2123,7 +2148,7 @@
       <c r="E93" s="2"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" ht="15">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2131,7 +2156,7 @@
       <c r="E94" s="2"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" ht="15">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2139,7 +2164,7 @@
       <c r="E95" s="2"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" ht="15">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2147,7 +2172,7 @@
       <c r="E96" s="2"/>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" ht="15">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2155,7 +2180,7 @@
       <c r="E97" s="2"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" ht="15">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2163,7 +2188,7 @@
       <c r="E98" s="2"/>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" ht="15">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2171,7 +2196,7 @@
       <c r="E99" s="2"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="15">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2179,7 +2204,7 @@
       <c r="E100" s="2"/>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" ht="15">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2187,7 +2212,7 @@
       <c r="E101" s="2"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" ht="15">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2195,7 +2220,7 @@
       <c r="E102" s="2"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" ht="15">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2203,7 +2228,7 @@
       <c r="E103" s="2"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" ht="15">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2211,7 +2236,7 @@
       <c r="E104" s="2"/>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" ht="15">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2219,7 +2244,7 @@
       <c r="E105" s="2"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" ht="15">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2227,7 +2252,7 @@
       <c r="E106" s="2"/>
       <c r="H106" s="8"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" ht="15">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2235,7 +2260,7 @@
       <c r="E107" s="2"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" ht="15">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2243,7 +2268,7 @@
       <c r="E108" s="2"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" ht="15">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2251,7 +2276,7 @@
       <c r="E109" s="2"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" ht="15">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2259,7 +2284,7 @@
       <c r="E110" s="2"/>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" ht="15">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2267,7 +2292,7 @@
       <c r="E111" s="2"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" ht="15">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2275,7 +2300,7 @@
       <c r="E112" s="2"/>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" ht="15">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2283,7 +2308,7 @@
       <c r="E113" s="2"/>
       <c r="H113" s="8"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" ht="15">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2291,7 +2316,7 @@
       <c r="E114" s="2"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" ht="15">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2299,7 +2324,7 @@
       <c r="E115" s="2"/>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" ht="15">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2307,7 +2332,7 @@
       <c r="E116" s="2"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" ht="15">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2315,7 +2340,7 @@
       <c r="E117" s="2"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" ht="15">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2323,7 +2348,7 @@
       <c r="E118" s="2"/>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" ht="15">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2331,7 +2356,7 @@
       <c r="E119" s="2"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" ht="15">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2339,7 +2364,7 @@
       <c r="E120" s="2"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" ht="15">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2347,7 +2372,7 @@
       <c r="E121" s="2"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" ht="15">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2355,7 +2380,7 @@
       <c r="E122" s="2"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" ht="15">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2363,7 +2388,7 @@
       <c r="E123" s="2"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" ht="15">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2371,7 +2396,7 @@
       <c r="E124" s="2"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" ht="15">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2379,7 +2404,7 @@
       <c r="E125" s="2"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" ht="15">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2387,7 +2412,7 @@
       <c r="E126" s="2"/>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" ht="15">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2395,7 +2420,7 @@
       <c r="E127" s="2"/>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" ht="15">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2403,7 +2428,7 @@
       <c r="E128" s="2"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" ht="15">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2411,7 +2436,7 @@
       <c r="E129" s="2"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" ht="15">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2419,7 +2444,7 @@
       <c r="E130" s="2"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="15">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2427,7 +2452,7 @@
       <c r="E131" s="2"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" ht="15">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2435,7 +2460,7 @@
       <c r="E132" s="2"/>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" ht="15">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2443,7 +2468,7 @@
       <c r="E133" s="2"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" ht="15">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2451,7 +2476,7 @@
       <c r="E134" s="2"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" ht="15">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2459,7 +2484,7 @@
       <c r="E135" s="2"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" ht="15">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2467,7 +2492,7 @@
       <c r="E136" s="2"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" ht="15">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2475,7 +2500,7 @@
       <c r="E137" s="2"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" ht="15">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2483,7 +2508,7 @@
       <c r="E138" s="2"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" ht="15">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2491,7 +2516,7 @@
       <c r="E139" s="2"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" ht="15">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2499,7 +2524,7 @@
       <c r="E140" s="2"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" ht="15">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2507,7 +2532,7 @@
       <c r="E141" s="2"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" ht="15">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2515,7 +2540,7 @@
       <c r="E142" s="2"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" ht="15">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2523,7 +2548,7 @@
       <c r="E143" s="2"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" ht="15">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2531,7 +2556,7 @@
       <c r="E144" s="2"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" ht="15">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2539,7 +2564,7 @@
       <c r="E145" s="2"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" ht="15">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2547,7 +2572,7 @@
       <c r="E146" s="2"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" ht="15">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2555,7 +2580,7 @@
       <c r="E147" s="2"/>
       <c r="H147" s="8"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" ht="15">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2563,7 +2588,7 @@
       <c r="E148" s="2"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" ht="15">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2571,7 +2596,7 @@
       <c r="E149" s="2"/>
       <c r="H149" s="8"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" ht="15">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2579,7 +2604,7 @@
       <c r="E150" s="2"/>
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" ht="15">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2587,7 +2612,7 @@
       <c r="E151" s="2"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" ht="15">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2595,7 +2620,7 @@
       <c r="E152" s="2"/>
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" ht="15">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2603,7 +2628,7 @@
       <c r="E153" s="2"/>
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" ht="15">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2611,7 +2636,7 @@
       <c r="E154" s="2"/>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" ht="15">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2619,7 +2644,7 @@
       <c r="E155" s="2"/>
       <c r="H155" s="8"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" ht="15">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2627,7 +2652,7 @@
       <c r="E156" s="2"/>
       <c r="H156" s="8"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" ht="15">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2635,7 +2660,7 @@
       <c r="E157" s="2"/>
       <c r="H157" s="8"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" ht="15">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2643,7 +2668,7 @@
       <c r="E158" s="2"/>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" ht="15">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2651,7 +2676,7 @@
       <c r="E159" s="2"/>
       <c r="H159" s="8"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" ht="15">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2659,7 +2684,7 @@
       <c r="E160" s="2"/>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" ht="15">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2667,7 +2692,7 @@
       <c r="E161" s="2"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" ht="15">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2675,7 +2700,7 @@
       <c r="E162" s="2"/>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" ht="15">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2683,7 +2708,7 @@
       <c r="E163" s="2"/>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" ht="15">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2691,7 +2716,7 @@
       <c r="E164" s="2"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" ht="15">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2699,7 +2724,7 @@
       <c r="E165" s="2"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" ht="15">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2707,7 +2732,7 @@
       <c r="E166" s="2"/>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" ht="15">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2715,7 +2740,7 @@
       <c r="E167" s="2"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" ht="15">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2723,7 +2748,7 @@
       <c r="E168" s="2"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" ht="15">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2731,7 +2756,7 @@
       <c r="E169" s="2"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" ht="15">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2739,7 +2764,7 @@
       <c r="E170" s="2"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" ht="15">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2747,7 +2772,7 @@
       <c r="E171" s="2"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" ht="15">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2755,7 +2780,7 @@
       <c r="E172" s="2"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" ht="15">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2763,7 +2788,7 @@
       <c r="E173" s="2"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" ht="15">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2771,7 +2796,7 @@
       <c r="E174" s="2"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" ht="15">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2779,7 +2804,7 @@
       <c r="E175" s="2"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" ht="15">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2787,7 +2812,7 @@
       <c r="E176" s="2"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" ht="15">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2795,7 +2820,7 @@
       <c r="E177" s="2"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" ht="15">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2803,7 +2828,7 @@
       <c r="E178" s="2"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" ht="15">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -2811,7 +2836,7 @@
       <c r="E179" s="2"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" ht="15">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2819,7 +2844,7 @@
       <c r="E180" s="2"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" ht="15">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2827,7 +2852,7 @@
       <c r="E181" s="2"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" ht="15">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -2835,7 +2860,7 @@
       <c r="E182" s="2"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" ht="15">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2843,7 +2868,7 @@
       <c r="E183" s="2"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" ht="15">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2851,7 +2876,7 @@
       <c r="E184" s="2"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" ht="15">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2859,7 +2884,7 @@
       <c r="E185" s="2"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" ht="15">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -2867,7 +2892,7 @@
       <c r="E186" s="2"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" ht="15">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2875,7 +2900,7 @@
       <c r="E187" s="2"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" ht="15">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2883,7 +2908,7 @@
       <c r="E188" s="2"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" ht="15">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -2891,7 +2916,7 @@
       <c r="E189" s="2"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" ht="15">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2899,7 +2924,7 @@
       <c r="E190" s="2"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" ht="15">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -2907,7 +2932,7 @@
       <c r="E191" s="2"/>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" ht="15">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2915,7 +2940,7 @@
       <c r="E192" s="2"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" ht="15">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2923,7 +2948,7 @@
       <c r="E193" s="2"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" ht="15">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2931,7 +2956,7 @@
       <c r="E194" s="2"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" ht="15">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2939,7 +2964,7 @@
       <c r="E195" s="2"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" ht="15">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2947,7 +2972,7 @@
       <c r="E196" s="2"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" ht="15">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2955,7 +2980,7 @@
       <c r="E197" s="2"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" ht="15">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2963,7 +2988,7 @@
       <c r="E198" s="2"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" ht="15">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2971,7 +2996,7 @@
       <c r="E199" s="2"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" ht="15">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2979,7 +3004,7 @@
       <c r="E200" s="2"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" ht="15">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2987,7 +3012,7 @@
       <c r="E201" s="2"/>
       <c r="H201" s="8"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" ht="15">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -2995,7 +3020,7 @@
       <c r="E202" s="2"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" ht="15">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3003,7 +3028,7 @@
       <c r="E203" s="2"/>
       <c r="H203" s="8"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" ht="15">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3011,7 +3036,7 @@
       <c r="E204" s="2"/>
       <c r="H204" s="8"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" ht="15">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3019,7 +3044,7 @@
       <c r="E205" s="2"/>
       <c r="H205" s="8"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" ht="15">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3027,7 +3052,7 @@
       <c r="E206" s="2"/>
       <c r="H206" s="8"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" ht="15">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3035,7 +3060,7 @@
       <c r="E207" s="2"/>
       <c r="H207" s="8"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" ht="15">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3043,7 +3068,7 @@
       <c r="E208" s="2"/>
       <c r="H208" s="8"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" ht="15">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3051,7 +3076,7 @@
       <c r="E209" s="2"/>
       <c r="H209" s="8"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" ht="15">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3059,7 +3084,7 @@
       <c r="E210" s="2"/>
       <c r="H210" s="8"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" ht="15">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3067,7 +3092,7 @@
       <c r="E211" s="2"/>
       <c r="H211" s="8"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" ht="15">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3075,7 +3100,7 @@
       <c r="E212" s="2"/>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" ht="15">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3083,7 +3108,7 @@
       <c r="E213" s="2"/>
       <c r="H213" s="8"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" ht="15">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3091,7 +3116,7 @@
       <c r="E214" s="2"/>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" ht="15">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3099,7 +3124,7 @@
       <c r="E215" s="2"/>
       <c r="H215" s="8"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" ht="15">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3107,7 +3132,7 @@
       <c r="E216" s="2"/>
       <c r="H216" s="8"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" ht="15">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3115,7 +3140,7 @@
       <c r="E217" s="2"/>
       <c r="H217" s="8"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" ht="15">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3123,7 +3148,7 @@
       <c r="E218" s="2"/>
       <c r="H218" s="8"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" ht="15">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3131,7 +3156,7 @@
       <c r="E219" s="2"/>
       <c r="H219" s="8"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" ht="15">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3139,7 +3164,7 @@
       <c r="E220" s="2"/>
       <c r="H220" s="8"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" ht="15">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3147,7 +3172,7 @@
       <c r="E221" s="2"/>
       <c r="H221" s="8"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" ht="15">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3155,7 +3180,7 @@
       <c r="E222" s="2"/>
       <c r="H222" s="8"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" ht="15">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -3163,7 +3188,7 @@
       <c r="E223" s="2"/>
       <c r="H223" s="8"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" ht="15">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -3171,7 +3196,7 @@
       <c r="E224" s="2"/>
       <c r="H224" s="8"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" ht="15">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -3179,7 +3204,7 @@
       <c r="E225" s="2"/>
       <c r="H225" s="8"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" ht="15">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -3187,7 +3212,7 @@
       <c r="E226" s="2"/>
       <c r="H226" s="8"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" ht="15">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -3195,7 +3220,7 @@
       <c r="E227" s="2"/>
       <c r="H227" s="8"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" ht="15">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -3203,7 +3228,7 @@
       <c r="E228" s="2"/>
       <c r="H228" s="8"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" ht="15">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -3211,7 +3236,7 @@
       <c r="E229" s="2"/>
       <c r="H229" s="8"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" ht="15">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -3219,7 +3244,7 @@
       <c r="E230" s="2"/>
       <c r="H230" s="8"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" ht="15">
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -3227,7 +3252,7 @@
       <c r="E231" s="2"/>
       <c r="H231" s="8"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" ht="15">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -3235,7 +3260,7 @@
       <c r="E232" s="2"/>
       <c r="H232" s="8"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" ht="15">
       <c r="A233" s="2"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -3243,7 +3268,7 @@
       <c r="E233" s="2"/>
       <c r="H233" s="8"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" ht="15">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -3251,7 +3276,7 @@
       <c r="E234" s="2"/>
       <c r="H234" s="8"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" ht="15">
       <c r="A235" s="2"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3259,7 +3284,7 @@
       <c r="E235" s="2"/>
       <c r="H235" s="8"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" ht="15">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -3267,7 +3292,7 @@
       <c r="E236" s="2"/>
       <c r="H236" s="8"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" ht="15">
       <c r="A237" s="2"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -3275,7 +3300,7 @@
       <c r="E237" s="2"/>
       <c r="H237" s="8"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" ht="15">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -3283,7 +3308,7 @@
       <c r="E238" s="2"/>
       <c r="H238" s="8"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" ht="15">
       <c r="A239" s="2"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -3291,7 +3316,7 @@
       <c r="E239" s="2"/>
       <c r="H239" s="8"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" ht="15">
       <c r="A240" s="2"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -3299,7 +3324,7 @@
       <c r="E240" s="2"/>
       <c r="H240" s="8"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" ht="15">
       <c r="A241" s="2"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -3307,7 +3332,7 @@
       <c r="E241" s="2"/>
       <c r="H241" s="8"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" ht="15">
       <c r="A242" s="2"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -3315,7 +3340,7 @@
       <c r="E242" s="2"/>
       <c r="H242" s="8"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" ht="15">
       <c r="A243" s="2"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -3323,7 +3348,7 @@
       <c r="E243" s="2"/>
       <c r="H243" s="8"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" ht="15">
       <c r="A244" s="2"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -3331,7 +3356,7 @@
       <c r="E244" s="2"/>
       <c r="H244" s="8"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" ht="15">
       <c r="A245" s="2"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -3339,7 +3364,7 @@
       <c r="E245" s="2"/>
       <c r="H245" s="8"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" ht="15">
       <c r="A246" s="2"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -3347,7 +3372,7 @@
       <c r="E246" s="2"/>
       <c r="H246" s="8"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" ht="15">
       <c r="A247" s="2"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -3355,7 +3380,7 @@
       <c r="E247" s="2"/>
       <c r="H247" s="8"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" ht="15">
       <c r="A248" s="2"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -3363,7 +3388,7 @@
       <c r="E248" s="2"/>
       <c r="H248" s="8"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" ht="15">
       <c r="A249" s="2"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -3371,7 +3396,7 @@
       <c r="E249" s="2"/>
       <c r="H249" s="8"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" ht="15">
       <c r="A250" s="2"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -3379,7 +3404,7 @@
       <c r="E250" s="2"/>
       <c r="H250" s="8"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" ht="15">
       <c r="A251" s="2"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -3387,7 +3412,7 @@
       <c r="E251" s="2"/>
       <c r="H251" s="8"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" ht="15">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -3395,7 +3420,7 @@
       <c r="E252" s="2"/>
       <c r="H252" s="8"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" ht="15">
       <c r="A253" s="2"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -3403,7 +3428,7 @@
       <c r="E253" s="2"/>
       <c r="H253" s="8"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" ht="15">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -3411,7 +3436,7 @@
       <c r="E254" s="2"/>
       <c r="H254" s="8"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" ht="15">
       <c r="A255" s="2"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -3419,7 +3444,7 @@
       <c r="E255" s="2"/>
       <c r="H255" s="8"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" ht="15">
       <c r="A256" s="2"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -3427,7 +3452,7 @@
       <c r="E256" s="2"/>
       <c r="H256" s="8"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" ht="15">
       <c r="A257" s="2"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -3435,7 +3460,7 @@
       <c r="E257" s="2"/>
       <c r="H257" s="8"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" ht="15">
       <c r="A258" s="2"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -3443,7 +3468,7 @@
       <c r="E258" s="2"/>
       <c r="H258" s="8"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" ht="15">
       <c r="A259" s="2"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -3451,7 +3476,7 @@
       <c r="E259" s="2"/>
       <c r="H259" s="8"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" ht="15">
       <c r="A260" s="2"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -3459,7 +3484,7 @@
       <c r="E260" s="2"/>
       <c r="H260" s="8"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" ht="15">
       <c r="A261" s="2"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -3467,7 +3492,7 @@
       <c r="E261" s="2"/>
       <c r="H261" s="8"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" ht="15">
       <c r="A262" s="2"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -3475,7 +3500,7 @@
       <c r="E262" s="2"/>
       <c r="H262" s="8"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" ht="15">
       <c r="A263" s="2"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -3483,7 +3508,7 @@
       <c r="E263" s="2"/>
       <c r="H263" s="8"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" ht="15">
       <c r="A264" s="2"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -3491,7 +3516,7 @@
       <c r="E264" s="2"/>
       <c r="H264" s="8"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" ht="15">
       <c r="A265" s="2"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -3499,7 +3524,7 @@
       <c r="E265" s="2"/>
       <c r="H265" s="8"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" ht="15">
       <c r="A266" s="2"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -3507,7 +3532,7 @@
       <c r="E266" s="2"/>
       <c r="H266" s="8"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" ht="15">
       <c r="A267" s="2"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -3515,7 +3540,7 @@
       <c r="E267" s="2"/>
       <c r="H267" s="8"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" ht="15">
       <c r="A268" s="2"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -3523,7 +3548,7 @@
       <c r="E268" s="2"/>
       <c r="H268" s="8"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" ht="15">
       <c r="A269" s="2"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -3531,7 +3556,7 @@
       <c r="E269" s="2"/>
       <c r="H269" s="8"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" ht="15">
       <c r="A270" s="2"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -3539,7 +3564,7 @@
       <c r="E270" s="2"/>
       <c r="H270" s="8"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" ht="15">
       <c r="A271" s="2"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -3547,7 +3572,7 @@
       <c r="E271" s="2"/>
       <c r="H271" s="8"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" ht="15">
       <c r="A272" s="2"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -3555,7 +3580,7 @@
       <c r="E272" s="2"/>
       <c r="H272" s="8"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" ht="15">
       <c r="A273" s="2"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -3563,7 +3588,7 @@
       <c r="E273" s="2"/>
       <c r="H273" s="8"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" ht="15">
       <c r="A274" s="2"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -3571,7 +3596,7 @@
       <c r="E274" s="2"/>
       <c r="H274" s="8"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" ht="15">
       <c r="A275" s="2"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -3579,7 +3604,7 @@
       <c r="E275" s="2"/>
       <c r="H275" s="8"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" ht="15">
       <c r="A276" s="2"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -3587,7 +3612,7 @@
       <c r="E276" s="2"/>
       <c r="H276" s="8"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" ht="15">
       <c r="A277" s="2"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -3595,7 +3620,7 @@
       <c r="E277" s="2"/>
       <c r="H277" s="8"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" ht="15">
       <c r="A278" s="2"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -3603,7 +3628,7 @@
       <c r="E278" s="2"/>
       <c r="H278" s="8"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" ht="15">
       <c r="A279" s="2"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -3611,7 +3636,7 @@
       <c r="E279" s="2"/>
       <c r="H279" s="8"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" ht="15">
       <c r="A280" s="2"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -3619,7 +3644,7 @@
       <c r="E280" s="2"/>
       <c r="H280" s="8"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" ht="15">
       <c r="A281" s="2"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -3627,7 +3652,7 @@
       <c r="E281" s="2"/>
       <c r="H281" s="8"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" ht="15">
       <c r="A282" s="2"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -3635,7 +3660,7 @@
       <c r="E282" s="2"/>
       <c r="H282" s="8"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" ht="15">
       <c r="A283" s="2"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -3643,7 +3668,7 @@
       <c r="E283" s="2"/>
       <c r="H283" s="8"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" ht="15">
       <c r="A284" s="2"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -3651,7 +3676,7 @@
       <c r="E284" s="2"/>
       <c r="H284" s="8"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" ht="15">
       <c r="A285" s="2"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -3659,7 +3684,7 @@
       <c r="E285" s="2"/>
       <c r="H285" s="8"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" ht="15">
       <c r="A286" s="2"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -3667,7 +3692,7 @@
       <c r="E286" s="2"/>
       <c r="H286" s="8"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" ht="15">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -3675,7 +3700,7 @@
       <c r="E287" s="2"/>
       <c r="H287" s="8"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" ht="15">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -3683,7 +3708,7 @@
       <c r="E288" s="2"/>
       <c r="H288" s="8"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" ht="15">
       <c r="A289" s="2"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -3691,7 +3716,7 @@
       <c r="E289" s="2"/>
       <c r="H289" s="8"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" ht="15">
       <c r="A290" s="2"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -3699,7 +3724,7 @@
       <c r="E290" s="2"/>
       <c r="H290" s="8"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" ht="15">
       <c r="A291" s="2"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -3707,7 +3732,7 @@
       <c r="E291" s="2"/>
       <c r="H291" s="8"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" ht="15">
       <c r="A292" s="2"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -3715,7 +3740,7 @@
       <c r="E292" s="2"/>
       <c r="H292" s="8"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" ht="15">
       <c r="A293" s="2"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -3723,7 +3748,7 @@
       <c r="E293" s="2"/>
       <c r="H293" s="8"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" ht="15">
       <c r="A294" s="2"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -3731,7 +3756,7 @@
       <c r="E294" s="2"/>
       <c r="H294" s="8"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" ht="15">
       <c r="A295" s="2"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -3739,7 +3764,7 @@
       <c r="E295" s="2"/>
       <c r="H295" s="8"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" ht="15">
       <c r="A296" s="2"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -3747,7 +3772,7 @@
       <c r="E296" s="2"/>
       <c r="H296" s="8"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" ht="15">
       <c r="A297" s="2"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -3755,7 +3780,7 @@
       <c r="E297" s="2"/>
       <c r="H297" s="8"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" ht="15">
       <c r="A298" s="2"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -3763,7 +3788,7 @@
       <c r="E298" s="2"/>
       <c r="H298" s="8"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" ht="15">
       <c r="A299" s="2"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -3771,7 +3796,7 @@
       <c r="E299" s="2"/>
       <c r="H299" s="8"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" ht="15">
       <c r="A300" s="2"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -3779,7 +3804,7 @@
       <c r="E300" s="2"/>
       <c r="H300" s="8"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" ht="15">
       <c r="A301" s="2"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -3787,7 +3812,7 @@
       <c r="E301" s="2"/>
       <c r="H301" s="8"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" ht="15">
       <c r="A302" s="2"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -3795,7 +3820,7 @@
       <c r="E302" s="2"/>
       <c r="H302" s="8"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" ht="15">
       <c r="A303" s="2"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -3803,7 +3828,7 @@
       <c r="E303" s="2"/>
       <c r="H303" s="8"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" ht="15">
       <c r="A304" s="2"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -3811,7 +3836,7 @@
       <c r="E304" s="2"/>
       <c r="H304" s="8"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" ht="15">
       <c r="A305" s="2"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -3819,7 +3844,7 @@
       <c r="E305" s="2"/>
       <c r="H305" s="8"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" ht="15">
       <c r="A306" s="2"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -3827,7 +3852,7 @@
       <c r="E306" s="2"/>
       <c r="H306" s="8"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" ht="15">
       <c r="A307" s="2"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -3835,7 +3860,7 @@
       <c r="E307" s="2"/>
       <c r="H307" s="8"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" ht="15">
       <c r="A308" s="2"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -3843,7 +3868,7 @@
       <c r="E308" s="2"/>
       <c r="H308" s="8"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" ht="15">
       <c r="A309" s="2"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -3851,7 +3876,7 @@
       <c r="E309" s="2"/>
       <c r="H309" s="8"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" ht="15">
       <c r="A310" s="2"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -3859,7 +3884,7 @@
       <c r="E310" s="2"/>
       <c r="H310" s="8"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" ht="15">
       <c r="A311" s="2"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -3867,7 +3892,7 @@
       <c r="E311" s="2"/>
       <c r="H311" s="8"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" ht="15">
       <c r="A312" s="2"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -3875,7 +3900,7 @@
       <c r="E312" s="2"/>
       <c r="H312" s="8"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" ht="15">
       <c r="A313" s="2"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -3883,7 +3908,7 @@
       <c r="E313" s="2"/>
       <c r="H313" s="8"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" ht="15">
       <c r="A314" s="2"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -3891,7 +3916,7 @@
       <c r="E314" s="2"/>
       <c r="H314" s="8"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" ht="15">
       <c r="A315" s="2"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -3899,7 +3924,7 @@
       <c r="E315" s="2"/>
       <c r="H315" s="8"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" ht="15">
       <c r="A316" s="2"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -3907,7 +3932,7 @@
       <c r="E316" s="2"/>
       <c r="H316" s="8"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" ht="15">
       <c r="A317" s="2"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -3915,7 +3940,7 @@
       <c r="E317" s="2"/>
       <c r="H317" s="8"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" ht="15">
       <c r="A318" s="2"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -3923,7 +3948,7 @@
       <c r="E318" s="2"/>
       <c r="H318" s="8"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" ht="15">
       <c r="A319" s="2"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -3931,7 +3956,7 @@
       <c r="E319" s="2"/>
       <c r="H319" s="8"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" ht="15">
       <c r="A320" s="2"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -3939,7 +3964,7 @@
       <c r="E320" s="2"/>
       <c r="H320" s="8"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" ht="15">
       <c r="A321" s="2"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -3947,7 +3972,7 @@
       <c r="E321" s="2"/>
       <c r="H321" s="8"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" ht="15">
       <c r="A322" s="2"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -3955,7 +3980,7 @@
       <c r="E322" s="2"/>
       <c r="H322" s="8"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" ht="15">
       <c r="A323" s="2"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -3963,7 +3988,7 @@
       <c r="E323" s="2"/>
       <c r="H323" s="8"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" ht="15">
       <c r="A324" s="2"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -3971,7 +3996,7 @@
       <c r="E324" s="2"/>
       <c r="H324" s="8"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" ht="15">
       <c r="A325" s="2"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -3979,7 +4004,7 @@
       <c r="E325" s="2"/>
       <c r="H325" s="8"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" ht="15">
       <c r="A326" s="2"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -3987,7 +4012,7 @@
       <c r="E326" s="2"/>
       <c r="H326" s="8"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" ht="15">
       <c r="A327" s="2"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -3995,7 +4020,7 @@
       <c r="E327" s="2"/>
       <c r="H327" s="8"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" ht="15">
       <c r="A328" s="2"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -4003,7 +4028,7 @@
       <c r="E328" s="2"/>
       <c r="H328" s="8"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" ht="15">
       <c r="A329" s="2"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -4011,7 +4036,7 @@
       <c r="E329" s="2"/>
       <c r="H329" s="8"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" ht="15">
       <c r="A330" s="2"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -4019,7 +4044,7 @@
       <c r="E330" s="2"/>
       <c r="H330" s="8"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" ht="15">
       <c r="A331" s="2"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -4027,7 +4052,7 @@
       <c r="E331" s="2"/>
       <c r="H331" s="8"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" ht="15">
       <c r="A332" s="2"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -4035,7 +4060,7 @@
       <c r="E332" s="2"/>
       <c r="H332" s="8"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" ht="15">
       <c r="A333" s="2"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -4043,7 +4068,7 @@
       <c r="E333" s="2"/>
       <c r="H333" s="8"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" ht="15">
       <c r="A334" s="2"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -4051,7 +4076,7 @@
       <c r="E334" s="2"/>
       <c r="H334" s="8"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" ht="15">
       <c r="A335" s="2"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -4059,7 +4084,7 @@
       <c r="E335" s="2"/>
       <c r="H335" s="8"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" ht="15">
       <c r="A336" s="2"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -4067,7 +4092,7 @@
       <c r="E336" s="2"/>
       <c r="H336" s="8"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" ht="15">
       <c r="A337" s="2"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -4075,7 +4100,7 @@
       <c r="E337" s="2"/>
       <c r="H337" s="8"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" ht="15">
       <c r="A338" s="2"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -4083,7 +4108,7 @@
       <c r="E338" s="2"/>
       <c r="H338" s="8"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" ht="15">
       <c r="A339" s="2"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -4091,7 +4116,7 @@
       <c r="E339" s="2"/>
       <c r="H339" s="8"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" ht="15">
       <c r="A340" s="2"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -4099,7 +4124,7 @@
       <c r="E340" s="2"/>
       <c r="H340" s="8"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" ht="15">
       <c r="A341" s="2"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -4107,7 +4132,7 @@
       <c r="E341" s="2"/>
       <c r="H341" s="8"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" ht="15">
       <c r="A342" s="2"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -4115,7 +4140,7 @@
       <c r="E342" s="2"/>
       <c r="H342" s="8"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" ht="15">
       <c r="A343" s="2"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -4123,7 +4148,7 @@
       <c r="E343" s="2"/>
       <c r="H343" s="8"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" ht="15">
       <c r="A344" s="2"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -4131,7 +4156,7 @@
       <c r="E344" s="2"/>
       <c r="H344" s="8"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" ht="15">
       <c r="A345" s="2"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -4139,7 +4164,7 @@
       <c r="E345" s="2"/>
       <c r="H345" s="8"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" ht="15">
       <c r="A346" s="2"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -4147,7 +4172,7 @@
       <c r="E346" s="2"/>
       <c r="H346" s="8"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" ht="15">
       <c r="A347" s="2"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -4155,7 +4180,7 @@
       <c r="E347" s="2"/>
       <c r="H347" s="8"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" ht="15">
       <c r="A348" s="2"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -4163,7 +4188,7 @@
       <c r="E348" s="2"/>
       <c r="H348" s="8"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" ht="15">
       <c r="A349" s="2"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -4171,7 +4196,7 @@
       <c r="E349" s="2"/>
       <c r="H349" s="8"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" ht="15">
       <c r="A350" s="2"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -4179,7 +4204,7 @@
       <c r="E350" s="2"/>
       <c r="H350" s="8"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" ht="15">
       <c r="A351" s="2"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -4187,7 +4212,7 @@
       <c r="E351" s="2"/>
       <c r="H351" s="8"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" ht="15">
       <c r="A352" s="2"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -4195,7 +4220,7 @@
       <c r="E352" s="2"/>
       <c r="H352" s="8"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" ht="15">
       <c r="A353" s="2"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -4203,7 +4228,7 @@
       <c r="E353" s="2"/>
       <c r="H353" s="8"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" ht="15">
       <c r="A354" s="2"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -4211,7 +4236,7 @@
       <c r="E354" s="2"/>
       <c r="H354" s="8"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" ht="15">
       <c r="A355" s="2"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -4219,7 +4244,7 @@
       <c r="E355" s="2"/>
       <c r="H355" s="8"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" ht="15">
       <c r="A356" s="2"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -4227,7 +4252,7 @@
       <c r="E356" s="2"/>
       <c r="H356" s="8"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" ht="15">
       <c r="A357" s="2"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -4235,7 +4260,7 @@
       <c r="E357" s="2"/>
       <c r="H357" s="8"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" ht="15">
       <c r="A358" s="2"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -4243,7 +4268,7 @@
       <c r="E358" s="2"/>
       <c r="H358" s="8"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" ht="15">
       <c r="A359" s="2"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -4251,7 +4276,7 @@
       <c r="E359" s="2"/>
       <c r="H359" s="8"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" ht="15">
       <c r="A360" s="2"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -4259,7 +4284,7 @@
       <c r="E360" s="2"/>
       <c r="H360" s="8"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" ht="15">
       <c r="A361" s="2"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -4267,7 +4292,7 @@
       <c r="E361" s="2"/>
       <c r="H361" s="8"/>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" ht="15">
       <c r="A362" s="2"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -4275,7 +4300,7 @@
       <c r="E362" s="2"/>
       <c r="H362" s="8"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" ht="15">
       <c r="A363" s="2"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -4283,7 +4308,7 @@
       <c r="E363" s="2"/>
       <c r="H363" s="8"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" ht="15">
       <c r="A364" s="2"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -4291,7 +4316,7 @@
       <c r="E364" s="2"/>
       <c r="H364" s="8"/>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" ht="15">
       <c r="A365" s="2"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -4299,7 +4324,7 @@
       <c r="E365" s="2"/>
       <c r="H365" s="8"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" ht="15">
       <c r="A366" s="2"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -4307,7 +4332,7 @@
       <c r="E366" s="2"/>
       <c r="H366" s="8"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" ht="15">
       <c r="A367" s="2"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -4315,7 +4340,7 @@
       <c r="E367" s="2"/>
       <c r="H367" s="8"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" ht="15">
       <c r="A368" s="2"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -4323,7 +4348,7 @@
       <c r="E368" s="2"/>
       <c r="H368" s="8"/>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" ht="15">
       <c r="A369" s="2"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -4331,7 +4356,7 @@
       <c r="E369" s="2"/>
       <c r="H369" s="8"/>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" ht="15">
       <c r="A370" s="2"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -4339,7 +4364,7 @@
       <c r="E370" s="2"/>
       <c r="H370" s="8"/>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" ht="15">
       <c r="A371" s="2"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -4347,7 +4372,7 @@
       <c r="E371" s="2"/>
       <c r="H371" s="8"/>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" ht="15">
       <c r="A372" s="2"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -4355,7 +4380,7 @@
       <c r="E372" s="2"/>
       <c r="H372" s="8"/>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" ht="15">
       <c r="A373" s="2"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -4363,7 +4388,7 @@
       <c r="E373" s="2"/>
       <c r="H373" s="8"/>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" ht="15">
       <c r="A374" s="2"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -4371,7 +4396,7 @@
       <c r="E374" s="2"/>
       <c r="H374" s="8"/>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" ht="15">
       <c r="A375" s="2"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -4379,7 +4404,7 @@
       <c r="E375" s="2"/>
       <c r="H375" s="8"/>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" ht="15">
       <c r="A376" s="2"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -4387,7 +4412,7 @@
       <c r="E376" s="2"/>
       <c r="H376" s="8"/>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" ht="15">
       <c r="A377" s="2"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -4395,7 +4420,7 @@
       <c r="E377" s="2"/>
       <c r="H377" s="8"/>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" ht="15">
       <c r="A378" s="2"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -4403,7 +4428,7 @@
       <c r="E378" s="2"/>
       <c r="H378" s="8"/>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" ht="15">
       <c r="A379" s="2"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -4411,7 +4436,7 @@
       <c r="E379" s="2"/>
       <c r="H379" s="8"/>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" ht="15">
       <c r="A380" s="2"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -4419,7 +4444,7 @@
       <c r="E380" s="2"/>
       <c r="H380" s="8"/>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" ht="15">
       <c r="A381" s="2"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -4427,7 +4452,7 @@
       <c r="E381" s="2"/>
       <c r="H381" s="8"/>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" ht="15">
       <c r="A382" s="2"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -4435,7 +4460,7 @@
       <c r="E382" s="2"/>
       <c r="H382" s="8"/>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" ht="15">
       <c r="A383" s="2"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -4443,7 +4468,7 @@
       <c r="E383" s="2"/>
       <c r="H383" s="8"/>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" ht="15">
       <c r="A384" s="2"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -4451,7 +4476,7 @@
       <c r="E384" s="2"/>
       <c r="H384" s="8"/>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" ht="15">
       <c r="A385" s="2"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -4459,7 +4484,7 @@
       <c r="E385" s="2"/>
       <c r="H385" s="8"/>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" ht="15">
       <c r="A386" s="2"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -4467,7 +4492,7 @@
       <c r="E386" s="2"/>
       <c r="H386" s="8"/>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" ht="15">
       <c r="A387" s="2"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -4475,7 +4500,7 @@
       <c r="E387" s="2"/>
       <c r="H387" s="8"/>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" ht="15">
       <c r="A388" s="2"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -4483,7 +4508,7 @@
       <c r="E388" s="2"/>
       <c r="H388" s="8"/>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" ht="15">
       <c r="A389" s="2"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -4491,7 +4516,7 @@
       <c r="E389" s="2"/>
       <c r="H389" s="8"/>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" ht="15">
       <c r="A390" s="2"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -4499,7 +4524,7 @@
       <c r="E390" s="2"/>
       <c r="H390" s="8"/>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" ht="15">
       <c r="A391" s="2"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -4507,7 +4532,7 @@
       <c r="E391" s="2"/>
       <c r="H391" s="8"/>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" ht="15">
       <c r="A392" s="2"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -4515,7 +4540,7 @@
       <c r="E392" s="2"/>
       <c r="H392" s="8"/>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" ht="15">
       <c r="A393" s="2"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -4523,7 +4548,7 @@
       <c r="E393" s="2"/>
       <c r="H393" s="8"/>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" ht="15">
       <c r="A394" s="2"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -4531,7 +4556,7 @@
       <c r="E394" s="2"/>
       <c r="H394" s="8"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" ht="15">
       <c r="A395" s="2"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -4539,7 +4564,7 @@
       <c r="E395" s="2"/>
       <c r="H395" s="8"/>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" ht="15">
       <c r="A396" s="2"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -4547,7 +4572,7 @@
       <c r="E396" s="2"/>
       <c r="H396" s="8"/>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" ht="15">
       <c r="A397" s="2"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -4555,7 +4580,7 @@
       <c r="E397" s="2"/>
       <c r="H397" s="8"/>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" ht="15">
       <c r="A398" s="2"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -4563,7 +4588,7 @@
       <c r="E398" s="2"/>
       <c r="H398" s="8"/>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" ht="15">
       <c r="A399" s="2"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -4571,7 +4596,7 @@
       <c r="E399" s="2"/>
       <c r="H399" s="8"/>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" ht="15">
       <c r="A400" s="2"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -4579,7 +4604,7 @@
       <c r="E400" s="2"/>
       <c r="H400" s="8"/>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" ht="15">
       <c r="A401" s="2"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -4587,7 +4612,7 @@
       <c r="E401" s="2"/>
       <c r="H401" s="8"/>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" ht="15">
       <c r="A402" s="2"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -4595,7 +4620,7 @@
       <c r="E402" s="2"/>
       <c r="H402" s="8"/>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" ht="15">
       <c r="A403" s="2"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -4603,7 +4628,7 @@
       <c r="E403" s="2"/>
       <c r="H403" s="8"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" ht="15">
       <c r="A404" s="2"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -4611,7 +4636,7 @@
       <c r="E404" s="2"/>
       <c r="H404" s="8"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" ht="15">
       <c r="A405" s="2"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -4619,7 +4644,7 @@
       <c r="E405" s="2"/>
       <c r="H405" s="8"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" ht="15">
       <c r="A406" s="2"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -4627,7 +4652,7 @@
       <c r="E406" s="2"/>
       <c r="H406" s="8"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" ht="15">
       <c r="A407" s="2"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -4635,7 +4660,7 @@
       <c r="E407" s="2"/>
       <c r="H407" s="8"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" ht="15">
       <c r="A408" s="2"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -4643,7 +4668,7 @@
       <c r="E408" s="2"/>
       <c r="H408" s="8"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" ht="15">
       <c r="A409" s="2"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -4651,7 +4676,7 @@
       <c r="E409" s="2"/>
       <c r="H409" s="8"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" ht="15">
       <c r="A410" s="2"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -4659,7 +4684,7 @@
       <c r="E410" s="2"/>
       <c r="H410" s="8"/>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" ht="15">
       <c r="A411" s="2"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -4667,7 +4692,7 @@
       <c r="E411" s="2"/>
       <c r="H411" s="8"/>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" ht="15">
       <c r="A412" s="2"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -4675,7 +4700,7 @@
       <c r="E412" s="2"/>
       <c r="H412" s="8"/>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" ht="15">
       <c r="A413" s="2"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -4683,7 +4708,7 @@
       <c r="E413" s="2"/>
       <c r="H413" s="8"/>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" ht="15">
       <c r="A414" s="2"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -4691,7 +4716,7 @@
       <c r="E414" s="2"/>
       <c r="H414" s="8"/>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" ht="15">
       <c r="A415" s="2"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -4699,7 +4724,7 @@
       <c r="E415" s="2"/>
       <c r="H415" s="8"/>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" ht="15">
       <c r="A416" s="2"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -4707,7 +4732,7 @@
       <c r="E416" s="2"/>
       <c r="H416" s="8"/>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" ht="15">
       <c r="A417" s="2"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -4715,7 +4740,7 @@
       <c r="E417" s="2"/>
       <c r="H417" s="8"/>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" ht="15">
       <c r="A418" s="2"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -4723,7 +4748,7 @@
       <c r="E418" s="2"/>
       <c r="H418" s="8"/>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" ht="15">
       <c r="A419" s="2"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -4731,7 +4756,7 @@
       <c r="E419" s="2"/>
       <c r="H419" s="8"/>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" ht="15">
       <c r="A420" s="2"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -4739,7 +4764,7 @@
       <c r="E420" s="2"/>
       <c r="H420" s="8"/>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" ht="15">
       <c r="A421" s="2"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -4747,7 +4772,7 @@
       <c r="E421" s="2"/>
       <c r="H421" s="8"/>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" ht="15">
       <c r="A422" s="2"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -4755,7 +4780,7 @@
       <c r="E422" s="2"/>
       <c r="H422" s="8"/>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" ht="15">
       <c r="A423" s="2"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -4763,7 +4788,7 @@
       <c r="E423" s="2"/>
       <c r="H423" s="8"/>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" ht="15">
       <c r="A424" s="2"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -4771,7 +4796,7 @@
       <c r="E424" s="2"/>
       <c r="H424" s="8"/>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" ht="15">
       <c r="A425" s="2"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -4779,7 +4804,7 @@
       <c r="E425" s="2"/>
       <c r="H425" s="8"/>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" ht="15">
       <c r="A426" s="2"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -4787,7 +4812,7 @@
       <c r="E426" s="2"/>
       <c r="H426" s="8"/>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" ht="15">
       <c r="A427" s="2"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -4795,7 +4820,7 @@
       <c r="E427" s="2"/>
       <c r="H427" s="8"/>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" ht="15">
       <c r="A428" s="2"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -4803,7 +4828,7 @@
       <c r="E428" s="2"/>
       <c r="H428" s="8"/>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" ht="15">
       <c r="A429" s="2"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -4811,7 +4836,7 @@
       <c r="E429" s="2"/>
       <c r="H429" s="8"/>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" ht="15">
       <c r="A430" s="2"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -4819,7 +4844,7 @@
       <c r="E430" s="2"/>
       <c r="H430" s="8"/>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" ht="15">
       <c r="A431" s="2"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -4827,7 +4852,7 @@
       <c r="E431" s="2"/>
       <c r="H431" s="8"/>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" ht="15">
       <c r="A432" s="2"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -4835,7 +4860,7 @@
       <c r="E432" s="2"/>
       <c r="H432" s="8"/>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" ht="15">
       <c r="A433" s="2"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -4843,7 +4868,7 @@
       <c r="E433" s="2"/>
       <c r="H433" s="8"/>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" ht="15">
       <c r="A434" s="2"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -4851,7 +4876,7 @@
       <c r="E434" s="2"/>
       <c r="H434" s="8"/>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" ht="15">
       <c r="A435" s="2"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -4859,7 +4884,7 @@
       <c r="E435" s="2"/>
       <c r="H435" s="8"/>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" ht="15">
       <c r="A436" s="2"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -4867,7 +4892,7 @@
       <c r="E436" s="2"/>
       <c r="H436" s="8"/>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" ht="15">
       <c r="A437" s="2"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -4875,7 +4900,7 @@
       <c r="E437" s="2"/>
       <c r="H437" s="8"/>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" ht="15">
       <c r="A438" s="2"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -4883,7 +4908,7 @@
       <c r="E438" s="2"/>
       <c r="H438" s="8"/>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" ht="15">
       <c r="A439" s="2"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -4891,7 +4916,7 @@
       <c r="E439" s="2"/>
       <c r="H439" s="8"/>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" ht="15">
       <c r="A440" s="2"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -4899,7 +4924,7 @@
       <c r="E440" s="2"/>
       <c r="H440" s="8"/>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" ht="15">
       <c r="A441" s="2"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -4907,7 +4932,7 @@
       <c r="E441" s="2"/>
       <c r="H441" s="8"/>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" ht="15">
       <c r="A442" s="2"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -4915,7 +4940,7 @@
       <c r="E442" s="2"/>
       <c r="H442" s="8"/>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" ht="15">
       <c r="A443" s="2"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -4923,7 +4948,7 @@
       <c r="E443" s="2"/>
       <c r="H443" s="8"/>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" ht="15">
       <c r="A444" s="2"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -4931,7 +4956,7 @@
       <c r="E444" s="2"/>
       <c r="H444" s="8"/>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" ht="15">
       <c r="A445" s="2"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -4939,7 +4964,7 @@
       <c r="E445" s="2"/>
       <c r="H445" s="8"/>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" ht="15">
       <c r="A446" s="2"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -4947,7 +4972,7 @@
       <c r="E446" s="2"/>
       <c r="H446" s="8"/>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" ht="15">
       <c r="A447" s="2"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -4955,7 +4980,7 @@
       <c r="E447" s="2"/>
       <c r="H447" s="8"/>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" ht="15">
       <c r="A448" s="2"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -4963,7 +4988,7 @@
       <c r="E448" s="2"/>
       <c r="H448" s="8"/>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" ht="15">
       <c r="A449" s="2"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -4971,7 +4996,7 @@
       <c r="E449" s="2"/>
       <c r="H449" s="8"/>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" ht="15">
       <c r="A450" s="2"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -4979,7 +5004,7 @@
       <c r="E450" s="2"/>
       <c r="H450" s="8"/>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" ht="15">
       <c r="A451" s="2"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -4987,7 +5012,7 @@
       <c r="E451" s="2"/>
       <c r="H451" s="8"/>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" ht="15">
       <c r="A452" s="2"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -4995,7 +5020,7 @@
       <c r="E452" s="2"/>
       <c r="H452" s="8"/>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" ht="15">
       <c r="A453" s="2"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -5003,7 +5028,7 @@
       <c r="E453" s="2"/>
       <c r="H453" s="8"/>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" ht="15">
       <c r="A454" s="2"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -5011,7 +5036,7 @@
       <c r="E454" s="2"/>
       <c r="H454" s="8"/>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" ht="15">
       <c r="A455" s="2"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -5019,7 +5044,7 @@
       <c r="E455" s="2"/>
       <c r="H455" s="8"/>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" ht="15">
       <c r="A456" s="2"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -5027,7 +5052,7 @@
       <c r="E456" s="2"/>
       <c r="H456" s="8"/>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" ht="15">
       <c r="A457" s="2"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -5035,7 +5060,7 @@
       <c r="E457" s="2"/>
       <c r="H457" s="8"/>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" ht="15">
       <c r="A458" s="2"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -5043,7 +5068,7 @@
       <c r="E458" s="2"/>
       <c r="H458" s="8"/>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" ht="15">
       <c r="A459" s="2"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -5051,7 +5076,7 @@
       <c r="E459" s="2"/>
       <c r="H459" s="8"/>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" ht="15">
       <c r="A460" s="2"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -5059,7 +5084,7 @@
       <c r="E460" s="2"/>
       <c r="H460" s="8"/>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" ht="15">
       <c r="A461" s="2"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -5067,7 +5092,7 @@
       <c r="E461" s="2"/>
       <c r="H461" s="8"/>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" ht="15">
       <c r="A462" s="2"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -5075,7 +5100,7 @@
       <c r="E462" s="2"/>
       <c r="H462" s="8"/>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" ht="15">
       <c r="A463" s="2"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -5083,7 +5108,7 @@
       <c r="E463" s="2"/>
       <c r="H463" s="8"/>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" ht="15">
       <c r="A464" s="2"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -5091,7 +5116,7 @@
       <c r="E464" s="2"/>
       <c r="H464" s="8"/>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" ht="15">
       <c r="A465" s="2"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -5099,7 +5124,7 @@
       <c r="E465" s="2"/>
       <c r="H465" s="8"/>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" ht="15">
       <c r="A466" s="2"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -5107,7 +5132,7 @@
       <c r="E466" s="2"/>
       <c r="H466" s="8"/>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" ht="15">
       <c r="A467" s="2"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -5115,7 +5140,7 @@
       <c r="E467" s="2"/>
       <c r="H467" s="8"/>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" ht="15">
       <c r="A468" s="2"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -5123,7 +5148,7 @@
       <c r="E468" s="2"/>
       <c r="H468" s="8"/>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" ht="15">
       <c r="A469" s="2"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -5131,7 +5156,7 @@
       <c r="E469" s="2"/>
       <c r="H469" s="8"/>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" ht="15">
       <c r="A470" s="2"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -5139,7 +5164,7 @@
       <c r="E470" s="2"/>
       <c r="H470" s="8"/>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" ht="15">
       <c r="A471" s="2"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -5147,7 +5172,7 @@
       <c r="E471" s="2"/>
       <c r="H471" s="8"/>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" ht="15">
       <c r="A472" s="2"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -5155,7 +5180,7 @@
       <c r="E472" s="2"/>
       <c r="H472" s="8"/>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" ht="15">
       <c r="A473" s="2"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -5163,7 +5188,7 @@
       <c r="E473" s="2"/>
       <c r="H473" s="8"/>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" ht="15">
       <c r="A474" s="2"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -5171,7 +5196,7 @@
       <c r="E474" s="2"/>
       <c r="H474" s="8"/>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" ht="15">
       <c r="A475" s="2"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -5179,7 +5204,7 @@
       <c r="E475" s="2"/>
       <c r="H475" s="8"/>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" ht="15">
       <c r="A476" s="2"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -5187,7 +5212,7 @@
       <c r="E476" s="2"/>
       <c r="H476" s="8"/>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" ht="15">
       <c r="A477" s="2"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -5195,7 +5220,7 @@
       <c r="E477" s="2"/>
       <c r="H477" s="8"/>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" ht="15">
       <c r="A478" s="2"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -5203,7 +5228,7 @@
       <c r="E478" s="2"/>
       <c r="H478" s="8"/>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" ht="15">
       <c r="A479" s="2"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -5211,7 +5236,7 @@
       <c r="E479" s="2"/>
       <c r="H479" s="8"/>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" ht="15">
       <c r="A480" s="2"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -5219,7 +5244,7 @@
       <c r="E480" s="2"/>
       <c r="H480" s="8"/>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" ht="15">
       <c r="A481" s="2"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -5227,7 +5252,7 @@
       <c r="E481" s="2"/>
       <c r="H481" s="8"/>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" ht="15">
       <c r="A482" s="2"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -5235,7 +5260,7 @@
       <c r="E482" s="2"/>
       <c r="H482" s="8"/>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" ht="15">
       <c r="A483" s="2"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -5243,7 +5268,7 @@
       <c r="E483" s="2"/>
       <c r="H483" s="8"/>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" ht="15">
       <c r="A484" s="2"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -5251,7 +5276,7 @@
       <c r="E484" s="2"/>
       <c r="H484" s="8"/>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" ht="15">
       <c r="A485" s="2"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -5259,7 +5284,7 @@
       <c r="E485" s="2"/>
       <c r="H485" s="8"/>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" ht="15">
       <c r="A486" s="2"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -5267,7 +5292,7 @@
       <c r="E486" s="2"/>
       <c r="H486" s="8"/>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" ht="15">
       <c r="A487" s="2"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -5275,7 +5300,7 @@
       <c r="E487" s="2"/>
       <c r="H487" s="8"/>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" ht="15">
       <c r="A488" s="2"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -5283,7 +5308,7 @@
       <c r="E488" s="2"/>
       <c r="H488" s="8"/>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" ht="15">
       <c r="A489" s="2"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -5291,7 +5316,7 @@
       <c r="E489" s="2"/>
       <c r="H489" s="8"/>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" ht="15">
       <c r="A490" s="2"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -5299,7 +5324,7 @@
       <c r="E490" s="2"/>
       <c r="H490" s="8"/>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" ht="15">
       <c r="A491" s="2"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -5307,7 +5332,7 @@
       <c r="E491" s="2"/>
       <c r="H491" s="8"/>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" ht="15">
       <c r="A492" s="2"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -5315,7 +5340,7 @@
       <c r="E492" s="2"/>
       <c r="H492" s="8"/>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" ht="15">
       <c r="A493" s="2"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -5323,7 +5348,7 @@
       <c r="E493" s="2"/>
       <c r="H493" s="8"/>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" ht="15">
       <c r="A494" s="2"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -5331,7 +5356,7 @@
       <c r="E494" s="2"/>
       <c r="H494" s="8"/>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" ht="15">
       <c r="A495" s="2"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -5339,7 +5364,7 @@
       <c r="E495" s="2"/>
       <c r="H495" s="8"/>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" ht="15">
       <c r="A496" s="2"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -5347,7 +5372,7 @@
       <c r="E496" s="2"/>
       <c r="H496" s="8"/>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" ht="15">
       <c r="A497" s="2"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -5355,7 +5380,7 @@
       <c r="E497" s="2"/>
       <c r="H497" s="8"/>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" ht="15">
       <c r="A498" s="2"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -5363,7 +5388,7 @@
       <c r="E498" s="2"/>
       <c r="H498" s="8"/>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" ht="15">
       <c r="A499" s="2"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -5371,7 +5396,7 @@
       <c r="E499" s="2"/>
       <c r="H499" s="8"/>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" ht="15">
       <c r="A500" s="2"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -5379,7 +5404,7 @@
       <c r="E500" s="2"/>
       <c r="H500" s="8"/>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" ht="15">
       <c r="A501" s="2"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -5387,7 +5412,7 @@
       <c r="E501" s="2"/>
       <c r="H501" s="8"/>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" ht="15">
       <c r="A502" s="2"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -5395,7 +5420,7 @@
       <c r="E502" s="2"/>
       <c r="H502" s="8"/>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" ht="15">
       <c r="A503" s="2"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -5403,7 +5428,7 @@
       <c r="E503" s="2"/>
       <c r="H503" s="8"/>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" ht="15">
       <c r="A504" s="2"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -5411,7 +5436,7 @@
       <c r="E504" s="2"/>
       <c r="H504" s="8"/>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" ht="15">
       <c r="A505" s="2"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -5419,7 +5444,7 @@
       <c r="E505" s="2"/>
       <c r="H505" s="8"/>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" ht="15">
       <c r="A506" s="2"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -5427,7 +5452,7 @@
       <c r="E506" s="2"/>
       <c r="H506" s="8"/>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" ht="15">
       <c r="A507" s="2"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -5435,7 +5460,7 @@
       <c r="E507" s="2"/>
       <c r="H507" s="8"/>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" ht="15">
       <c r="A508" s="2"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -5443,7 +5468,7 @@
       <c r="E508" s="2"/>
       <c r="H508" s="8"/>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" ht="15">
       <c r="A509" s="2"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -5451,7 +5476,7 @@
       <c r="E509" s="2"/>
       <c r="H509" s="8"/>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" ht="15">
       <c r="A510" s="2"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -5459,7 +5484,7 @@
       <c r="E510" s="2"/>
       <c r="H510" s="8"/>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" ht="15">
       <c r="A511" s="2"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -5467,7 +5492,7 @@
       <c r="E511" s="2"/>
       <c r="H511" s="8"/>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" ht="15">
       <c r="A512" s="2"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -5475,7 +5500,7 @@
       <c r="E512" s="2"/>
       <c r="H512" s="8"/>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" ht="15">
       <c r="A513" s="2"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -5483,7 +5508,7 @@
       <c r="E513" s="2"/>
       <c r="H513" s="8"/>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" ht="15">
       <c r="A514" s="2"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -5491,7 +5516,7 @@
       <c r="E514" s="2"/>
       <c r="H514" s="8"/>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" ht="15">
       <c r="A515" s="2"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -5499,7 +5524,7 @@
       <c r="E515" s="2"/>
       <c r="H515" s="8"/>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" ht="15">
       <c r="A516" s="2"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -5507,7 +5532,7 @@
       <c r="E516" s="2"/>
       <c r="H516" s="8"/>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" ht="15">
       <c r="A517" s="2"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -5515,7 +5540,7 @@
       <c r="E517" s="2"/>
       <c r="H517" s="8"/>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" ht="15">
       <c r="A518" s="2"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -5523,7 +5548,7 @@
       <c r="E518" s="2"/>
       <c r="H518" s="8"/>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" ht="15">
       <c r="A519" s="2"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -5531,7 +5556,7 @@
       <c r="E519" s="2"/>
       <c r="H519" s="8"/>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" ht="15">
       <c r="A520" s="2"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -5539,7 +5564,7 @@
       <c r="E520" s="2"/>
       <c r="H520" s="8"/>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" ht="15">
       <c r="A521" s="2"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -5547,7 +5572,7 @@
       <c r="E521" s="2"/>
       <c r="H521" s="8"/>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" ht="15">
       <c r="A522" s="2"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -5555,7 +5580,7 @@
       <c r="E522" s="2"/>
       <c r="H522" s="8"/>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" ht="15">
       <c r="A523" s="2"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -5563,7 +5588,7 @@
       <c r="E523" s="2"/>
       <c r="H523" s="8"/>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" ht="15">
       <c r="A524" s="2"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -5571,7 +5596,7 @@
       <c r="E524" s="2"/>
       <c r="H524" s="8"/>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" ht="15">
       <c r="A525" s="2"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -5579,7 +5604,7 @@
       <c r="E525" s="2"/>
       <c r="H525" s="8"/>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" ht="15">
       <c r="A526" s="2"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -5587,7 +5612,7 @@
       <c r="E526" s="2"/>
       <c r="H526" s="8"/>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" ht="15">
       <c r="A527" s="2"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -5595,7 +5620,7 @@
       <c r="E527" s="2"/>
       <c r="H527" s="8"/>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" ht="15">
       <c r="A528" s="2"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -5603,7 +5628,7 @@
       <c r="E528" s="2"/>
       <c r="H528" s="8"/>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" ht="15">
       <c r="A529" s="2"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -5611,7 +5636,7 @@
       <c r="E529" s="2"/>
       <c r="H529" s="8"/>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" ht="15">
       <c r="A530" s="2"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -5619,7 +5644,7 @@
       <c r="E530" s="2"/>
       <c r="H530" s="8"/>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" ht="15">
       <c r="A531" s="2"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -5627,7 +5652,7 @@
       <c r="E531" s="2"/>
       <c r="H531" s="8"/>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" ht="15">
       <c r="A532" s="2"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -5635,7 +5660,7 @@
       <c r="E532" s="2"/>
       <c r="H532" s="8"/>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" ht="15">
       <c r="A533" s="2"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -5643,7 +5668,7 @@
       <c r="E533" s="2"/>
       <c r="H533" s="8"/>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" ht="15">
       <c r="A534" s="2"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -5651,7 +5676,7 @@
       <c r="E534" s="2"/>
       <c r="H534" s="8"/>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" ht="15">
       <c r="A535" s="2"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -5659,7 +5684,7 @@
       <c r="E535" s="2"/>
       <c r="H535" s="8"/>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" ht="15">
       <c r="A536" s="2"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -5667,7 +5692,7 @@
       <c r="E536" s="2"/>
       <c r="H536" s="8"/>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" ht="15">
       <c r="A537" s="2"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -5675,7 +5700,7 @@
       <c r="E537" s="2"/>
       <c r="H537" s="8"/>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" ht="15">
       <c r="A538" s="2"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -5683,7 +5708,7 @@
       <c r="E538" s="2"/>
       <c r="H538" s="8"/>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" ht="15">
       <c r="A539" s="2"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -5691,7 +5716,7 @@
       <c r="E539" s="2"/>
       <c r="H539" s="8"/>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" ht="15">
       <c r="A540" s="2"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -5699,7 +5724,7 @@
       <c r="E540" s="2"/>
       <c r="H540" s="8"/>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" ht="15">
       <c r="A541" s="2"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -5707,7 +5732,7 @@
       <c r="E541" s="2"/>
       <c r="H541" s="8"/>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" ht="15">
       <c r="A542" s="2"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -5715,7 +5740,7 @@
       <c r="E542" s="2"/>
       <c r="H542" s="8"/>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" ht="15">
       <c r="A543" s="2"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -5723,7 +5748,7 @@
       <c r="E543" s="2"/>
       <c r="H543" s="8"/>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" ht="15">
       <c r="A544" s="2"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -5731,7 +5756,7 @@
       <c r="E544" s="2"/>
       <c r="H544" s="8"/>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" ht="15">
       <c r="A545" s="2"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -5739,7 +5764,7 @@
       <c r="E545" s="2"/>
       <c r="H545" s="8"/>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" ht="15">
       <c r="A546" s="2"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -5747,7 +5772,7 @@
       <c r="E546" s="2"/>
       <c r="H546" s="8"/>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" ht="15">
       <c r="A547" s="2"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -5755,7 +5780,7 @@
       <c r="E547" s="2"/>
       <c r="H547" s="8"/>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" ht="15">
       <c r="A548" s="2"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -5763,7 +5788,7 @@
       <c r="E548" s="2"/>
       <c r="H548" s="8"/>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" ht="15">
       <c r="A549" s="2"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -5771,7 +5796,7 @@
       <c r="E549" s="2"/>
       <c r="H549" s="8"/>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" ht="15">
       <c r="A550" s="2"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -5779,7 +5804,7 @@
       <c r="E550" s="2"/>
       <c r="H550" s="8"/>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" ht="15">
       <c r="A551" s="2"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -5787,7 +5812,7 @@
       <c r="E551" s="2"/>
       <c r="H551" s="8"/>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" ht="15">
       <c r="A552" s="2"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -5795,7 +5820,7 @@
       <c r="E552" s="2"/>
       <c r="H552" s="8"/>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" ht="15">
       <c r="A553" s="2"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -5803,7 +5828,7 @@
       <c r="E553" s="2"/>
       <c r="H553" s="8"/>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" ht="15">
       <c r="A554" s="2"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -5811,7 +5836,7 @@
       <c r="E554" s="2"/>
       <c r="H554" s="8"/>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" ht="15">
       <c r="A555" s="2"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -5819,7 +5844,7 @@
       <c r="E555" s="2"/>
       <c r="H555" s="8"/>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" ht="15">
       <c r="A556" s="2"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -5827,7 +5852,7 @@
       <c r="E556" s="2"/>
       <c r="H556" s="8"/>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" ht="15">
       <c r="A557" s="2"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -5835,7 +5860,7 @@
       <c r="E557" s="2"/>
       <c r="H557" s="8"/>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" ht="15">
       <c r="A558" s="2"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -5843,7 +5868,7 @@
       <c r="E558" s="2"/>
       <c r="H558" s="8"/>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" ht="15">
       <c r="A559" s="2"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -5851,7 +5876,7 @@
       <c r="E559" s="2"/>
       <c r="H559" s="8"/>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" ht="15">
       <c r="A560" s="2"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -5859,7 +5884,7 @@
       <c r="E560" s="2"/>
       <c r="H560" s="8"/>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" ht="15">
       <c r="A561" s="2"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -5867,7 +5892,7 @@
       <c r="E561" s="2"/>
       <c r="H561" s="8"/>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" ht="15">
       <c r="A562" s="2"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -5875,7 +5900,7 @@
       <c r="E562" s="2"/>
       <c r="H562" s="8"/>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" ht="15">
       <c r="A563" s="2"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -5883,7 +5908,7 @@
       <c r="E563" s="2"/>
       <c r="H563" s="8"/>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" ht="15">
       <c r="A564" s="2"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -5891,7 +5916,7 @@
       <c r="E564" s="2"/>
       <c r="H564" s="8"/>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" ht="15">
       <c r="A565" s="2"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -5899,7 +5924,7 @@
       <c r="E565" s="2"/>
       <c r="H565" s="8"/>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" ht="15">
       <c r="A566" s="2"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -5907,7 +5932,7 @@
       <c r="E566" s="2"/>
       <c r="H566" s="8"/>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" ht="15">
       <c r="A567" s="2"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -5915,7 +5940,7 @@
       <c r="E567" s="2"/>
       <c r="H567" s="8"/>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" ht="15">
       <c r="A568" s="2"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -5923,7 +5948,7 @@
       <c r="E568" s="2"/>
       <c r="H568" s="8"/>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" ht="15">
       <c r="A569" s="2"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -5931,7 +5956,7 @@
       <c r="E569" s="2"/>
       <c r="H569" s="8"/>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" ht="15">
       <c r="A570" s="2"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -5939,7 +5964,7 @@
       <c r="E570" s="2"/>
       <c r="H570" s="8"/>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" ht="15">
       <c r="A571" s="2"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -5947,7 +5972,7 @@
       <c r="E571" s="2"/>
       <c r="H571" s="8"/>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" ht="15">
       <c r="A572" s="2"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -5955,7 +5980,7 @@
       <c r="E572" s="2"/>
       <c r="H572" s="8"/>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" ht="15">
       <c r="A573" s="2"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -5963,7 +5988,7 @@
       <c r="E573" s="2"/>
       <c r="H573" s="8"/>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" ht="15">
       <c r="A574" s="2"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -5971,7 +5996,7 @@
       <c r="E574" s="2"/>
       <c r="H574" s="8"/>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" ht="15">
       <c r="A575" s="2"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -5979,7 +6004,7 @@
       <c r="E575" s="2"/>
       <c r="H575" s="8"/>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" ht="15">
       <c r="A576" s="2"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -5987,7 +6012,7 @@
       <c r="E576" s="2"/>
       <c r="H576" s="8"/>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" ht="15">
       <c r="A577" s="2"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -5995,7 +6020,7 @@
       <c r="E577" s="2"/>
       <c r="H577" s="8"/>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" ht="15">
       <c r="A578" s="2"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -6003,7 +6028,7 @@
       <c r="E578" s="2"/>
       <c r="H578" s="8"/>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" ht="15">
       <c r="A579" s="2"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -6011,7 +6036,7 @@
       <c r="E579" s="2"/>
       <c r="H579" s="8"/>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" ht="15">
       <c r="A580" s="2"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -6019,7 +6044,7 @@
       <c r="E580" s="2"/>
       <c r="H580" s="8"/>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" ht="15">
       <c r="A581" s="2"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -6027,7 +6052,7 @@
       <c r="E581" s="2"/>
       <c r="H581" s="8"/>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" ht="15">
       <c r="A582" s="2"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -6035,7 +6060,7 @@
       <c r="E582" s="2"/>
       <c r="H582" s="8"/>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" ht="15">
       <c r="A583" s="2"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -6043,7 +6068,7 @@
       <c r="E583" s="2"/>
       <c r="H583" s="8"/>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" ht="15">
       <c r="A584" s="2"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -6051,7 +6076,7 @@
       <c r="E584" s="2"/>
       <c r="H584" s="8"/>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" ht="15">
       <c r="A585" s="2"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -6059,7 +6084,7 @@
       <c r="E585" s="2"/>
       <c r="H585" s="8"/>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" ht="15">
       <c r="A586" s="2"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -6067,7 +6092,7 @@
       <c r="E586" s="2"/>
       <c r="H586" s="8"/>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" ht="15">
       <c r="A587" s="2"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -6075,7 +6100,7 @@
       <c r="E587" s="2"/>
       <c r="H587" s="8"/>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" ht="15">
       <c r="A588" s="2"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -6083,7 +6108,7 @@
       <c r="E588" s="2"/>
       <c r="H588" s="8"/>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" ht="15">
       <c r="A589" s="2"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -6091,7 +6116,7 @@
       <c r="E589" s="2"/>
       <c r="H589" s="8"/>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" ht="15">
       <c r="A590" s="2"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -6099,7 +6124,7 @@
       <c r="E590" s="2"/>
       <c r="H590" s="8"/>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" ht="15">
       <c r="A591" s="2"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -6107,7 +6132,7 @@
       <c r="E591" s="2"/>
       <c r="H591" s="8"/>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" ht="15">
       <c r="A592" s="2"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -6115,7 +6140,7 @@
       <c r="E592" s="2"/>
       <c r="H592" s="8"/>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" ht="15">
       <c r="A593" s="2"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -6123,7 +6148,7 @@
       <c r="E593" s="2"/>
       <c r="H593" s="8"/>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" ht="15">
       <c r="A594" s="2"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -6131,7 +6156,7 @@
       <c r="E594" s="2"/>
       <c r="H594" s="8"/>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" ht="15">
       <c r="A595" s="2"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -6139,7 +6164,7 @@
       <c r="E595" s="2"/>
       <c r="H595" s="8"/>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" ht="15">
       <c r="A596" s="2"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -6147,7 +6172,7 @@
       <c r="E596" s="2"/>
       <c r="H596" s="8"/>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" ht="15">
       <c r="A597" s="2"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -6155,7 +6180,7 @@
       <c r="E597" s="2"/>
       <c r="H597" s="8"/>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" ht="15">
       <c r="A598" s="2"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -6163,7 +6188,7 @@
       <c r="E598" s="2"/>
       <c r="H598" s="8"/>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" ht="15">
       <c r="A599" s="2"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -6171,7 +6196,7 @@
       <c r="E599" s="2"/>
       <c r="H599" s="8"/>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" ht="15">
       <c r="A600" s="2"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -6179,7 +6204,7 @@
       <c r="E600" s="2"/>
       <c r="H600" s="8"/>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" ht="15">
       <c r="A601" s="2"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -6187,7 +6212,7 @@
       <c r="E601" s="2"/>
       <c r="H601" s="8"/>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" ht="15">
       <c r="A602" s="2"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -6195,7 +6220,7 @@
       <c r="E602" s="2"/>
       <c r="H602" s="8"/>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" ht="15">
       <c r="A603" s="2"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -6203,7 +6228,7 @@
       <c r="E603" s="2"/>
       <c r="H603" s="8"/>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" ht="15">
       <c r="A604" s="2"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -6211,7 +6236,7 @@
       <c r="E604" s="2"/>
       <c r="H604" s="8"/>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" ht="15">
       <c r="A605" s="2"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -6219,7 +6244,7 @@
       <c r="E605" s="2"/>
       <c r="H605" s="8"/>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" ht="15">
       <c r="A606" s="2"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -6227,7 +6252,7 @@
       <c r="E606" s="2"/>
       <c r="H606" s="8"/>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" ht="15">
       <c r="A607" s="2"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -6235,7 +6260,7 @@
       <c r="E607" s="2"/>
       <c r="H607" s="8"/>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" ht="15">
       <c r="A608" s="2"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -6243,7 +6268,7 @@
       <c r="E608" s="2"/>
       <c r="H608" s="8"/>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" ht="15">
       <c r="A609" s="2"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -6251,7 +6276,7 @@
       <c r="E609" s="2"/>
       <c r="H609" s="8"/>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" ht="15">
       <c r="A610" s="2"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -6259,7 +6284,7 @@
       <c r="E610" s="2"/>
       <c r="H610" s="8"/>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" ht="15">
       <c r="A611" s="2"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -6267,7 +6292,7 @@
       <c r="E611" s="2"/>
       <c r="H611" s="8"/>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" ht="15">
       <c r="A612" s="2"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -6275,7 +6300,7 @@
       <c r="E612" s="2"/>
       <c r="H612" s="8"/>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" ht="15">
       <c r="A613" s="2"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -6283,7 +6308,7 @@
       <c r="E613" s="2"/>
       <c r="H613" s="8"/>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" ht="15">
       <c r="A614" s="2"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -6291,7 +6316,7 @@
       <c r="E614" s="2"/>
       <c r="H614" s="8"/>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" ht="15">
       <c r="A615" s="2"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -6299,7 +6324,7 @@
       <c r="E615" s="2"/>
       <c r="H615" s="8"/>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" ht="15">
       <c r="A616" s="2"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -6307,7 +6332,7 @@
       <c r="E616" s="2"/>
       <c r="H616" s="8"/>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" ht="15">
       <c r="A617" s="2"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -6315,7 +6340,7 @@
       <c r="E617" s="2"/>
       <c r="H617" s="8"/>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" ht="15">
       <c r="A618" s="2"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -6323,7 +6348,7 @@
       <c r="E618" s="2"/>
       <c r="H618" s="8"/>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" ht="15">
       <c r="A619" s="2"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -6331,7 +6356,7 @@
       <c r="E619" s="2"/>
       <c r="H619" s="8"/>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" ht="15">
       <c r="A620" s="2"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -6339,7 +6364,7 @@
       <c r="E620" s="2"/>
       <c r="H620" s="8"/>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" ht="15">
       <c r="A621" s="2"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -6347,7 +6372,7 @@
       <c r="E621" s="2"/>
       <c r="H621" s="8"/>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" ht="15">
       <c r="A622" s="2"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -6355,7 +6380,7 @@
       <c r="E622" s="2"/>
       <c r="H622" s="8"/>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" ht="15">
       <c r="A623" s="2"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -6363,7 +6388,7 @@
       <c r="E623" s="2"/>
       <c r="H623" s="8"/>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" ht="15">
       <c r="A624" s="2"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -6371,7 +6396,7 @@
       <c r="E624" s="2"/>
       <c r="H624" s="8"/>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" ht="15">
       <c r="A625" s="2"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -6379,7 +6404,7 @@
       <c r="E625" s="2"/>
       <c r="H625" s="8"/>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" ht="15">
       <c r="A626" s="2"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -6387,7 +6412,7 @@
       <c r="E626" s="2"/>
       <c r="H626" s="8"/>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" ht="15">
       <c r="A627" s="2"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -6395,7 +6420,7 @@
       <c r="E627" s="2"/>
       <c r="H627" s="8"/>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" ht="15">
       <c r="A628" s="2"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -6403,7 +6428,7 @@
       <c r="E628" s="2"/>
       <c r="H628" s="8"/>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" ht="15">
       <c r="A629" s="2"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -6411,7 +6436,7 @@
       <c r="E629" s="2"/>
       <c r="H629" s="8"/>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" ht="15">
       <c r="A630" s="2"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -6419,7 +6444,7 @@
       <c r="E630" s="2"/>
       <c r="H630" s="8"/>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" ht="15">
       <c r="A631" s="2"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -6427,7 +6452,7 @@
       <c r="E631" s="2"/>
       <c r="H631" s="8"/>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" ht="15">
       <c r="A632" s="2"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -6435,7 +6460,7 @@
       <c r="E632" s="2"/>
       <c r="H632" s="8"/>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" ht="15">
       <c r="A633" s="2"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -6443,7 +6468,7 @@
       <c r="E633" s="2"/>
       <c r="H633" s="8"/>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" ht="15">
       <c r="A634" s="2"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -6451,7 +6476,7 @@
       <c r="E634" s="2"/>
       <c r="H634" s="8"/>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" ht="15">
       <c r="A635" s="2"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -6459,7 +6484,7 @@
       <c r="E635" s="2"/>
       <c r="H635" s="8"/>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" ht="15">
       <c r="A636" s="2"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -6467,7 +6492,7 @@
       <c r="E636" s="2"/>
       <c r="H636" s="8"/>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" ht="15">
       <c r="A637" s="2"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -6475,7 +6500,7 @@
       <c r="E637" s="2"/>
       <c r="H637" s="8"/>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" ht="15">
       <c r="A638" s="2"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -6483,7 +6508,7 @@
       <c r="E638" s="2"/>
       <c r="H638" s="8"/>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" ht="15">
       <c r="A639" s="2"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -6491,7 +6516,7 @@
       <c r="E639" s="2"/>
       <c r="H639" s="8"/>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" ht="15">
       <c r="A640" s="2"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -6499,7 +6524,7 @@
       <c r="E640" s="2"/>
       <c r="H640" s="8"/>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" ht="15">
       <c r="A641" s="2"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -6507,7 +6532,7 @@
       <c r="E641" s="2"/>
       <c r="H641" s="8"/>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" ht="15">
       <c r="A642" s="2"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -6515,7 +6540,7 @@
       <c r="E642" s="2"/>
       <c r="H642" s="8"/>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" ht="15">
       <c r="A643" s="2"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -6523,7 +6548,7 @@
       <c r="E643" s="2"/>
       <c r="H643" s="8"/>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" ht="15">
       <c r="A644" s="2"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -6531,7 +6556,7 @@
       <c r="E644" s="2"/>
       <c r="H644" s="8"/>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" ht="15">
       <c r="A645" s="2"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -6539,7 +6564,7 @@
       <c r="E645" s="2"/>
       <c r="H645" s="8"/>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" ht="15">
       <c r="A646" s="2"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -6547,7 +6572,7 @@
       <c r="E646" s="2"/>
       <c r="H646" s="8"/>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" ht="15">
       <c r="A647" s="2"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -6555,7 +6580,7 @@
       <c r="E647" s="2"/>
       <c r="H647" s="8"/>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" ht="15">
       <c r="A648" s="2"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -6563,7 +6588,7 @@
       <c r="E648" s="2"/>
       <c r="H648" s="8"/>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" ht="15">
       <c r="A649" s="2"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -6571,7 +6596,7 @@
       <c r="E649" s="2"/>
       <c r="H649" s="8"/>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" ht="15">
       <c r="A650" s="2"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -6579,7 +6604,7 @@
       <c r="E650" s="2"/>
       <c r="H650" s="8"/>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" ht="15">
       <c r="A651" s="2"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -6587,7 +6612,7 @@
       <c r="E651" s="2"/>
       <c r="H651" s="8"/>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" ht="15">
       <c r="A652" s="2"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -6595,7 +6620,7 @@
       <c r="E652" s="2"/>
       <c r="H652" s="8"/>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" ht="15">
       <c r="A653" s="2"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -6603,7 +6628,7 @@
       <c r="E653" s="2"/>
       <c r="H653" s="8"/>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" ht="15">
       <c r="A654" s="2"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -6611,7 +6636,7 @@
       <c r="E654" s="2"/>
       <c r="H654" s="8"/>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" ht="15">
       <c r="A655" s="2"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -6619,7 +6644,7 @@
       <c r="E655" s="2"/>
       <c r="H655" s="8"/>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" ht="15">
       <c r="A656" s="2"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -6627,7 +6652,7 @@
       <c r="E656" s="2"/>
       <c r="H656" s="8"/>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" ht="15">
       <c r="A657" s="2"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -6635,7 +6660,7 @@
       <c r="E657" s="2"/>
       <c r="H657" s="8"/>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" ht="15">
       <c r="A658" s="2"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -6643,7 +6668,7 @@
       <c r="E658" s="2"/>
       <c r="H658" s="8"/>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" ht="15">
       <c r="A659" s="2"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -6651,7 +6676,7 @@
       <c r="E659" s="2"/>
       <c r="H659" s="8"/>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" ht="15">
       <c r="A660" s="2"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -6659,7 +6684,7 @@
       <c r="E660" s="2"/>
       <c r="H660" s="8"/>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" ht="15">
       <c r="A661" s="2"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -6667,7 +6692,7 @@
       <c r="E661" s="2"/>
       <c r="H661" s="8"/>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" ht="15">
       <c r="A662" s="2"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -6675,7 +6700,7 @@
       <c r="E662" s="2"/>
       <c r="H662" s="8"/>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" ht="15">
       <c r="A663" s="2"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -6683,7 +6708,7 @@
       <c r="E663" s="2"/>
       <c r="H663" s="8"/>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" ht="15">
       <c r="A664" s="2"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -6691,7 +6716,7 @@
       <c r="E664" s="2"/>
       <c r="H664" s="8"/>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" ht="15">
       <c r="A665" s="2"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -6699,7 +6724,7 @@
       <c r="E665" s="2"/>
       <c r="H665" s="8"/>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" ht="15">
       <c r="A666" s="2"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -6707,7 +6732,7 @@
       <c r="E666" s="2"/>
       <c r="H666" s="8"/>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" ht="15">
       <c r="A667" s="2"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -6715,7 +6740,7 @@
       <c r="E667" s="2"/>
       <c r="H667" s="8"/>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" ht="15">
       <c r="A668" s="2"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -6723,7 +6748,7 @@
       <c r="E668" s="2"/>
       <c r="H668" s="8"/>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" ht="15">
       <c r="A669" s="2"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -6731,7 +6756,7 @@
       <c r="E669" s="2"/>
       <c r="H669" s="8"/>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" ht="15">
       <c r="A670" s="2"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -6739,7 +6764,7 @@
       <c r="E670" s="2"/>
       <c r="H670" s="8"/>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" ht="15">
       <c r="A671" s="2"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -6747,7 +6772,7 @@
       <c r="E671" s="2"/>
       <c r="H671" s="8"/>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" ht="15">
       <c r="A672" s="2"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -6755,7 +6780,7 @@
       <c r="E672" s="2"/>
       <c r="H672" s="8"/>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" ht="15">
       <c r="A673" s="2"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -6763,7 +6788,7 @@
       <c r="E673" s="2"/>
       <c r="H673" s="8"/>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" ht="15">
       <c r="A674" s="2"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -6771,7 +6796,7 @@
       <c r="E674" s="2"/>
       <c r="H674" s="8"/>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" ht="15">
       <c r="A675" s="2"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -6779,7 +6804,7 @@
       <c r="E675" s="2"/>
       <c r="H675" s="8"/>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" ht="15">
       <c r="A676" s="2"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -6787,7 +6812,7 @@
       <c r="E676" s="2"/>
       <c r="H676" s="8"/>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" ht="15">
       <c r="A677" s="2"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -6795,7 +6820,7 @@
       <c r="E677" s="2"/>
       <c r="H677" s="8"/>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" ht="15">
       <c r="A678" s="2"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -6803,7 +6828,7 @@
       <c r="E678" s="2"/>
       <c r="H678" s="8"/>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" ht="15">
       <c r="A679" s="2"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -6811,7 +6836,7 @@
       <c r="E679" s="2"/>
       <c r="H679" s="8"/>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" ht="15">
       <c r="A680" s="2"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -6819,7 +6844,7 @@
       <c r="E680" s="2"/>
       <c r="H680" s="8"/>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" ht="15">
       <c r="A681" s="2"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -6827,7 +6852,7 @@
       <c r="E681" s="2"/>
       <c r="H681" s="8"/>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" ht="15">
       <c r="A682" s="2"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -6835,7 +6860,7 @@
       <c r="E682" s="2"/>
       <c r="H682" s="8"/>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" ht="15">
       <c r="A683" s="2"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -6843,7 +6868,7 @@
       <c r="E683" s="2"/>
       <c r="H683" s="8"/>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" ht="15">
       <c r="A684" s="2"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -6851,7 +6876,7 @@
       <c r="E684" s="2"/>
       <c r="H684" s="8"/>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" ht="15">
       <c r="A685" s="2"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -6859,7 +6884,7 @@
       <c r="E685" s="2"/>
       <c r="H685" s="8"/>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" ht="15">
       <c r="A686" s="2"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -6867,7 +6892,7 @@
       <c r="E686" s="2"/>
       <c r="H686" s="8"/>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" ht="15">
       <c r="A687" s="2"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -6875,7 +6900,7 @@
       <c r="E687" s="2"/>
       <c r="H687" s="8"/>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" ht="15">
       <c r="A688" s="2"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -6883,7 +6908,7 @@
       <c r="E688" s="2"/>
       <c r="H688" s="8"/>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" ht="15">
       <c r="A689" s="2"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -6891,7 +6916,7 @@
       <c r="E689" s="2"/>
       <c r="H689" s="8"/>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" ht="15">
       <c r="A690" s="2"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -6899,7 +6924,7 @@
       <c r="E690" s="2"/>
       <c r="H690" s="8"/>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" ht="15">
       <c r="A691" s="2"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -6907,7 +6932,7 @@
       <c r="E691" s="2"/>
       <c r="H691" s="8"/>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" ht="15">
       <c r="A692" s="2"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -6915,7 +6940,7 @@
       <c r="E692" s="2"/>
       <c r="H692" s="8"/>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" ht="15">
       <c r="A693" s="2"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -6923,7 +6948,7 @@
       <c r="E693" s="2"/>
       <c r="H693" s="8"/>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" ht="15">
       <c r="A694" s="2"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -6931,7 +6956,7 @@
       <c r="E694" s="2"/>
       <c r="H694" s="8"/>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" ht="15">
       <c r="A695" s="2"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -6939,7 +6964,7 @@
       <c r="E695" s="2"/>
       <c r="H695" s="8"/>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" ht="15">
       <c r="A696" s="2"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -6947,7 +6972,7 @@
       <c r="E696" s="2"/>
       <c r="H696" s="8"/>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" ht="15">
       <c r="A697" s="2"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -6955,7 +6980,7 @@
       <c r="E697" s="2"/>
       <c r="H697" s="8"/>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" ht="15">
       <c r="A698" s="2"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -6963,7 +6988,7 @@
       <c r="E698" s="2"/>
       <c r="H698" s="8"/>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" ht="15">
       <c r="A699" s="2"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -6971,7 +6996,7 @@
       <c r="E699" s="2"/>
       <c r="H699" s="8"/>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" ht="15">
       <c r="A700" s="2"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -6979,7 +7004,7 @@
       <c r="E700" s="2"/>
       <c r="H700" s="8"/>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" ht="15">
       <c r="A701" s="2"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -6987,7 +7012,7 @@
       <c r="E701" s="2"/>
       <c r="H701" s="8"/>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" ht="15">
       <c r="A702" s="2"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -6995,7 +7020,7 @@
       <c r="E702" s="2"/>
       <c r="H702" s="8"/>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" ht="15">
       <c r="A703" s="2"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -7003,7 +7028,7 @@
       <c r="E703" s="2"/>
       <c r="H703" s="8"/>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" ht="15">
       <c r="A704" s="2"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -7011,7 +7036,7 @@
       <c r="E704" s="2"/>
       <c r="H704" s="8"/>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" ht="15">
       <c r="A705" s="2"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -7019,7 +7044,7 @@
       <c r="E705" s="2"/>
       <c r="H705" s="8"/>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" ht="15">
       <c r="A706" s="2"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -7027,7 +7052,7 @@
       <c r="E706" s="2"/>
       <c r="H706" s="8"/>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" ht="15">
       <c r="A707" s="2"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -7035,7 +7060,7 @@
       <c r="E707" s="2"/>
       <c r="H707" s="8"/>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" ht="15">
       <c r="A708" s="2"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -7043,7 +7068,7 @@
       <c r="E708" s="2"/>
       <c r="H708" s="8"/>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" ht="15">
       <c r="A709" s="2"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -7051,7 +7076,7 @@
       <c r="E709" s="2"/>
       <c r="H709" s="8"/>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" ht="15">
       <c r="A710" s="2"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -7059,7 +7084,7 @@
       <c r="E710" s="2"/>
       <c r="H710" s="8"/>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" ht="15">
       <c r="A711" s="2"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -7067,7 +7092,7 @@
       <c r="E711" s="2"/>
       <c r="H711" s="8"/>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" ht="15">
       <c r="A712" s="2"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -7075,7 +7100,7 @@
       <c r="E712" s="2"/>
       <c r="H712" s="8"/>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" ht="15">
       <c r="A713" s="2"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -7083,7 +7108,7 @@
       <c r="E713" s="2"/>
       <c r="H713" s="8"/>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:8" ht="15">
       <c r="A714" s="2"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -7091,7 +7116,7 @@
       <c r="E714" s="2"/>
       <c r="H714" s="8"/>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:8" ht="15">
       <c r="A715" s="2"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -7099,7 +7124,7 @@
       <c r="E715" s="2"/>
       <c r="H715" s="8"/>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:8" ht="15">
       <c r="A716" s="2"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -7107,7 +7132,7 @@
       <c r="E716" s="2"/>
       <c r="H716" s="8"/>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" ht="15">
       <c r="A717" s="2"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -7115,7 +7140,7 @@
       <c r="E717" s="2"/>
       <c r="H717" s="8"/>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:8" ht="15">
       <c r="A718" s="2"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -7123,7 +7148,7 @@
       <c r="E718" s="2"/>
       <c r="H718" s="8"/>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" ht="15">
       <c r="A719" s="2"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -7131,7 +7156,7 @@
       <c r="E719" s="2"/>
       <c r="H719" s="8"/>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" ht="15">
       <c r="A720" s="2"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -7139,7 +7164,7 @@
       <c r="E720" s="2"/>
       <c r="H720" s="8"/>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" ht="15">
       <c r="A721" s="2"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -7147,7 +7172,7 @@
       <c r="E721" s="2"/>
       <c r="H721" s="8"/>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" ht="15">
       <c r="A722" s="2"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -7155,7 +7180,7 @@
       <c r="E722" s="2"/>
       <c r="H722" s="8"/>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" ht="15">
       <c r="A723" s="2"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -7163,7 +7188,7 @@
       <c r="E723" s="2"/>
       <c r="H723" s="8"/>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" ht="15">
       <c r="A724" s="2"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -7171,7 +7196,7 @@
       <c r="E724" s="2"/>
       <c r="H724" s="8"/>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" ht="15">
       <c r="A725" s="2"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -7179,7 +7204,7 @@
       <c r="E725" s="2"/>
       <c r="H725" s="8"/>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" ht="15">
       <c r="A726" s="2"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -7187,7 +7212,7 @@
       <c r="E726" s="2"/>
       <c r="H726" s="8"/>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" ht="15">
       <c r="A727" s="2"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -7195,7 +7220,7 @@
       <c r="E727" s="2"/>
       <c r="H727" s="8"/>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" ht="15">
       <c r="A728" s="2"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -7203,7 +7228,7 @@
       <c r="E728" s="2"/>
       <c r="H728" s="8"/>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" ht="15">
       <c r="A729" s="2"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -7211,7 +7236,7 @@
       <c r="E729" s="2"/>
       <c r="H729" s="8"/>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" ht="15">
       <c r="A730" s="2"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -7219,7 +7244,7 @@
       <c r="E730" s="2"/>
       <c r="H730" s="8"/>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" ht="15">
       <c r="A731" s="2"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -7227,7 +7252,7 @@
       <c r="E731" s="2"/>
       <c r="H731" s="8"/>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" ht="15">
       <c r="A732" s="2"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -7235,7 +7260,7 @@
       <c r="E732" s="2"/>
       <c r="H732" s="8"/>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" ht="15">
       <c r="A733" s="2"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -7243,7 +7268,7 @@
       <c r="E733" s="2"/>
       <c r="H733" s="8"/>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" ht="15">
       <c r="A734" s="2"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -7251,7 +7276,7 @@
       <c r="E734" s="2"/>
       <c r="H734" s="8"/>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" ht="15">
       <c r="A735" s="2"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -7259,7 +7284,7 @@
       <c r="E735" s="2"/>
       <c r="H735" s="8"/>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" ht="15">
       <c r="A736" s="2"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -7267,7 +7292,7 @@
       <c r="E736" s="2"/>
       <c r="H736" s="8"/>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" ht="15">
       <c r="A737" s="2"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -7275,7 +7300,7 @@
       <c r="E737" s="2"/>
       <c r="H737" s="8"/>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" ht="15">
       <c r="A738" s="2"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -7283,7 +7308,7 @@
       <c r="E738" s="2"/>
       <c r="H738" s="8"/>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" ht="15">
       <c r="A739" s="2"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -7291,7 +7316,7 @@
       <c r="E739" s="2"/>
       <c r="H739" s="8"/>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" ht="15">
       <c r="A740" s="2"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -7299,7 +7324,7 @@
       <c r="E740" s="2"/>
       <c r="H740" s="8"/>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" ht="15">
       <c r="A741" s="2"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -7307,7 +7332,7 @@
       <c r="E741" s="2"/>
       <c r="H741" s="8"/>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" ht="15">
       <c r="A742" s="2"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -7315,7 +7340,7 @@
       <c r="E742" s="2"/>
       <c r="H742" s="8"/>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" ht="15">
       <c r="A743" s="2"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -7323,7 +7348,7 @@
       <c r="E743" s="2"/>
       <c r="H743" s="8"/>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" ht="15">
       <c r="A744" s="2"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -7331,7 +7356,7 @@
       <c r="E744" s="2"/>
       <c r="H744" s="8"/>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" ht="15">
       <c r="A745" s="2"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -7339,7 +7364,7 @@
       <c r="E745" s="2"/>
       <c r="H745" s="8"/>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" ht="15">
       <c r="A746" s="2"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -7347,7 +7372,7 @@
       <c r="E746" s="2"/>
       <c r="H746" s="8"/>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" ht="15">
       <c r="A747" s="2"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -7355,7 +7380,7 @@
       <c r="E747" s="2"/>
       <c r="H747" s="8"/>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" ht="15">
       <c r="A748" s="2"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -7363,7 +7388,7 @@
       <c r="E748" s="2"/>
       <c r="H748" s="8"/>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" ht="15">
       <c r="A749" s="2"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -7371,7 +7396,7 @@
       <c r="E749" s="2"/>
       <c r="H749" s="8"/>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" ht="15">
       <c r="A750" s="2"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -7379,7 +7404,7 @@
       <c r="E750" s="2"/>
       <c r="H750" s="8"/>
     </row>
-    <row r="751" spans="1:8">
+    <row r="751" spans="1:8" ht="15">
       <c r="A751" s="2"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -7387,7 +7412,7 @@
       <c r="E751" s="2"/>
       <c r="H751" s="8"/>
     </row>
-    <row r="752" spans="1:8">
+    <row r="752" spans="1:8" ht="15">
       <c r="A752" s="2"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -7395,7 +7420,7 @@
       <c r="E752" s="2"/>
       <c r="H752" s="8"/>
     </row>
-    <row r="753" spans="1:8">
+    <row r="753" spans="1:8" ht="15">
       <c r="A753" s="2"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -7403,7 +7428,7 @@
       <c r="E753" s="2"/>
       <c r="H753" s="8"/>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" ht="15">
       <c r="A754" s="2"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -7411,7 +7436,7 @@
       <c r="E754" s="2"/>
       <c r="H754" s="8"/>
     </row>
-    <row r="755" spans="1:8">
+    <row r="755" spans="1:8" ht="15">
       <c r="A755" s="2"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -7419,7 +7444,7 @@
       <c r="E755" s="2"/>
       <c r="H755" s="8"/>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" ht="15">
       <c r="A756" s="2"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -7427,7 +7452,7 @@
       <c r="E756" s="2"/>
       <c r="H756" s="8"/>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" ht="15">
       <c r="A757" s="2"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -7435,7 +7460,7 @@
       <c r="E757" s="2"/>
       <c r="H757" s="8"/>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" ht="15">
       <c r="A758" s="2"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -7443,7 +7468,7 @@
       <c r="E758" s="2"/>
       <c r="H758" s="8"/>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" ht="15">
       <c r="A759" s="2"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -7451,7 +7476,7 @@
       <c r="E759" s="2"/>
       <c r="H759" s="8"/>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" ht="15">
       <c r="A760" s="2"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -7459,7 +7484,7 @@
       <c r="E760" s="2"/>
       <c r="H760" s="8"/>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" ht="15">
       <c r="A761" s="2"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -7467,7 +7492,7 @@
       <c r="E761" s="2"/>
       <c r="H761" s="8"/>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" ht="15">
       <c r="A762" s="2"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -7475,7 +7500,7 @@
       <c r="E762" s="2"/>
       <c r="H762" s="8"/>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" ht="15">
       <c r="A763" s="2"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -7483,7 +7508,7 @@
       <c r="E763" s="2"/>
       <c r="H763" s="8"/>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" ht="15">
       <c r="A764" s="2"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -7491,7 +7516,7 @@
       <c r="E764" s="2"/>
       <c r="H764" s="8"/>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" ht="15">
       <c r="A765" s="2"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -7499,7 +7524,7 @@
       <c r="E765" s="2"/>
       <c r="H765" s="8"/>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" ht="15">
       <c r="A766" s="2"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -7507,7 +7532,7 @@
       <c r="E766" s="2"/>
       <c r="H766" s="8"/>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" ht="15">
       <c r="A767" s="2"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -7515,7 +7540,7 @@
       <c r="E767" s="2"/>
       <c r="H767" s="8"/>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" ht="15">
       <c r="A768" s="2"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -7523,7 +7548,7 @@
       <c r="E768" s="2"/>
       <c r="H768" s="8"/>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" ht="15">
       <c r="A769" s="2"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -7531,7 +7556,7 @@
       <c r="E769" s="2"/>
       <c r="H769" s="8"/>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" ht="15">
       <c r="A770" s="2"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -7539,7 +7564,7 @@
       <c r="E770" s="2"/>
       <c r="H770" s="8"/>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" ht="15">
       <c r="A771" s="2"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -7547,7 +7572,7 @@
       <c r="E771" s="2"/>
       <c r="H771" s="8"/>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" ht="15">
       <c r="A772" s="2"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -7555,7 +7580,7 @@
       <c r="E772" s="2"/>
       <c r="H772" s="8"/>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" ht="15">
       <c r="A773" s="2"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -7563,7 +7588,7 @@
       <c r="E773" s="2"/>
       <c r="H773" s="8"/>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" ht="15">
       <c r="A774" s="2"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -7571,7 +7596,7 @@
       <c r="E774" s="2"/>
       <c r="H774" s="8"/>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" ht="15">
       <c r="A775" s="2"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -7579,7 +7604,7 @@
       <c r="E775" s="2"/>
       <c r="H775" s="8"/>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" ht="15">
       <c r="A776" s="2"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -7587,7 +7612,7 @@
       <c r="E776" s="2"/>
       <c r="H776" s="8"/>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" ht="15">
       <c r="A777" s="2"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -7595,7 +7620,7 @@
       <c r="E777" s="2"/>
       <c r="H777" s="8"/>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" ht="15">
       <c r="A778" s="2"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -7603,7 +7628,7 @@
       <c r="E778" s="2"/>
       <c r="H778" s="8"/>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" ht="15">
       <c r="A779" s="2"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -7611,7 +7636,7 @@
       <c r="E779" s="2"/>
       <c r="H779" s="8"/>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" ht="15">
       <c r="A780" s="2"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -7619,7 +7644,7 @@
       <c r="E780" s="2"/>
       <c r="H780" s="8"/>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" ht="15">
       <c r="A781" s="2"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -7627,7 +7652,7 @@
       <c r="E781" s="2"/>
       <c r="H781" s="8"/>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" ht="15">
       <c r="A782" s="2"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -7635,7 +7660,7 @@
       <c r="E782" s="2"/>
       <c r="H782" s="8"/>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" ht="15">
       <c r="A783" s="2"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -7643,7 +7668,7 @@
       <c r="E783" s="2"/>
       <c r="H783" s="8"/>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" ht="15">
       <c r="A784" s="2"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -7651,7 +7676,7 @@
       <c r="E784" s="2"/>
       <c r="H784" s="8"/>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" ht="15">
       <c r="A785" s="2"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -7659,7 +7684,7 @@
       <c r="E785" s="2"/>
       <c r="H785" s="8"/>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" ht="15">
       <c r="A786" s="2"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -7667,7 +7692,7 @@
       <c r="E786" s="2"/>
       <c r="H786" s="8"/>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" ht="15">
       <c r="A787" s="2"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -7675,7 +7700,7 @@
       <c r="E787" s="2"/>
       <c r="H787" s="8"/>
     </row>
-    <row r="788" spans="1:8">
+    <row r="788" spans="1:8" ht="15">
       <c r="A788" s="2"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -7683,7 +7708,7 @@
       <c r="E788" s="2"/>
       <c r="H788" s="8"/>
     </row>
-    <row r="789" spans="1:8">
+    <row r="789" spans="1:8" ht="15">
       <c r="A789" s="2"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -7691,7 +7716,7 @@
       <c r="E789" s="2"/>
       <c r="H789" s="8"/>
     </row>
-    <row r="790" spans="1:8">
+    <row r="790" spans="1:8" ht="15">
       <c r="A790" s="2"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -7699,7 +7724,7 @@
       <c r="E790" s="2"/>
       <c r="H790" s="8"/>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" ht="15">
       <c r="A791" s="2"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -7707,7 +7732,7 @@
       <c r="E791" s="2"/>
       <c r="H791" s="8"/>
     </row>
-    <row r="792" spans="1:8">
+    <row r="792" spans="1:8" ht="15">
       <c r="A792" s="2"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -7715,7 +7740,7 @@
       <c r="E792" s="2"/>
       <c r="H792" s="8"/>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" ht="15">
       <c r="A793" s="2"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -7723,7 +7748,7 @@
       <c r="E793" s="2"/>
       <c r="H793" s="8"/>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" ht="15">
       <c r="A794" s="2"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -7731,7 +7756,7 @@
       <c r="E794" s="2"/>
       <c r="H794" s="8"/>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" ht="15">
       <c r="A795" s="2"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -7739,7 +7764,7 @@
       <c r="E795" s="2"/>
       <c r="H795" s="8"/>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" ht="15">
       <c r="A796" s="2"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -7747,7 +7772,7 @@
       <c r="E796" s="2"/>
       <c r="H796" s="8"/>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" ht="15">
       <c r="A797" s="2"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -7755,7 +7780,7 @@
       <c r="E797" s="2"/>
       <c r="H797" s="8"/>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" ht="15">
       <c r="A798" s="2"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -7763,7 +7788,7 @@
       <c r="E798" s="2"/>
       <c r="H798" s="8"/>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" ht="15">
       <c r="A799" s="2"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -7771,7 +7796,7 @@
       <c r="E799" s="2"/>
       <c r="H799" s="8"/>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" ht="15">
       <c r="A800" s="2"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -7779,7 +7804,7 @@
       <c r="E800" s="2"/>
       <c r="H800" s="8"/>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" ht="15">
       <c r="A801" s="2"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -7787,7 +7812,7 @@
       <c r="E801" s="2"/>
       <c r="H801" s="8"/>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" ht="15">
       <c r="A802" s="2"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -7795,7 +7820,7 @@
       <c r="E802" s="2"/>
       <c r="H802" s="8"/>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" ht="15">
       <c r="A803" s="2"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -7803,7 +7828,7 @@
       <c r="E803" s="2"/>
       <c r="H803" s="8"/>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" ht="15">
       <c r="A804" s="2"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -7811,7 +7836,7 @@
       <c r="E804" s="2"/>
       <c r="H804" s="8"/>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" ht="15">
       <c r="A805" s="2"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -7819,7 +7844,7 @@
       <c r="E805" s="2"/>
       <c r="H805" s="8"/>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" ht="15">
       <c r="A806" s="2"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -7827,7 +7852,7 @@
       <c r="E806" s="2"/>
       <c r="H806" s="8"/>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" ht="15">
       <c r="A807" s="2"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -7835,7 +7860,7 @@
       <c r="E807" s="2"/>
       <c r="H807" s="8"/>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" ht="15">
       <c r="A808" s="2"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -7843,7 +7868,7 @@
       <c r="E808" s="2"/>
       <c r="H808" s="8"/>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" ht="15">
       <c r="A809" s="2"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -7851,7 +7876,7 @@
       <c r="E809" s="2"/>
       <c r="H809" s="8"/>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" ht="15">
       <c r="A810" s="2"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -7859,7 +7884,7 @@
       <c r="E810" s="2"/>
       <c r="H810" s="8"/>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" ht="15">
       <c r="A811" s="2"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -7867,7 +7892,7 @@
       <c r="E811" s="2"/>
       <c r="H811" s="8"/>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" ht="15">
       <c r="A812" s="2"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -7875,7 +7900,7 @@
       <c r="E812" s="2"/>
       <c r="H812" s="8"/>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" ht="15">
       <c r="A813" s="2"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -7883,7 +7908,7 @@
       <c r="E813" s="2"/>
       <c r="H813" s="8"/>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" ht="15">
       <c r="A814" s="2"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -7891,7 +7916,7 @@
       <c r="E814" s="2"/>
       <c r="H814" s="8"/>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" ht="15">
       <c r="A815" s="2"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -7899,7 +7924,7 @@
       <c r="E815" s="2"/>
       <c r="H815" s="8"/>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" ht="15">
       <c r="A816" s="2"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -7907,7 +7932,7 @@
       <c r="E816" s="2"/>
       <c r="H816" s="8"/>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" ht="15">
       <c r="A817" s="2"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -7915,7 +7940,7 @@
       <c r="E817" s="2"/>
       <c r="H817" s="8"/>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" ht="15">
       <c r="A818" s="2"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -7923,7 +7948,7 @@
       <c r="E818" s="2"/>
       <c r="H818" s="8"/>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" ht="15">
       <c r="A819" s="2"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -7931,7 +7956,7 @@
       <c r="E819" s="2"/>
       <c r="H819" s="8"/>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" ht="15">
       <c r="A820" s="2"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -7939,7 +7964,7 @@
       <c r="E820" s="2"/>
       <c r="H820" s="8"/>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" ht="15">
       <c r="A821" s="2"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -7947,7 +7972,7 @@
       <c r="E821" s="2"/>
       <c r="H821" s="8"/>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" ht="15">
       <c r="A822" s="2"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -7955,7 +7980,7 @@
       <c r="E822" s="2"/>
       <c r="H822" s="8"/>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" ht="15">
       <c r="A823" s="2"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -7963,7 +7988,7 @@
       <c r="E823" s="2"/>
       <c r="H823" s="8"/>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" ht="15">
       <c r="A824" s="2"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -7971,7 +7996,7 @@
       <c r="E824" s="2"/>
       <c r="H824" s="8"/>
     </row>
-    <row r="825" spans="1:8">
+    <row r="825" spans="1:8" ht="15">
       <c r="A825" s="2"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -7979,7 +8004,7 @@
       <c r="E825" s="2"/>
       <c r="H825" s="8"/>
     </row>
-    <row r="826" spans="1:8">
+    <row r="826" spans="1:8" ht="15">
       <c r="A826" s="2"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -7987,7 +8012,7 @@
       <c r="E826" s="2"/>
       <c r="H826" s="8"/>
     </row>
-    <row r="827" spans="1:8">
+    <row r="827" spans="1:8" ht="15">
       <c r="A827" s="2"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -7995,7 +8020,7 @@
       <c r="E827" s="2"/>
       <c r="H827" s="8"/>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" ht="15">
       <c r="A828" s="2"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -8003,7 +8028,7 @@
       <c r="E828" s="2"/>
       <c r="H828" s="8"/>
     </row>
-    <row r="829" spans="1:8">
+    <row r="829" spans="1:8" ht="15">
       <c r="A829" s="2"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -8011,7 +8036,7 @@
       <c r="E829" s="2"/>
       <c r="H829" s="8"/>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" ht="15">
       <c r="A830" s="2"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -8019,7 +8044,7 @@
       <c r="E830" s="2"/>
       <c r="H830" s="8"/>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" ht="15">
       <c r="A831" s="2"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -8027,7 +8052,7 @@
       <c r="E831" s="2"/>
       <c r="H831" s="8"/>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" ht="15">
       <c r="A832" s="2"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -8035,7 +8060,7 @@
       <c r="E832" s="2"/>
       <c r="H832" s="8"/>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" ht="15">
       <c r="A833" s="2"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -8043,7 +8068,7 @@
       <c r="E833" s="2"/>
       <c r="H833" s="8"/>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" ht="15">
       <c r="A834" s="2"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -8051,7 +8076,7 @@
       <c r="E834" s="2"/>
       <c r="H834" s="8"/>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" ht="15">
       <c r="A835" s="2"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -8059,7 +8084,7 @@
       <c r="E835" s="2"/>
       <c r="H835" s="8"/>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" ht="15">
       <c r="A836" s="2"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -8067,7 +8092,7 @@
       <c r="E836" s="2"/>
       <c r="H836" s="8"/>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" ht="15">
       <c r="A837" s="2"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -8075,7 +8100,7 @@
       <c r="E837" s="2"/>
       <c r="H837" s="8"/>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" ht="15">
       <c r="A838" s="2"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -8083,7 +8108,7 @@
       <c r="E838" s="2"/>
       <c r="H838" s="8"/>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" ht="15">
       <c r="A839" s="2"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -8091,7 +8116,7 @@
       <c r="E839" s="2"/>
       <c r="H839" s="8"/>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" ht="15">
       <c r="A840" s="2"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -8099,7 +8124,7 @@
       <c r="E840" s="2"/>
       <c r="H840" s="8"/>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" ht="15">
       <c r="A841" s="2"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -8107,7 +8132,7 @@
       <c r="E841" s="2"/>
       <c r="H841" s="8"/>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" ht="15">
       <c r="A842" s="2"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -8115,7 +8140,7 @@
       <c r="E842" s="2"/>
       <c r="H842" s="8"/>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" ht="15">
       <c r="A843" s="2"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -8123,7 +8148,7 @@
       <c r="E843" s="2"/>
       <c r="H843" s="8"/>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" ht="15">
       <c r="A844" s="2"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -8131,7 +8156,7 @@
       <c r="E844" s="2"/>
       <c r="H844" s="8"/>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" ht="15">
       <c r="A845" s="2"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -8139,7 +8164,7 @@
       <c r="E845" s="2"/>
       <c r="H845" s="8"/>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" ht="15">
       <c r="A846" s="2"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -8147,7 +8172,7 @@
       <c r="E846" s="2"/>
       <c r="H846" s="8"/>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" ht="15">
       <c r="A847" s="2"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -8155,7 +8180,7 @@
       <c r="E847" s="2"/>
       <c r="H847" s="8"/>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" ht="15">
       <c r="A848" s="2"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -8163,7 +8188,7 @@
       <c r="E848" s="2"/>
       <c r="H848" s="8"/>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" ht="15">
       <c r="A849" s="2"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -8171,7 +8196,7 @@
       <c r="E849" s="2"/>
       <c r="H849" s="8"/>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" ht="15">
       <c r="A850" s="2"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -8179,7 +8204,7 @@
       <c r="E850" s="2"/>
       <c r="H850" s="8"/>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" ht="15">
       <c r="A851" s="2"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -8187,7 +8212,7 @@
       <c r="E851" s="2"/>
       <c r="H851" s="8"/>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" ht="15">
       <c r="A852" s="2"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -8195,7 +8220,7 @@
       <c r="E852" s="2"/>
       <c r="H852" s="8"/>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" ht="15">
       <c r="A853" s="2"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -8203,7 +8228,7 @@
       <c r="E853" s="2"/>
       <c r="H853" s="8"/>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" ht="15">
       <c r="A854" s="2"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -8211,7 +8236,7 @@
       <c r="E854" s="2"/>
       <c r="H854" s="8"/>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" ht="15">
       <c r="A855" s="2"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -8219,7 +8244,7 @@
       <c r="E855" s="2"/>
       <c r="H855" s="8"/>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" ht="15">
       <c r="A856" s="2"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -8227,7 +8252,7 @@
       <c r="E856" s="2"/>
       <c r="H856" s="8"/>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" ht="15">
       <c r="A857" s="2"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -8235,7 +8260,7 @@
       <c r="E857" s="2"/>
       <c r="H857" s="8"/>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" ht="15">
       <c r="A858" s="2"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -8243,7 +8268,7 @@
       <c r="E858" s="2"/>
       <c r="H858" s="8"/>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" ht="15">
       <c r="A859" s="2"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -8251,7 +8276,7 @@
       <c r="E859" s="2"/>
       <c r="H859" s="8"/>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" ht="15">
       <c r="A860" s="2"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -8259,7 +8284,7 @@
       <c r="E860" s="2"/>
       <c r="H860" s="8"/>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" ht="15">
       <c r="A861" s="2"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -8267,7 +8292,7 @@
       <c r="E861" s="2"/>
       <c r="H861" s="8"/>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:8" ht="15">
       <c r="A862" s="2"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -8275,7 +8300,7 @@
       <c r="E862" s="2"/>
       <c r="H862" s="8"/>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:8" ht="15">
       <c r="A863" s="2"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -8283,7 +8308,7 @@
       <c r="E863" s="2"/>
       <c r="H863" s="8"/>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:8" ht="15">
       <c r="A864" s="2"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -8291,7 +8316,7 @@
       <c r="E864" s="2"/>
       <c r="H864" s="8"/>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" ht="15">
       <c r="A865" s="2"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -8299,7 +8324,7 @@
       <c r="E865" s="2"/>
       <c r="H865" s="8"/>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:8" ht="15">
       <c r="A866" s="2"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -8307,7 +8332,7 @@
       <c r="E866" s="2"/>
       <c r="H866" s="8"/>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" ht="15">
       <c r="A867" s="2"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -8315,7 +8340,7 @@
       <c r="E867" s="2"/>
       <c r="H867" s="8"/>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" ht="15">
       <c r="A868" s="2"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -8323,7 +8348,7 @@
       <c r="E868" s="2"/>
       <c r="H868" s="8"/>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" ht="15">
       <c r="A869" s="2"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -8331,7 +8356,7 @@
       <c r="E869" s="2"/>
       <c r="H869" s="8"/>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" ht="15">
       <c r="A870" s="2"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -8339,7 +8364,7 @@
       <c r="E870" s="2"/>
       <c r="H870" s="8"/>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" ht="15">
       <c r="A871" s="2"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -8347,7 +8372,7 @@
       <c r="E871" s="2"/>
       <c r="H871" s="8"/>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" ht="15">
       <c r="A872" s="2"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -8355,7 +8380,7 @@
       <c r="E872" s="2"/>
       <c r="H872" s="8"/>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" ht="15">
       <c r="A873" s="2"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -8363,7 +8388,7 @@
       <c r="E873" s="2"/>
       <c r="H873" s="8"/>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" ht="15">
       <c r="A874" s="2"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -8371,7 +8396,7 @@
       <c r="E874" s="2"/>
       <c r="H874" s="8"/>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" ht="15">
       <c r="A875" s="2"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -8379,7 +8404,7 @@
       <c r="E875" s="2"/>
       <c r="H875" s="8"/>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" ht="15">
       <c r="A876" s="2"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -8387,7 +8412,7 @@
       <c r="E876" s="2"/>
       <c r="H876" s="8"/>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" ht="15">
       <c r="A877" s="2"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -8395,7 +8420,7 @@
       <c r="E877" s="2"/>
       <c r="H877" s="8"/>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" ht="15">
       <c r="A878" s="2"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -8403,7 +8428,7 @@
       <c r="E878" s="2"/>
       <c r="H878" s="8"/>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" ht="15">
       <c r="A879" s="2"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -8411,7 +8436,7 @@
       <c r="E879" s="2"/>
       <c r="H879" s="8"/>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" ht="15">
       <c r="A880" s="2"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -8419,7 +8444,7 @@
       <c r="E880" s="2"/>
       <c r="H880" s="8"/>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" ht="15">
       <c r="A881" s="2"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -8427,7 +8452,7 @@
       <c r="E881" s="2"/>
       <c r="H881" s="8"/>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" ht="15">
       <c r="A882" s="2"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -8435,7 +8460,7 @@
       <c r="E882" s="2"/>
       <c r="H882" s="8"/>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" ht="15">
       <c r="A883" s="2"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -8443,7 +8468,7 @@
       <c r="E883" s="2"/>
       <c r="H883" s="8"/>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" ht="15">
       <c r="A884" s="2"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -8451,7 +8476,7 @@
       <c r="E884" s="2"/>
       <c r="H884" s="8"/>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" ht="15">
       <c r="A885" s="2"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -8459,7 +8484,7 @@
       <c r="E885" s="2"/>
       <c r="H885" s="8"/>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" ht="15">
       <c r="A886" s="2"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -8467,7 +8492,7 @@
       <c r="E886" s="2"/>
       <c r="H886" s="8"/>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" ht="15">
       <c r="A887" s="2"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -8475,7 +8500,7 @@
       <c r="E887" s="2"/>
       <c r="H887" s="8"/>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" ht="15">
       <c r="A888" s="2"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -8483,7 +8508,7 @@
       <c r="E888" s="2"/>
       <c r="H888" s="8"/>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" ht="15">
       <c r="A889" s="2"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -8491,7 +8516,7 @@
       <c r="E889" s="2"/>
       <c r="H889" s="8"/>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" ht="15">
       <c r="A890" s="2"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -8499,7 +8524,7 @@
       <c r="E890" s="2"/>
       <c r="H890" s="8"/>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" ht="15">
       <c r="A891" s="2"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -8507,7 +8532,7 @@
       <c r="E891" s="2"/>
       <c r="H891" s="8"/>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" ht="15">
       <c r="A892" s="2"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -8515,7 +8540,7 @@
       <c r="E892" s="2"/>
       <c r="H892" s="8"/>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" ht="15">
       <c r="A893" s="2"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -8523,7 +8548,7 @@
       <c r="E893" s="2"/>
       <c r="H893" s="8"/>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" ht="15">
       <c r="A894" s="2"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -8531,7 +8556,7 @@
       <c r="E894" s="2"/>
       <c r="H894" s="8"/>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" ht="15">
       <c r="A895" s="2"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -8539,7 +8564,7 @@
       <c r="E895" s="2"/>
       <c r="H895" s="8"/>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" ht="15">
       <c r="A896" s="2"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -8547,7 +8572,7 @@
       <c r="E896" s="2"/>
       <c r="H896" s="8"/>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" ht="15">
       <c r="A897" s="2"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -8555,7 +8580,7 @@
       <c r="E897" s="2"/>
       <c r="H897" s="8"/>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" ht="15">
       <c r="A898" s="2"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -8563,7 +8588,7 @@
       <c r="E898" s="2"/>
       <c r="H898" s="8"/>
     </row>
-    <row r="899" spans="1:8">
+    <row r="899" spans="1:8" ht="15">
       <c r="A899" s="2"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -8571,7 +8596,7 @@
       <c r="E899" s="2"/>
       <c r="H899" s="8"/>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:8" ht="15">
       <c r="A900" s="2"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -8579,7 +8604,7 @@
       <c r="E900" s="2"/>
       <c r="H900" s="8"/>
     </row>
-    <row r="901" spans="1:8">
+    <row r="901" spans="1:8" ht="15">
       <c r="A901" s="2"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -8587,7 +8612,7 @@
       <c r="E901" s="2"/>
       <c r="H901" s="8"/>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" ht="15">
       <c r="A902" s="2"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -8595,7 +8620,7 @@
       <c r="E902" s="2"/>
       <c r="H902" s="8"/>
     </row>
-    <row r="903" spans="1:8">
+    <row r="903" spans="1:8" ht="15">
       <c r="A903" s="2"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -8603,7 +8628,7 @@
       <c r="E903" s="2"/>
       <c r="H903" s="8"/>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" ht="15">
       <c r="A904" s="2"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -8611,7 +8636,7 @@
       <c r="E904" s="2"/>
       <c r="H904" s="8"/>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" ht="15">
       <c r="A905" s="2"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -8619,7 +8644,7 @@
       <c r="E905" s="2"/>
       <c r="H905" s="8"/>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" ht="15">
       <c r="A906" s="2"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -8627,7 +8652,7 @@
       <c r="E906" s="2"/>
       <c r="H906" s="8"/>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" ht="15">
       <c r="A907" s="2"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -8635,7 +8660,7 @@
       <c r="E907" s="2"/>
       <c r="H907" s="8"/>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" ht="15">
       <c r="A908" s="2"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -8643,7 +8668,7 @@
       <c r="E908" s="2"/>
       <c r="H908" s="8"/>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" ht="15">
       <c r="A909" s="2"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -8651,7 +8676,7 @@
       <c r="E909" s="2"/>
       <c r="H909" s="8"/>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" ht="15">
       <c r="A910" s="2"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -8659,7 +8684,7 @@
       <c r="E910" s="2"/>
       <c r="H910" s="8"/>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" ht="15">
       <c r="A911" s="2"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -8667,7 +8692,7 @@
       <c r="E911" s="2"/>
       <c r="H911" s="8"/>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" ht="15">
       <c r="A912" s="2"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -8675,7 +8700,7 @@
       <c r="E912" s="2"/>
       <c r="H912" s="8"/>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" ht="15">
       <c r="A913" s="2"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -8683,7 +8708,7 @@
       <c r="E913" s="2"/>
       <c r="H913" s="8"/>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" ht="15">
       <c r="A914" s="2"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -8691,7 +8716,7 @@
       <c r="E914" s="2"/>
       <c r="H914" s="8"/>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" ht="15">
       <c r="A915" s="2"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -8699,7 +8724,7 @@
       <c r="E915" s="2"/>
       <c r="H915" s="8"/>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" ht="15">
       <c r="A916" s="2"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -8707,7 +8732,7 @@
       <c r="E916" s="2"/>
       <c r="H916" s="8"/>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" ht="15">
       <c r="A917" s="2"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -8715,7 +8740,7 @@
       <c r="E917" s="2"/>
       <c r="H917" s="8"/>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" ht="15">
       <c r="A918" s="2"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -8723,7 +8748,7 @@
       <c r="E918" s="2"/>
       <c r="H918" s="8"/>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" ht="15">
       <c r="A919" s="2"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -8731,7 +8756,7 @@
       <c r="E919" s="2"/>
       <c r="H919" s="8"/>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" ht="15">
       <c r="A920" s="2"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -8739,7 +8764,7 @@
       <c r="E920" s="2"/>
       <c r="H920" s="8"/>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" ht="15">
       <c r="A921" s="2"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -8747,7 +8772,7 @@
       <c r="E921" s="2"/>
       <c r="H921" s="8"/>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" ht="15">
       <c r="A922" s="2"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -8755,7 +8780,7 @@
       <c r="E922" s="2"/>
       <c r="H922" s="8"/>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" ht="15">
       <c r="A923" s="2"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -8763,7 +8788,7 @@
       <c r="E923" s="2"/>
       <c r="H923" s="8"/>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" ht="15">
       <c r="A924" s="2"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -8771,7 +8796,7 @@
       <c r="E924" s="2"/>
       <c r="H924" s="8"/>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" ht="15">
       <c r="A925" s="2"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -8779,7 +8804,7 @@
       <c r="E925" s="2"/>
       <c r="H925" s="8"/>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" ht="15">
       <c r="A926" s="2"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -8787,7 +8812,7 @@
       <c r="E926" s="2"/>
       <c r="H926" s="8"/>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" ht="15">
       <c r="A927" s="2"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -8795,7 +8820,7 @@
       <c r="E927" s="2"/>
       <c r="H927" s="8"/>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" ht="15">
       <c r="A928" s="2"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -8803,7 +8828,7 @@
       <c r="E928" s="2"/>
       <c r="H928" s="8"/>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" ht="15">
       <c r="A929" s="2"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -8811,7 +8836,7 @@
       <c r="E929" s="2"/>
       <c r="H929" s="8"/>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" ht="15">
       <c r="A930" s="2"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -8819,7 +8844,7 @@
       <c r="E930" s="2"/>
       <c r="H930" s="8"/>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" ht="15">
       <c r="A931" s="2"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -8827,7 +8852,7 @@
       <c r="E931" s="2"/>
       <c r="H931" s="8"/>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" ht="15">
       <c r="A932" s="2"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -8835,7 +8860,7 @@
       <c r="E932" s="2"/>
       <c r="H932" s="8"/>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" ht="15">
       <c r="A933" s="2"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -8843,7 +8868,7 @@
       <c r="E933" s="2"/>
       <c r="H933" s="8"/>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" ht="15">
       <c r="A934" s="2"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -8851,7 +8876,7 @@
       <c r="E934" s="2"/>
       <c r="H934" s="8"/>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" ht="15">
       <c r="A935" s="2"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -8859,7 +8884,7 @@
       <c r="E935" s="2"/>
       <c r="H935" s="8"/>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:8" ht="15">
       <c r="A936" s="2"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -8867,7 +8892,7 @@
       <c r="E936" s="2"/>
       <c r="H936" s="8"/>
     </row>
-    <row r="937" spans="1:8">
+    <row r="937" spans="1:8" ht="15">
       <c r="A937" s="2"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -8875,7 +8900,7 @@
       <c r="E937" s="2"/>
       <c r="H937" s="8"/>
     </row>
-    <row r="938" spans="1:8">
+    <row r="938" spans="1:8" ht="15">
       <c r="A938" s="2"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -8883,7 +8908,7 @@
       <c r="E938" s="2"/>
       <c r="H938" s="8"/>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" ht="15">
       <c r="A939" s="2"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -8891,7 +8916,7 @@
       <c r="E939" s="2"/>
       <c r="H939" s="8"/>
     </row>
-    <row r="940" spans="1:8">
+    <row r="940" spans="1:8" ht="15">
       <c r="A940" s="2"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -8899,7 +8924,7 @@
       <c r="E940" s="2"/>
       <c r="H940" s="8"/>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" ht="15">
       <c r="A941" s="2"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -8907,7 +8932,7 @@
       <c r="E941" s="2"/>
       <c r="H941" s="8"/>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" ht="15">
       <c r="A942" s="2"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -8915,7 +8940,7 @@
       <c r="E942" s="2"/>
       <c r="H942" s="8"/>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" ht="15">
       <c r="A943" s="2"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -8923,7 +8948,7 @@
       <c r="E943" s="2"/>
       <c r="H943" s="8"/>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" ht="15">
       <c r="A944" s="2"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -8931,7 +8956,7 @@
       <c r="E944" s="2"/>
       <c r="H944" s="8"/>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:8" ht="15">
       <c r="A945" s="2"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -8939,7 +8964,7 @@
       <c r="E945" s="2"/>
       <c r="H945" s="8"/>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" ht="15">
       <c r="A946" s="2"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -8947,7 +8972,7 @@
       <c r="E946" s="2"/>
       <c r="H946" s="8"/>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:8" ht="15">
       <c r="A947" s="2"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -8955,7 +8980,7 @@
       <c r="E947" s="2"/>
       <c r="H947" s="8"/>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:8" ht="15">
       <c r="A948" s="2"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -8963,7 +8988,7 @@
       <c r="E948" s="2"/>
       <c r="H948" s="8"/>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" ht="15">
       <c r="A949" s="2"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -8971,7 +8996,7 @@
       <c r="E949" s="2"/>
       <c r="H949" s="8"/>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:8" ht="15">
       <c r="A950" s="2"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -8979,7 +9004,7 @@
       <c r="E950" s="2"/>
       <c r="H950" s="8"/>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:8" ht="15">
       <c r="A951" s="2"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -8987,7 +9012,7 @@
       <c r="E951" s="2"/>
       <c r="H951" s="8"/>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:8" ht="15">
       <c r="A952" s="2"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -8995,7 +9020,7 @@
       <c r="E952" s="2"/>
       <c r="H952" s="8"/>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:8" ht="15">
       <c r="A953" s="2"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -9003,7 +9028,7 @@
       <c r="E953" s="2"/>
       <c r="H953" s="8"/>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:8" ht="15">
       <c r="A954" s="2"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -9011,7 +9036,7 @@
       <c r="E954" s="2"/>
       <c r="H954" s="8"/>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:8" ht="15">
       <c r="A955" s="2"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -9019,7 +9044,7 @@
       <c r="E955" s="2"/>
       <c r="H955" s="8"/>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" ht="15">
       <c r="A956" s="2"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -9027,7 +9052,7 @@
       <c r="E956" s="2"/>
       <c r="H956" s="8"/>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:8" ht="15">
       <c r="A957" s="2"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -9035,7 +9060,7 @@
       <c r="E957" s="2"/>
       <c r="H957" s="8"/>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:8" ht="15">
       <c r="A958" s="2"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -9043,7 +9068,7 @@
       <c r="E958" s="2"/>
       <c r="H958" s="8"/>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:8" ht="15">
       <c r="A959" s="2"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -9051,7 +9076,7 @@
       <c r="E959" s="2"/>
       <c r="H959" s="8"/>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:8" ht="15">
       <c r="A960" s="2"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -9059,7 +9084,7 @@
       <c r="E960" s="2"/>
       <c r="H960" s="8"/>
     </row>
-    <row r="961" spans="1:8">
+    <row r="961" spans="1:8" ht="15">
       <c r="A961" s="2"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -9067,7 +9092,7 @@
       <c r="E961" s="2"/>
       <c r="H961" s="8"/>
     </row>
-    <row r="962" spans="1:8">
+    <row r="962" spans="1:8" ht="15">
       <c r="A962" s="2"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -9075,7 +9100,7 @@
       <c r="E962" s="2"/>
       <c r="H962" s="8"/>
     </row>
-    <row r="963" spans="1:8">
+    <row r="963" spans="1:8" ht="15">
       <c r="A963" s="2"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -9083,7 +9108,7 @@
       <c r="E963" s="2"/>
       <c r="H963" s="8"/>
     </row>
-    <row r="964" spans="1:8">
+    <row r="964" spans="1:8" ht="15">
       <c r="A964" s="2"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -9091,7 +9116,7 @@
       <c r="E964" s="2"/>
       <c r="H964" s="8"/>
     </row>
-    <row r="965" spans="1:8">
+    <row r="965" spans="1:8" ht="15">
       <c r="A965" s="2"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -9099,7 +9124,7 @@
       <c r="E965" s="2"/>
       <c r="H965" s="8"/>
     </row>
-    <row r="966" spans="1:8">
+    <row r="966" spans="1:8" ht="15">
       <c r="A966" s="2"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -9107,7 +9132,7 @@
       <c r="E966" s="2"/>
       <c r="H966" s="8"/>
     </row>
-    <row r="967" spans="1:8">
+    <row r="967" spans="1:8" ht="15">
       <c r="A967" s="2"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -9115,7 +9140,7 @@
       <c r="E967" s="2"/>
       <c r="H967" s="8"/>
     </row>
-    <row r="968" spans="1:8">
+    <row r="968" spans="1:8" ht="15">
       <c r="A968" s="2"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -9123,7 +9148,7 @@
       <c r="E968" s="2"/>
       <c r="H968" s="8"/>
     </row>
-    <row r="969" spans="1:8">
+    <row r="969" spans="1:8" ht="15">
       <c r="A969" s="2"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -9131,7 +9156,7 @@
       <c r="E969" s="2"/>
       <c r="H969" s="8"/>
     </row>
-    <row r="970" spans="1:8">
+    <row r="970" spans="1:8" ht="15">
       <c r="A970" s="2"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -9139,7 +9164,7 @@
       <c r="E970" s="2"/>
       <c r="H970" s="8"/>
     </row>
-    <row r="971" spans="1:8">
+    <row r="971" spans="1:8" ht="15">
       <c r="A971" s="2"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -9147,7 +9172,7 @@
       <c r="E971" s="2"/>
       <c r="H971" s="8"/>
     </row>
-    <row r="972" spans="1:8">
+    <row r="972" spans="1:8" ht="15">
       <c r="A972" s="2"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -9155,7 +9180,7 @@
       <c r="E972" s="2"/>
       <c r="H972" s="8"/>
     </row>
-    <row r="973" spans="1:8">
+    <row r="973" spans="1:8" ht="15">
       <c r="A973" s="2"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -9163,7 +9188,7 @@
       <c r="E973" s="2"/>
       <c r="H973" s="8"/>
     </row>
-    <row r="974" spans="1:8">
+    <row r="974" spans="1:8" ht="15">
       <c r="A974" s="2"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -9171,7 +9196,7 @@
       <c r="E974" s="2"/>
       <c r="H974" s="8"/>
     </row>
-    <row r="975" spans="1:8">
+    <row r="975" spans="1:8" ht="15">
       <c r="A975" s="2"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -9179,7 +9204,7 @@
       <c r="E975" s="2"/>
       <c r="H975" s="8"/>
     </row>
-    <row r="976" spans="1:8">
+    <row r="976" spans="1:8" ht="15">
       <c r="A976" s="2"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -9187,7 +9212,7 @@
       <c r="E976" s="2"/>
       <c r="H976" s="8"/>
     </row>
-    <row r="977" spans="1:8">
+    <row r="977" spans="1:8" ht="15">
       <c r="A977" s="2"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -9195,7 +9220,7 @@
       <c r="E977" s="2"/>
       <c r="H977" s="8"/>
     </row>
-    <row r="978" spans="1:8">
+    <row r="978" spans="1:8" ht="15">
       <c r="A978" s="2"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -9203,7 +9228,7 @@
       <c r="E978" s="2"/>
       <c r="H978" s="8"/>
     </row>
-    <row r="979" spans="1:8">
+    <row r="979" spans="1:8" ht="15">
       <c r="A979" s="2"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -9211,7 +9236,7 @@
       <c r="E979" s="2"/>
       <c r="H979" s="8"/>
     </row>
-    <row r="980" spans="1:8">
+    <row r="980" spans="1:8" ht="15">
       <c r="A980" s="2"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -9219,7 +9244,7 @@
       <c r="E980" s="2"/>
       <c r="H980" s="8"/>
     </row>
-    <row r="981" spans="1:8">
+    <row r="981" spans="1:8" ht="15">
       <c r="A981" s="2"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -9227,7 +9252,7 @@
       <c r="E981" s="2"/>
       <c r="H981" s="8"/>
     </row>
-    <row r="982" spans="1:8">
+    <row r="982" spans="1:8" ht="15">
       <c r="A982" s="2"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -9235,7 +9260,7 @@
       <c r="E982" s="2"/>
       <c r="H982" s="8"/>
     </row>
-    <row r="983" spans="1:8">
+    <row r="983" spans="1:8" ht="15">
       <c r="A983" s="2"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -9243,7 +9268,7 @@
       <c r="E983" s="2"/>
       <c r="H983" s="8"/>
     </row>
-    <row r="984" spans="1:8">
+    <row r="984" spans="1:8" ht="15">
       <c r="A984" s="2"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -9251,7 +9276,7 @@
       <c r="E984" s="2"/>
       <c r="H984" s="8"/>
     </row>
-    <row r="985" spans="1:8">
+    <row r="985" spans="1:8" ht="15">
       <c r="A985" s="2"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -9259,7 +9284,7 @@
       <c r="E985" s="2"/>
       <c r="H985" s="8"/>
     </row>
-    <row r="986" spans="1:8">
+    <row r="986" spans="1:8" ht="15">
       <c r="A986" s="2"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -9267,7 +9292,7 @@
       <c r="E986" s="2"/>
       <c r="H986" s="8"/>
     </row>
-    <row r="987" spans="1:8">
+    <row r="987" spans="1:8" ht="15">
       <c r="A987" s="2"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -9275,7 +9300,7 @@
       <c r="E987" s="2"/>
       <c r="H987" s="8"/>
     </row>
-    <row r="988" spans="1:8">
+    <row r="988" spans="1:8" ht="15">
       <c r="A988" s="2"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -9283,7 +9308,7 @@
       <c r="E988" s="2"/>
       <c r="H988" s="8"/>
     </row>
-    <row r="989" spans="1:8">
+    <row r="989" spans="1:8" ht="15">
       <c r="A989" s="2"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -9291,7 +9316,7 @@
       <c r="E989" s="2"/>
       <c r="H989" s="8"/>
     </row>
-    <row r="990" spans="1:8">
+    <row r="990" spans="1:8" ht="15">
       <c r="A990" s="2"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -9299,7 +9324,7 @@
       <c r="E990" s="2"/>
       <c r="H990" s="8"/>
     </row>
-    <row r="991" spans="1:8">
+    <row r="991" spans="1:8" ht="15">
       <c r="A991" s="2"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -9307,7 +9332,7 @@
       <c r="E991" s="2"/>
       <c r="H991" s="8"/>
     </row>
-    <row r="992" spans="1:8">
+    <row r="992" spans="1:8" ht="15">
       <c r="A992" s="2"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -9315,7 +9340,7 @@
       <c r="E992" s="2"/>
       <c r="H992" s="8"/>
     </row>
-    <row r="993" spans="1:8">
+    <row r="993" spans="1:8" ht="15">
       <c r="A993" s="2"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -9323,7 +9348,7 @@
       <c r="E993" s="2"/>
       <c r="H993" s="8"/>
     </row>
-    <row r="994" spans="1:8">
+    <row r="994" spans="1:8" ht="15">
       <c r="A994" s="2"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -9331,7 +9356,7 @@
       <c r="E994" s="2"/>
       <c r="H994" s="8"/>
     </row>
-    <row r="995" spans="1:8">
+    <row r="995" spans="1:8" ht="15">
       <c r="A995" s="2"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -9339,7 +9364,7 @@
       <c r="E995" s="2"/>
       <c r="H995" s="8"/>
     </row>
-    <row r="996" spans="1:8">
+    <row r="996" spans="1:8" ht="15">
       <c r="A996" s="2"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -9347,7 +9372,7 @@
       <c r="E996" s="2"/>
       <c r="H996" s="8"/>
     </row>
-    <row r="997" spans="1:8">
+    <row r="997" spans="1:8" ht="15">
       <c r="A997" s="2"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -9355,7 +9380,7 @@
       <c r="E997" s="2"/>
       <c r="H997" s="8"/>
     </row>
-    <row r="998" spans="1:8">
+    <row r="998" spans="1:8" ht="15">
       <c r="A998" s="2"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -9363,7 +9388,7 @@
       <c r="E998" s="2"/>
       <c r="H998" s="8"/>
     </row>
-    <row r="999" spans="1:8">
+    <row r="999" spans="1:8" ht="15">
       <c r="A999" s="2"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -9371,7 +9396,7 @@
       <c r="E999" s="2"/>
       <c r="H999" s="8"/>
     </row>
-    <row r="1000" spans="1:8">
+    <row r="1000" spans="1:8" ht="15">
       <c r="A1000" s="2"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -9379,7 +9404,7 @@
       <c r="E1000" s="2"/>
       <c r="H1000" s="8"/>
     </row>
-    <row r="1001" spans="1:8">
+    <row r="1001" spans="1:8" ht="15">
       <c r="A1001" s="2"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
@@ -9387,7 +9412,7 @@
       <c r="E1001" s="2"/>
       <c r="H1001" s="8"/>
     </row>
-    <row r="1002" spans="1:8">
+    <row r="1002" spans="1:8" ht="15">
       <c r="A1002" s="2"/>
       <c r="B1002" s="3"/>
       <c r="C1002" s="3"/>
@@ -9395,7 +9420,7 @@
       <c r="E1002" s="2"/>
       <c r="H1002" s="8"/>
     </row>
-    <row r="1003" spans="1:8">
+    <row r="1003" spans="1:8" ht="15">
       <c r="A1003" s="2"/>
       <c r="B1003" s="3"/>
       <c r="C1003" s="3"/>
@@ -9403,7 +9428,7 @@
       <c r="E1003" s="2"/>
       <c r="H1003" s="8"/>
     </row>
-    <row r="1004" spans="1:8">
+    <row r="1004" spans="1:8" ht="15">
       <c r="A1004" s="2"/>
       <c r="B1004" s="3"/>
       <c r="C1004" s="3"/>
@@ -9411,7 +9436,7 @@
       <c r="E1004" s="2"/>
       <c r="H1004" s="8"/>
     </row>
-    <row r="1005" spans="1:8">
+    <row r="1005" spans="1:8" ht="15">
       <c r="A1005" s="2"/>
       <c r="B1005" s="3"/>
       <c r="C1005" s="3"/>
@@ -9419,7 +9444,7 @@
       <c r="E1005" s="2"/>
       <c r="H1005" s="8"/>
     </row>
-    <row r="1006" spans="1:8">
+    <row r="1006" spans="1:8" ht="15">
       <c r="A1006" s="2"/>
       <c r="B1006" s="3"/>
       <c r="C1006" s="3"/>
@@ -9427,7 +9452,7 @@
       <c r="E1006" s="2"/>
       <c r="H1006" s="8"/>
     </row>
-    <row r="1007" spans="1:8">
+    <row r="1007" spans="1:8" ht="15">
       <c r="A1007" s="2"/>
       <c r="B1007" s="3"/>
       <c r="C1007" s="3"/>
@@ -9435,7 +9460,7 @@
       <c r="E1007" s="2"/>
       <c r="H1007" s="8"/>
     </row>
-    <row r="1008" spans="1:8">
+    <row r="1008" spans="1:8" ht="15">
       <c r="A1008" s="2"/>
       <c r="B1008" s="3"/>
       <c r="C1008" s="3"/>
@@ -9443,7 +9468,7 @@
       <c r="E1008" s="2"/>
       <c r="H1008" s="8"/>
     </row>
-    <row r="1009" spans="1:8">
+    <row r="1009" spans="1:8" ht="15">
       <c r="A1009" s="2"/>
       <c r="B1009" s="3"/>
       <c r="C1009" s="3"/>
@@ -9451,7 +9476,7 @@
       <c r="E1009" s="2"/>
       <c r="H1009" s="8"/>
     </row>
-    <row r="1010" spans="1:8">
+    <row r="1010" spans="1:8" ht="15">
       <c r="A1010" s="2"/>
       <c r="B1010" s="3"/>
       <c r="C1010" s="3"/>
@@ -9459,7 +9484,7 @@
       <c r="E1010" s="2"/>
       <c r="H1010" s="8"/>
     </row>
-    <row r="1011" spans="1:8">
+    <row r="1011" spans="1:8" ht="15">
       <c r="A1011" s="2"/>
       <c r="B1011" s="3"/>
       <c r="C1011" s="3"/>
@@ -9467,7 +9492,7 @@
       <c r="E1011" s="2"/>
       <c r="H1011" s="8"/>
     </row>
-    <row r="1012" spans="1:8">
+    <row r="1012" spans="1:8" ht="15">
       <c r="A1012" s="2"/>
       <c r="B1012" s="3"/>
       <c r="C1012" s="3"/>
@@ -9475,7 +9500,7 @@
       <c r="E1012" s="2"/>
       <c r="H1012" s="8"/>
     </row>
-    <row r="1013" spans="1:8">
+    <row r="1013" spans="1:8" ht="15">
       <c r="A1013" s="2"/>
       <c r="B1013" s="3"/>
       <c r="C1013" s="3"/>
@@ -9483,7 +9508,7 @@
       <c r="E1013" s="2"/>
       <c r="H1013" s="8"/>
     </row>
-    <row r="1014" spans="1:8">
+    <row r="1014" spans="1:8" ht="15">
       <c r="A1014" s="2"/>
       <c r="B1014" s="3"/>
       <c r="C1014" s="3"/>
@@ -9491,7 +9516,7 @@
       <c r="E1014" s="2"/>
       <c r="H1014" s="8"/>
     </row>
-    <row r="1015" spans="1:8">
+    <row r="1015" spans="1:8" ht="15">
       <c r="A1015" s="2"/>
       <c r="B1015" s="3"/>
       <c r="C1015" s="3"/>
@@ -9499,7 +9524,7 @@
       <c r="E1015" s="2"/>
       <c r="H1015" s="8"/>
     </row>
-    <row r="1016" spans="1:8">
+    <row r="1016" spans="1:8" ht="15">
       <c r="A1016" s="2"/>
       <c r="B1016" s="3"/>
       <c r="C1016" s="3"/>
@@ -9507,7 +9532,7 @@
       <c r="E1016" s="2"/>
       <c r="H1016" s="8"/>
     </row>
-    <row r="1017" spans="1:8">
+    <row r="1017" spans="1:8" ht="15">
       <c r="A1017" s="2"/>
       <c r="B1017" s="3"/>
       <c r="C1017" s="3"/>
@@ -9515,7 +9540,7 @@
       <c r="E1017" s="2"/>
       <c r="H1017" s="8"/>
     </row>
-    <row r="1018" spans="1:8">
+    <row r="1018" spans="1:8" ht="15">
       <c r="A1018" s="2"/>
       <c r="B1018" s="3"/>
       <c r="C1018" s="3"/>
@@ -9523,7 +9548,7 @@
       <c r="E1018" s="2"/>
       <c r="H1018" s="8"/>
     </row>
-    <row r="1019" spans="1:8">
+    <row r="1019" spans="1:8" ht="15">
       <c r="A1019" s="2"/>
       <c r="B1019" s="3"/>
       <c r="C1019" s="3"/>
@@ -9531,7 +9556,7 @@
       <c r="E1019" s="2"/>
       <c r="H1019" s="8"/>
     </row>
-    <row r="1020" spans="1:8">
+    <row r="1020" spans="1:8" ht="15">
       <c r="A1020" s="2"/>
       <c r="B1020" s="3"/>
       <c r="C1020" s="3"/>
@@ -9539,7 +9564,7 @@
       <c r="E1020" s="2"/>
       <c r="H1020" s="8"/>
     </row>
-    <row r="1021" spans="1:8">
+    <row r="1021" spans="1:8" ht="15">
       <c r="A1021" s="2"/>
       <c r="B1021" s="3"/>
       <c r="C1021" s="3"/>
@@ -9547,7 +9572,7 @@
       <c r="E1021" s="2"/>
       <c r="H1021" s="8"/>
     </row>
-    <row r="1022" spans="1:8">
+    <row r="1022" spans="1:8" ht="15">
       <c r="A1022" s="2"/>
       <c r="B1022" s="3"/>
       <c r="C1022" s="3"/>
@@ -9555,7 +9580,7 @@
       <c r="E1022" s="2"/>
       <c r="H1022" s="8"/>
     </row>
-    <row r="1023" spans="1:8">
+    <row r="1023" spans="1:8" ht="15">
       <c r="A1023" s="2"/>
       <c r="B1023" s="3"/>
       <c r="C1023" s="3"/>
@@ -9563,7 +9588,7 @@
       <c r="E1023" s="2"/>
       <c r="H1023" s="8"/>
     </row>
-    <row r="1024" spans="1:8">
+    <row r="1024" spans="1:8" ht="15">
       <c r="A1024" s="2"/>
       <c r="B1024" s="3"/>
       <c r="C1024" s="3"/>
@@ -9571,7 +9596,7 @@
       <c r="E1024" s="2"/>
       <c r="H1024" s="8"/>
     </row>
-    <row r="1025" spans="1:8">
+    <row r="1025" spans="1:8" ht="15">
       <c r="A1025" s="2"/>
       <c r="B1025" s="3"/>
       <c r="C1025" s="3"/>
@@ -9579,7 +9604,7 @@
       <c r="E1025" s="2"/>
       <c r="H1025" s="8"/>
     </row>
-    <row r="1026" spans="1:8">
+    <row r="1026" spans="1:8" ht="15">
       <c r="A1026" s="2"/>
       <c r="B1026" s="3"/>
       <c r="C1026" s="3"/>
@@ -9587,7 +9612,7 @@
       <c r="E1026" s="2"/>
       <c r="H1026" s="8"/>
     </row>
-    <row r="1027" spans="1:8">
+    <row r="1027" spans="1:8" ht="15">
       <c r="A1027" s="2"/>
       <c r="B1027" s="3"/>
       <c r="C1027" s="3"/>
@@ -9595,7 +9620,7 @@
       <c r="E1027" s="2"/>
       <c r="H1027" s="8"/>
     </row>
-    <row r="1028" spans="1:8">
+    <row r="1028" spans="1:8" ht="15">
       <c r="A1028" s="2"/>
       <c r="B1028" s="3"/>
       <c r="C1028" s="3"/>
@@ -9603,7 +9628,7 @@
       <c r="E1028" s="2"/>
       <c r="H1028" s="8"/>
     </row>
-    <row r="1029" spans="1:8">
+    <row r="1029" spans="1:8" ht="15">
       <c r="A1029" s="2"/>
       <c r="B1029" s="3"/>
       <c r="C1029" s="3"/>
@@ -9611,7 +9636,7 @@
       <c r="E1029" s="2"/>
       <c r="H1029" s="8"/>
     </row>
-    <row r="1030" spans="1:8">
+    <row r="1030" spans="1:8" ht="15">
       <c r="A1030" s="2"/>
       <c r="B1030" s="3"/>
       <c r="C1030" s="3"/>
@@ -9619,7 +9644,7 @@
       <c r="E1030" s="2"/>
       <c r="H1030" s="8"/>
     </row>
-    <row r="1031" spans="1:8">
+    <row r="1031" spans="1:8" ht="15">
       <c r="A1031" s="2"/>
       <c r="B1031" s="3"/>
       <c r="C1031" s="3"/>
@@ -9627,7 +9652,7 @@
       <c r="E1031" s="2"/>
       <c r="H1031" s="8"/>
     </row>
-    <row r="1032" spans="1:8">
+    <row r="1032" spans="1:8" ht="15">
       <c r="A1032" s="2"/>
       <c r="B1032" s="3"/>
       <c r="C1032" s="3"/>
@@ -9635,7 +9660,7 @@
       <c r="E1032" s="2"/>
       <c r="H1032" s="8"/>
     </row>
-    <row r="1033" spans="1:8">
+    <row r="1033" spans="1:8" ht="15">
       <c r="A1033" s="2"/>
       <c r="B1033" s="3"/>
       <c r="C1033" s="3"/>
@@ -9643,7 +9668,7 @@
       <c r="E1033" s="2"/>
       <c r="H1033" s="8"/>
     </row>
-    <row r="1034" spans="1:8">
+    <row r="1034" spans="1:8" ht="15">
       <c r="A1034" s="2"/>
       <c r="B1034" s="3"/>
       <c r="C1034" s="3"/>
@@ -9651,7 +9676,7 @@
       <c r="E1034" s="2"/>
       <c r="H1034" s="8"/>
     </row>
-    <row r="1035" spans="1:8">
+    <row r="1035" spans="1:8" ht="15">
       <c r="A1035" s="2"/>
       <c r="B1035" s="3"/>
       <c r="C1035" s="3"/>
@@ -9659,7 +9684,7 @@
       <c r="E1035" s="2"/>
       <c r="H1035" s="8"/>
     </row>
-    <row r="1036" spans="1:8">
+    <row r="1036" spans="1:8" ht="15">
       <c r="A1036" s="2"/>
       <c r="B1036" s="3"/>
       <c r="C1036" s="3"/>
@@ -9667,7 +9692,7 @@
       <c r="E1036" s="2"/>
       <c r="H1036" s="8"/>
     </row>
-    <row r="1037" spans="1:8">
+    <row r="1037" spans="1:8" ht="15">
       <c r="A1037" s="2"/>
       <c r="B1037" s="3"/>
       <c r="C1037" s="3"/>
@@ -9675,7 +9700,7 @@
       <c r="E1037" s="2"/>
       <c r="H1037" s="8"/>
     </row>
-    <row r="1038" spans="1:8">
+    <row r="1038" spans="1:8" ht="15">
       <c r="A1038" s="2"/>
       <c r="B1038" s="3"/>
       <c r="C1038" s="3"/>
@@ -9683,7 +9708,7 @@
       <c r="E1038" s="2"/>
       <c r="H1038" s="8"/>
     </row>
-    <row r="1039" spans="1:8">
+    <row r="1039" spans="1:8" ht="15">
       <c r="A1039" s="2"/>
       <c r="B1039" s="3"/>
       <c r="C1039" s="3"/>
@@ -9691,7 +9716,7 @@
       <c r="E1039" s="2"/>
       <c r="H1039" s="8"/>
     </row>
-    <row r="1040" spans="1:8">
+    <row r="1040" spans="1:8" ht="15">
       <c r="A1040" s="2"/>
       <c r="B1040" s="3"/>
       <c r="C1040" s="3"/>
@@ -9699,7 +9724,7 @@
       <c r="E1040" s="2"/>
       <c r="H1040" s="8"/>
     </row>
-    <row r="1041" spans="1:8">
+    <row r="1041" spans="1:8" ht="15">
       <c r="A1041" s="2"/>
       <c r="B1041" s="3"/>
       <c r="C1041" s="3"/>
@@ -9707,7 +9732,7 @@
       <c r="E1041" s="2"/>
       <c r="H1041" s="8"/>
     </row>
-    <row r="1042" spans="1:8">
+    <row r="1042" spans="1:8" ht="15">
       <c r="A1042" s="2"/>
       <c r="B1042" s="3"/>
       <c r="C1042" s="3"/>
@@ -9715,7 +9740,7 @@
       <c r="E1042" s="2"/>
       <c r="H1042" s="8"/>
     </row>
-    <row r="1043" spans="1:8">
+    <row r="1043" spans="1:8" ht="15">
       <c r="A1043" s="2"/>
       <c r="B1043" s="3"/>
       <c r="C1043" s="3"/>
@@ -9723,7 +9748,7 @@
       <c r="E1043" s="2"/>
       <c r="H1043" s="8"/>
     </row>
-    <row r="1044" spans="1:8">
+    <row r="1044" spans="1:8" ht="15">
       <c r="A1044" s="2"/>
       <c r="B1044" s="3"/>
       <c r="C1044" s="3"/>
@@ -9731,7 +9756,7 @@
       <c r="E1044" s="2"/>
       <c r="H1044" s="8"/>
     </row>
-    <row r="1045" spans="1:8">
+    <row r="1045" spans="1:8" ht="15">
       <c r="A1045" s="2"/>
       <c r="B1045" s="3"/>
       <c r="C1045" s="3"/>
@@ -9739,7 +9764,7 @@
       <c r="E1045" s="2"/>
       <c r="H1045" s="8"/>
     </row>
-    <row r="1046" spans="1:8">
+    <row r="1046" spans="1:8" ht="15">
       <c r="A1046" s="2"/>
       <c r="B1046" s="3"/>
       <c r="C1046" s="3"/>
@@ -9747,7 +9772,7 @@
       <c r="E1046" s="2"/>
       <c r="H1046" s="8"/>
     </row>
-    <row r="1047" spans="1:8">
+    <row r="1047" spans="1:8" ht="15">
       <c r="A1047" s="2"/>
       <c r="B1047" s="3"/>
       <c r="C1047" s="3"/>
@@ -9755,7 +9780,7 @@
       <c r="E1047" s="2"/>
       <c r="H1047" s="8"/>
     </row>
-    <row r="1048" spans="1:8">
+    <row r="1048" spans="1:8" ht="15">
       <c r="A1048" s="2"/>
       <c r="B1048" s="3"/>
       <c r="C1048" s="3"/>
@@ -9763,7 +9788,7 @@
       <c r="E1048" s="2"/>
       <c r="H1048" s="8"/>
     </row>
-    <row r="1049" spans="1:8">
+    <row r="1049" spans="1:8" ht="15">
       <c r="A1049" s="2"/>
       <c r="B1049" s="3"/>
       <c r="C1049" s="3"/>
@@ -9771,7 +9796,7 @@
       <c r="E1049" s="2"/>
       <c r="H1049" s="8"/>
     </row>
-    <row r="1050" spans="1:8">
+    <row r="1050" spans="1:8" ht="15">
       <c r="A1050" s="2"/>
       <c r="B1050" s="3"/>
       <c r="C1050" s="3"/>
@@ -9779,7 +9804,7 @@
       <c r="E1050" s="2"/>
       <c r="H1050" s="8"/>
     </row>
-    <row r="1051" spans="1:8">
+    <row r="1051" spans="1:8" ht="15">
       <c r="A1051" s="2"/>
       <c r="B1051" s="3"/>
       <c r="C1051" s="3"/>
@@ -9787,7 +9812,7 @@
       <c r="E1051" s="2"/>
       <c r="H1051" s="8"/>
     </row>
-    <row r="1052" spans="1:8">
+    <row r="1052" spans="1:8" ht="15">
       <c r="A1052" s="2"/>
       <c r="B1052" s="3"/>
       <c r="C1052" s="3"/>
@@ -9795,7 +9820,7 @@
       <c r="E1052" s="2"/>
       <c r="H1052" s="8"/>
     </row>
-    <row r="1053" spans="1:8">
+    <row r="1053" spans="1:8" ht="15">
       <c r="A1053" s="2"/>
       <c r="B1053" s="3"/>
       <c r="C1053" s="3"/>
@@ -9803,7 +9828,7 @@
       <c r="E1053" s="2"/>
       <c r="H1053" s="8"/>
     </row>
-    <row r="1054" spans="1:8">
+    <row r="1054" spans="1:8" ht="15">
       <c r="A1054" s="2"/>
       <c r="B1054" s="3"/>
       <c r="C1054" s="3"/>
@@ -9811,7 +9836,7 @@
       <c r="E1054" s="2"/>
       <c r="H1054" s="8"/>
     </row>
-    <row r="1055" spans="1:8">
+    <row r="1055" spans="1:8" ht="15">
       <c r="A1055" s="2"/>
       <c r="B1055" s="3"/>
       <c r="C1055" s="3"/>
@@ -9819,7 +9844,7 @@
       <c r="E1055" s="2"/>
       <c r="H1055" s="8"/>
     </row>
-    <row r="1056" spans="1:8">
+    <row r="1056" spans="1:8" ht="15">
       <c r="A1056" s="2"/>
       <c r="B1056" s="3"/>
       <c r="C1056" s="3"/>
@@ -9827,13 +9852,21 @@
       <c r="E1056" s="2"/>
       <c r="H1056" s="8"/>
     </row>
-    <row r="1057" spans="1:8">
+    <row r="1057" spans="1:8" ht="15">
       <c r="A1057" s="2"/>
       <c r="B1057" s="3"/>
       <c r="C1057" s="3"/>
       <c r="D1057" s="5"/>
       <c r="E1057" s="2"/>
       <c r="H1057" s="8"/>
+    </row>
+    <row r="1058" spans="1:8" ht="15">
+      <c r="A1058" s="2"/>
+      <c r="B1058" s="3"/>
+      <c r="C1058" s="3"/>
+      <c r="D1058" s="5"/>
+      <c r="E1058" s="2"/>
+      <c r="H1058" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63CA155D-0AB4-4F52-8F8E-B49B6943B566}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{63CA155D-0AB4-4F52-8F8E-B49B6943B566}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -727,7 +725,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -753,20 +751,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K43" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="H43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="6" width="44" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7265625" style="2" customWidth="1"/>
     <col min="11" max="11" width="77" style="2" customWidth="1"/>
-    <col min="12" max="12" width="60.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="60.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1823,7 +1821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15">
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>74</v>
       </c>
@@ -1853,8 +1851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15"/>
-    <row r="59" spans="1:12" ht="15">
+    <row r="59" spans="1:12">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1862,7 +1859,7 @@
       <c r="E59" s="2"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:12" ht="15">
+    <row r="60" spans="1:12">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1870,7 +1867,7 @@
       <c r="E60" s="2"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:12" ht="15">
+    <row r="61" spans="1:12">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1880,7 +1877,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" ht="15">
+    <row r="62" spans="1:12">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1890,7 +1887,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" ht="15">
+    <row r="63" spans="1:12">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1900,7 +1897,7 @@
       <c r="K63" s="8"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" ht="15">
+    <row r="64" spans="1:12">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1910,7 +1907,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1920,7 +1917,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1930,7 +1927,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1940,7 +1937,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1948,7 +1945,7 @@
       <c r="E68" s="2"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1956,7 +1953,7 @@
       <c r="E69" s="2"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1964,7 +1961,7 @@
       <c r="E70" s="2"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1972,7 +1969,7 @@
       <c r="E71" s="2"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1980,7 +1977,7 @@
       <c r="E72" s="2"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1988,7 +1985,7 @@
       <c r="E73" s="2"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1996,7 +1993,7 @@
       <c r="E74" s="2"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2004,7 +2001,7 @@
       <c r="E75" s="2"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2012,7 +2009,7 @@
       <c r="E76" s="2"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2020,7 +2017,7 @@
       <c r="E77" s="2"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2028,7 +2025,7 @@
       <c r="E78" s="2"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2036,7 +2033,7 @@
       <c r="E79" s="2"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2044,7 +2041,7 @@
       <c r="E80" s="2"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8" ht="15">
+    <row r="81" spans="1:8">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2052,7 +2049,7 @@
       <c r="E81" s="2"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" ht="15">
+    <row r="82" spans="1:8">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2060,7 +2057,7 @@
       <c r="E82" s="2"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" ht="15">
+    <row r="83" spans="1:8">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2068,7 +2065,7 @@
       <c r="E83" s="2"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8" ht="15">
+    <row r="84" spans="1:8">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2076,7 +2073,7 @@
       <c r="E84" s="2"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8" ht="15">
+    <row r="85" spans="1:8">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2084,7 +2081,7 @@
       <c r="E85" s="2"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8" ht="15">
+    <row r="86" spans="1:8">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2092,7 +2089,7 @@
       <c r="E86" s="2"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8" ht="15">
+    <row r="87" spans="1:8">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2100,7 +2097,7 @@
       <c r="E87" s="2"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8" ht="15">
+    <row r="88" spans="1:8">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2108,7 +2105,7 @@
       <c r="E88" s="2"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8" ht="15">
+    <row r="89" spans="1:8">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2116,7 +2113,7 @@
       <c r="E89" s="2"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8" ht="15">
+    <row r="90" spans="1:8">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2124,7 +2121,7 @@
       <c r="E90" s="2"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8" ht="15">
+    <row r="91" spans="1:8">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2132,7 +2129,7 @@
       <c r="E91" s="2"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" ht="15">
+    <row r="92" spans="1:8">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2140,7 +2137,7 @@
       <c r="E92" s="2"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8" ht="15">
+    <row r="93" spans="1:8">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2148,7 +2145,7 @@
       <c r="E93" s="2"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8" ht="15">
+    <row r="94" spans="1:8">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2156,7 +2153,7 @@
       <c r="E94" s="2"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8" ht="15">
+    <row r="95" spans="1:8">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2164,7 +2161,7 @@
       <c r="E95" s="2"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="1:8" ht="15">
+    <row r="96" spans="1:8">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2172,7 +2169,7 @@
       <c r="E96" s="2"/>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="1:8" ht="15">
+    <row r="97" spans="1:8">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2180,7 +2177,7 @@
       <c r="E97" s="2"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" spans="1:8" ht="15">
+    <row r="98" spans="1:8">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2188,7 +2185,7 @@
       <c r="E98" s="2"/>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="1:8" ht="15">
+    <row r="99" spans="1:8">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2196,7 +2193,7 @@
       <c r="E99" s="2"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="1:8" ht="15">
+    <row r="100" spans="1:8">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2204,7 +2201,7 @@
       <c r="E100" s="2"/>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:8" ht="15">
+    <row r="101" spans="1:8">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2212,7 +2209,7 @@
       <c r="E101" s="2"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="1:8" ht="15">
+    <row r="102" spans="1:8">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2220,7 +2217,7 @@
       <c r="E102" s="2"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="1:8" ht="15">
+    <row r="103" spans="1:8">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2228,7 +2225,7 @@
       <c r="E103" s="2"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="1:8" ht="15">
+    <row r="104" spans="1:8">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2236,7 +2233,7 @@
       <c r="E104" s="2"/>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="1:8" ht="15">
+    <row r="105" spans="1:8">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2244,7 +2241,7 @@
       <c r="E105" s="2"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="1:8" ht="15">
+    <row r="106" spans="1:8">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2252,7 +2249,7 @@
       <c r="E106" s="2"/>
       <c r="H106" s="8"/>
     </row>
-    <row r="107" spans="1:8" ht="15">
+    <row r="107" spans="1:8">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2260,7 +2257,7 @@
       <c r="E107" s="2"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="1:8" ht="15">
+    <row r="108" spans="1:8">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2268,7 +2265,7 @@
       <c r="E108" s="2"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:8" ht="15">
+    <row r="109" spans="1:8">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2276,7 +2273,7 @@
       <c r="E109" s="2"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:8" ht="15">
+    <row r="110" spans="1:8">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2284,7 +2281,7 @@
       <c r="E110" s="2"/>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="1:8" ht="15">
+    <row r="111" spans="1:8">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2292,7 +2289,7 @@
       <c r="E111" s="2"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" spans="1:8" ht="15">
+    <row r="112" spans="1:8">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2300,7 +2297,7 @@
       <c r="E112" s="2"/>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="1:8" ht="15">
+    <row r="113" spans="1:8">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2308,7 +2305,7 @@
       <c r="E113" s="2"/>
       <c r="H113" s="8"/>
     </row>
-    <row r="114" spans="1:8" ht="15">
+    <row r="114" spans="1:8">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2316,7 +2313,7 @@
       <c r="E114" s="2"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="1:8" ht="15">
+    <row r="115" spans="1:8">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2324,7 +2321,7 @@
       <c r="E115" s="2"/>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" spans="1:8" ht="15">
+    <row r="116" spans="1:8">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2332,7 +2329,7 @@
       <c r="E116" s="2"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" spans="1:8" ht="15">
+    <row r="117" spans="1:8">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2340,7 +2337,7 @@
       <c r="E117" s="2"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="1:8" ht="15">
+    <row r="118" spans="1:8">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2348,7 +2345,7 @@
       <c r="E118" s="2"/>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" spans="1:8" ht="15">
+    <row r="119" spans="1:8">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2356,7 +2353,7 @@
       <c r="E119" s="2"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="1:8" ht="15">
+    <row r="120" spans="1:8">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2364,7 +2361,7 @@
       <c r="E120" s="2"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="1:8" ht="15">
+    <row r="121" spans="1:8">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2372,7 +2369,7 @@
       <c r="E121" s="2"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="1:8" ht="15">
+    <row r="122" spans="1:8">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2380,7 +2377,7 @@
       <c r="E122" s="2"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="1:8" ht="15">
+    <row r="123" spans="1:8">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2388,7 +2385,7 @@
       <c r="E123" s="2"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="1:8" ht="15">
+    <row r="124" spans="1:8">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2396,7 +2393,7 @@
       <c r="E124" s="2"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="1:8" ht="15">
+    <row r="125" spans="1:8">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2404,7 +2401,7 @@
       <c r="E125" s="2"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" spans="1:8" ht="15">
+    <row r="126" spans="1:8">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2412,7 +2409,7 @@
       <c r="E126" s="2"/>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" spans="1:8" ht="15">
+    <row r="127" spans="1:8">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2420,7 +2417,7 @@
       <c r="E127" s="2"/>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:8" ht="15">
+    <row r="128" spans="1:8">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2428,7 +2425,7 @@
       <c r="E128" s="2"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="1:8" ht="15">
+    <row r="129" spans="1:8">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2436,7 +2433,7 @@
       <c r="E129" s="2"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" spans="1:8" ht="15">
+    <row r="130" spans="1:8">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2444,7 +2441,7 @@
       <c r="E130" s="2"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="1:8" ht="15">
+    <row r="131" spans="1:8">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2452,7 +2449,7 @@
       <c r="E131" s="2"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" spans="1:8" ht="15">
+    <row r="132" spans="1:8">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2460,7 +2457,7 @@
       <c r="E132" s="2"/>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="1:8" ht="15">
+    <row r="133" spans="1:8">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2468,7 +2465,7 @@
       <c r="E133" s="2"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8" ht="15">
+    <row r="134" spans="1:8">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2476,7 +2473,7 @@
       <c r="E134" s="2"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8" ht="15">
+    <row r="135" spans="1:8">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2484,7 +2481,7 @@
       <c r="E135" s="2"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8" ht="15">
+    <row r="136" spans="1:8">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2492,7 +2489,7 @@
       <c r="E136" s="2"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8" ht="15">
+    <row r="137" spans="1:8">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2500,7 +2497,7 @@
       <c r="E137" s="2"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8" ht="15">
+    <row r="138" spans="1:8">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2508,7 +2505,7 @@
       <c r="E138" s="2"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:8" ht="15">
+    <row r="139" spans="1:8">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2516,7 +2513,7 @@
       <c r="E139" s="2"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8" ht="15">
+    <row r="140" spans="1:8">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2524,7 +2521,7 @@
       <c r="E140" s="2"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8" ht="15">
+    <row r="141" spans="1:8">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2532,7 +2529,7 @@
       <c r="E141" s="2"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8" ht="15">
+    <row r="142" spans="1:8">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2540,7 +2537,7 @@
       <c r="E142" s="2"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8" ht="15">
+    <row r="143" spans="1:8">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2548,7 +2545,7 @@
       <c r="E143" s="2"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8" ht="15">
+    <row r="144" spans="1:8">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2556,7 +2553,7 @@
       <c r="E144" s="2"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8" ht="15">
+    <row r="145" spans="1:8">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2564,7 +2561,7 @@
       <c r="E145" s="2"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" ht="15">
+    <row r="146" spans="1:8">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2572,7 +2569,7 @@
       <c r="E146" s="2"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8" ht="15">
+    <row r="147" spans="1:8">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2580,7 +2577,7 @@
       <c r="E147" s="2"/>
       <c r="H147" s="8"/>
     </row>
-    <row r="148" spans="1:8" ht="15">
+    <row r="148" spans="1:8">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2588,7 +2585,7 @@
       <c r="E148" s="2"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" ht="15">
+    <row r="149" spans="1:8">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2596,7 +2593,7 @@
       <c r="E149" s="2"/>
       <c r="H149" s="8"/>
     </row>
-    <row r="150" spans="1:8" ht="15">
+    <row r="150" spans="1:8">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2604,7 +2601,7 @@
       <c r="E150" s="2"/>
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="1:8" ht="15">
+    <row r="151" spans="1:8">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2612,7 +2609,7 @@
       <c r="E151" s="2"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="1:8" ht="15">
+    <row r="152" spans="1:8">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2620,7 +2617,7 @@
       <c r="E152" s="2"/>
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="1:8" ht="15">
+    <row r="153" spans="1:8">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2628,7 +2625,7 @@
       <c r="E153" s="2"/>
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="1:8" ht="15">
+    <row r="154" spans="1:8">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2636,7 +2633,7 @@
       <c r="E154" s="2"/>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="1:8" ht="15">
+    <row r="155" spans="1:8">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2644,7 +2641,7 @@
       <c r="E155" s="2"/>
       <c r="H155" s="8"/>
     </row>
-    <row r="156" spans="1:8" ht="15">
+    <row r="156" spans="1:8">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2652,7 +2649,7 @@
       <c r="E156" s="2"/>
       <c r="H156" s="8"/>
     </row>
-    <row r="157" spans="1:8" ht="15">
+    <row r="157" spans="1:8">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2660,7 +2657,7 @@
       <c r="E157" s="2"/>
       <c r="H157" s="8"/>
     </row>
-    <row r="158" spans="1:8" ht="15">
+    <row r="158" spans="1:8">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2668,7 +2665,7 @@
       <c r="E158" s="2"/>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="1:8" ht="15">
+    <row r="159" spans="1:8">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2676,7 +2673,7 @@
       <c r="E159" s="2"/>
       <c r="H159" s="8"/>
     </row>
-    <row r="160" spans="1:8" ht="15">
+    <row r="160" spans="1:8">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2684,7 +2681,7 @@
       <c r="E160" s="2"/>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="1:8" ht="15">
+    <row r="161" spans="1:8">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2692,7 +2689,7 @@
       <c r="E161" s="2"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="1:8" ht="15">
+    <row r="162" spans="1:8">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2700,7 +2697,7 @@
       <c r="E162" s="2"/>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="1:8" ht="15">
+    <row r="163" spans="1:8">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2708,7 +2705,7 @@
       <c r="E163" s="2"/>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="1:8" ht="15">
+    <row r="164" spans="1:8">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2716,7 +2713,7 @@
       <c r="E164" s="2"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="1:8" ht="15">
+    <row r="165" spans="1:8">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2724,7 +2721,7 @@
       <c r="E165" s="2"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="1:8" ht="15">
+    <row r="166" spans="1:8">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2732,7 +2729,7 @@
       <c r="E166" s="2"/>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="1:8" ht="15">
+    <row r="167" spans="1:8">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2740,7 +2737,7 @@
       <c r="E167" s="2"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="1:8" ht="15">
+    <row r="168" spans="1:8">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2748,7 +2745,7 @@
       <c r="E168" s="2"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="1:8" ht="15">
+    <row r="169" spans="1:8">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2756,7 +2753,7 @@
       <c r="E169" s="2"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="1:8" ht="15">
+    <row r="170" spans="1:8">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2764,7 +2761,7 @@
       <c r="E170" s="2"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8" ht="15">
+    <row r="171" spans="1:8">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2772,7 +2769,7 @@
       <c r="E171" s="2"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="1:8" ht="15">
+    <row r="172" spans="1:8">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2780,7 +2777,7 @@
       <c r="E172" s="2"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8" ht="15">
+    <row r="173" spans="1:8">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2788,7 +2785,7 @@
       <c r="E173" s="2"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8" ht="15">
+    <row r="174" spans="1:8">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2796,7 +2793,7 @@
       <c r="E174" s="2"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8" ht="15">
+    <row r="175" spans="1:8">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2804,7 +2801,7 @@
       <c r="E175" s="2"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8" ht="15">
+    <row r="176" spans="1:8">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2812,7 +2809,7 @@
       <c r="E176" s="2"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8" ht="15">
+    <row r="177" spans="1:8">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2820,7 +2817,7 @@
       <c r="E177" s="2"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="1:8" ht="15">
+    <row r="178" spans="1:8">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2828,7 +2825,7 @@
       <c r="E178" s="2"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="1:8" ht="15">
+    <row r="179" spans="1:8">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -2836,7 +2833,7 @@
       <c r="E179" s="2"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="1:8" ht="15">
+    <row r="180" spans="1:8">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2844,7 +2841,7 @@
       <c r="E180" s="2"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="1:8" ht="15">
+    <row r="181" spans="1:8">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2852,7 +2849,7 @@
       <c r="E181" s="2"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="1:8" ht="15">
+    <row r="182" spans="1:8">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -2860,7 +2857,7 @@
       <c r="E182" s="2"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="1:8" ht="15">
+    <row r="183" spans="1:8">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2868,7 +2865,7 @@
       <c r="E183" s="2"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="1:8" ht="15">
+    <row r="184" spans="1:8">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2876,7 +2873,7 @@
       <c r="E184" s="2"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="1:8" ht="15">
+    <row r="185" spans="1:8">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2884,7 +2881,7 @@
       <c r="E185" s="2"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:8" ht="15">
+    <row r="186" spans="1:8">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -2892,7 +2889,7 @@
       <c r="E186" s="2"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="1:8" ht="15">
+    <row r="187" spans="1:8">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2900,7 +2897,7 @@
       <c r="E187" s="2"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:8" ht="15">
+    <row r="188" spans="1:8">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2908,7 +2905,7 @@
       <c r="E188" s="2"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="1:8" ht="15">
+    <row r="189" spans="1:8">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -2916,7 +2913,7 @@
       <c r="E189" s="2"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8" ht="15">
+    <row r="190" spans="1:8">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2924,7 +2921,7 @@
       <c r="E190" s="2"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8" ht="15">
+    <row r="191" spans="1:8">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -2932,7 +2929,7 @@
       <c r="E191" s="2"/>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="1:8" ht="15">
+    <row r="192" spans="1:8">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2940,7 +2937,7 @@
       <c r="E192" s="2"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="1:8" ht="15">
+    <row r="193" spans="1:8">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2948,7 +2945,7 @@
       <c r="E193" s="2"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8" ht="15">
+    <row r="194" spans="1:8">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2956,7 +2953,7 @@
       <c r="E194" s="2"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="1:8" ht="15">
+    <row r="195" spans="1:8">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2964,7 +2961,7 @@
       <c r="E195" s="2"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="1:8" ht="15">
+    <row r="196" spans="1:8">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2972,7 +2969,7 @@
       <c r="E196" s="2"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8" ht="15">
+    <row r="197" spans="1:8">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2980,7 +2977,7 @@
       <c r="E197" s="2"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="1:8" ht="15">
+    <row r="198" spans="1:8">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2988,7 +2985,7 @@
       <c r="E198" s="2"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="1:8" ht="15">
+    <row r="199" spans="1:8">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2996,7 +2993,7 @@
       <c r="E199" s="2"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="1:8" ht="15">
+    <row r="200" spans="1:8">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3004,7 +3001,7 @@
       <c r="E200" s="2"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="1:8" ht="15">
+    <row r="201" spans="1:8">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -3012,7 +3009,7 @@
       <c r="E201" s="2"/>
       <c r="H201" s="8"/>
     </row>
-    <row r="202" spans="1:8" ht="15">
+    <row r="202" spans="1:8">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3020,7 +3017,7 @@
       <c r="E202" s="2"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="1:8" ht="15">
+    <row r="203" spans="1:8">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3028,7 +3025,7 @@
       <c r="E203" s="2"/>
       <c r="H203" s="8"/>
     </row>
-    <row r="204" spans="1:8" ht="15">
+    <row r="204" spans="1:8">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3036,7 +3033,7 @@
       <c r="E204" s="2"/>
       <c r="H204" s="8"/>
     </row>
-    <row r="205" spans="1:8" ht="15">
+    <row r="205" spans="1:8">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3044,7 +3041,7 @@
       <c r="E205" s="2"/>
       <c r="H205" s="8"/>
     </row>
-    <row r="206" spans="1:8" ht="15">
+    <row r="206" spans="1:8">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3052,7 +3049,7 @@
       <c r="E206" s="2"/>
       <c r="H206" s="8"/>
     </row>
-    <row r="207" spans="1:8" ht="15">
+    <row r="207" spans="1:8">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3060,7 +3057,7 @@
       <c r="E207" s="2"/>
       <c r="H207" s="8"/>
     </row>
-    <row r="208" spans="1:8" ht="15">
+    <row r="208" spans="1:8">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3068,7 +3065,7 @@
       <c r="E208" s="2"/>
       <c r="H208" s="8"/>
     </row>
-    <row r="209" spans="1:8" ht="15">
+    <row r="209" spans="1:8">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3076,7 +3073,7 @@
       <c r="E209" s="2"/>
       <c r="H209" s="8"/>
     </row>
-    <row r="210" spans="1:8" ht="15">
+    <row r="210" spans="1:8">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3084,7 +3081,7 @@
       <c r="E210" s="2"/>
       <c r="H210" s="8"/>
     </row>
-    <row r="211" spans="1:8" ht="15">
+    <row r="211" spans="1:8">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3092,7 +3089,7 @@
       <c r="E211" s="2"/>
       <c r="H211" s="8"/>
     </row>
-    <row r="212" spans="1:8" ht="15">
+    <row r="212" spans="1:8">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3100,7 +3097,7 @@
       <c r="E212" s="2"/>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="1:8" ht="15">
+    <row r="213" spans="1:8">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3108,7 +3105,7 @@
       <c r="E213" s="2"/>
       <c r="H213" s="8"/>
     </row>
-    <row r="214" spans="1:8" ht="15">
+    <row r="214" spans="1:8">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3116,7 +3113,7 @@
       <c r="E214" s="2"/>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="1:8" ht="15">
+    <row r="215" spans="1:8">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3124,7 +3121,7 @@
       <c r="E215" s="2"/>
       <c r="H215" s="8"/>
     </row>
-    <row r="216" spans="1:8" ht="15">
+    <row r="216" spans="1:8">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3132,7 +3129,7 @@
       <c r="E216" s="2"/>
       <c r="H216" s="8"/>
     </row>
-    <row r="217" spans="1:8" ht="15">
+    <row r="217" spans="1:8">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3140,7 +3137,7 @@
       <c r="E217" s="2"/>
       <c r="H217" s="8"/>
     </row>
-    <row r="218" spans="1:8" ht="15">
+    <row r="218" spans="1:8">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3148,7 +3145,7 @@
       <c r="E218" s="2"/>
       <c r="H218" s="8"/>
     </row>
-    <row r="219" spans="1:8" ht="15">
+    <row r="219" spans="1:8">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3156,7 +3153,7 @@
       <c r="E219" s="2"/>
       <c r="H219" s="8"/>
     </row>
-    <row r="220" spans="1:8" ht="15">
+    <row r="220" spans="1:8">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3164,7 +3161,7 @@
       <c r="E220" s="2"/>
       <c r="H220" s="8"/>
     </row>
-    <row r="221" spans="1:8" ht="15">
+    <row r="221" spans="1:8">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3172,7 +3169,7 @@
       <c r="E221" s="2"/>
       <c r="H221" s="8"/>
     </row>
-    <row r="222" spans="1:8" ht="15">
+    <row r="222" spans="1:8">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3180,7 +3177,7 @@
       <c r="E222" s="2"/>
       <c r="H222" s="8"/>
     </row>
-    <row r="223" spans="1:8" ht="15">
+    <row r="223" spans="1:8">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -3188,7 +3185,7 @@
       <c r="E223" s="2"/>
       <c r="H223" s="8"/>
     </row>
-    <row r="224" spans="1:8" ht="15">
+    <row r="224" spans="1:8">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -3196,7 +3193,7 @@
       <c r="E224" s="2"/>
       <c r="H224" s="8"/>
     </row>
-    <row r="225" spans="1:8" ht="15">
+    <row r="225" spans="1:8">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -3204,7 +3201,7 @@
       <c r="E225" s="2"/>
       <c r="H225" s="8"/>
     </row>
-    <row r="226" spans="1:8" ht="15">
+    <row r="226" spans="1:8">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -3212,7 +3209,7 @@
       <c r="E226" s="2"/>
       <c r="H226" s="8"/>
     </row>
-    <row r="227" spans="1:8" ht="15">
+    <row r="227" spans="1:8">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -3220,7 +3217,7 @@
       <c r="E227" s="2"/>
       <c r="H227" s="8"/>
     </row>
-    <row r="228" spans="1:8" ht="15">
+    <row r="228" spans="1:8">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -3228,7 +3225,7 @@
       <c r="E228" s="2"/>
       <c r="H228" s="8"/>
     </row>
-    <row r="229" spans="1:8" ht="15">
+    <row r="229" spans="1:8">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -3236,7 +3233,7 @@
       <c r="E229" s="2"/>
       <c r="H229" s="8"/>
     </row>
-    <row r="230" spans="1:8" ht="15">
+    <row r="230" spans="1:8">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -3244,7 +3241,7 @@
       <c r="E230" s="2"/>
       <c r="H230" s="8"/>
     </row>
-    <row r="231" spans="1:8" ht="15">
+    <row r="231" spans="1:8">
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -3252,7 +3249,7 @@
       <c r="E231" s="2"/>
       <c r="H231" s="8"/>
     </row>
-    <row r="232" spans="1:8" ht="15">
+    <row r="232" spans="1:8">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -3260,7 +3257,7 @@
       <c r="E232" s="2"/>
       <c r="H232" s="8"/>
     </row>
-    <row r="233" spans="1:8" ht="15">
+    <row r="233" spans="1:8">
       <c r="A233" s="2"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -3268,7 +3265,7 @@
       <c r="E233" s="2"/>
       <c r="H233" s="8"/>
     </row>
-    <row r="234" spans="1:8" ht="15">
+    <row r="234" spans="1:8">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -3276,7 +3273,7 @@
       <c r="E234" s="2"/>
       <c r="H234" s="8"/>
     </row>
-    <row r="235" spans="1:8" ht="15">
+    <row r="235" spans="1:8">
       <c r="A235" s="2"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3284,7 +3281,7 @@
       <c r="E235" s="2"/>
       <c r="H235" s="8"/>
     </row>
-    <row r="236" spans="1:8" ht="15">
+    <row r="236" spans="1:8">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -3292,7 +3289,7 @@
       <c r="E236" s="2"/>
       <c r="H236" s="8"/>
     </row>
-    <row r="237" spans="1:8" ht="15">
+    <row r="237" spans="1:8">
       <c r="A237" s="2"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -3300,7 +3297,7 @@
       <c r="E237" s="2"/>
       <c r="H237" s="8"/>
     </row>
-    <row r="238" spans="1:8" ht="15">
+    <row r="238" spans="1:8">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -3308,7 +3305,7 @@
       <c r="E238" s="2"/>
       <c r="H238" s="8"/>
     </row>
-    <row r="239" spans="1:8" ht="15">
+    <row r="239" spans="1:8">
       <c r="A239" s="2"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -3316,7 +3313,7 @@
       <c r="E239" s="2"/>
       <c r="H239" s="8"/>
     </row>
-    <row r="240" spans="1:8" ht="15">
+    <row r="240" spans="1:8">
       <c r="A240" s="2"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -3324,7 +3321,7 @@
       <c r="E240" s="2"/>
       <c r="H240" s="8"/>
     </row>
-    <row r="241" spans="1:8" ht="15">
+    <row r="241" spans="1:8">
       <c r="A241" s="2"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -3332,7 +3329,7 @@
       <c r="E241" s="2"/>
       <c r="H241" s="8"/>
     </row>
-    <row r="242" spans="1:8" ht="15">
+    <row r="242" spans="1:8">
       <c r="A242" s="2"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -3340,7 +3337,7 @@
       <c r="E242" s="2"/>
       <c r="H242" s="8"/>
     </row>
-    <row r="243" spans="1:8" ht="15">
+    <row r="243" spans="1:8">
       <c r="A243" s="2"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -3348,7 +3345,7 @@
       <c r="E243" s="2"/>
       <c r="H243" s="8"/>
     </row>
-    <row r="244" spans="1:8" ht="15">
+    <row r="244" spans="1:8">
       <c r="A244" s="2"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -3356,7 +3353,7 @@
       <c r="E244" s="2"/>
       <c r="H244" s="8"/>
     </row>
-    <row r="245" spans="1:8" ht="15">
+    <row r="245" spans="1:8">
       <c r="A245" s="2"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -3364,7 +3361,7 @@
       <c r="E245" s="2"/>
       <c r="H245" s="8"/>
     </row>
-    <row r="246" spans="1:8" ht="15">
+    <row r="246" spans="1:8">
       <c r="A246" s="2"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -3372,7 +3369,7 @@
       <c r="E246" s="2"/>
       <c r="H246" s="8"/>
     </row>
-    <row r="247" spans="1:8" ht="15">
+    <row r="247" spans="1:8">
       <c r="A247" s="2"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -3380,7 +3377,7 @@
       <c r="E247" s="2"/>
       <c r="H247" s="8"/>
     </row>
-    <row r="248" spans="1:8" ht="15">
+    <row r="248" spans="1:8">
       <c r="A248" s="2"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -3388,7 +3385,7 @@
       <c r="E248" s="2"/>
       <c r="H248" s="8"/>
     </row>
-    <row r="249" spans="1:8" ht="15">
+    <row r="249" spans="1:8">
       <c r="A249" s="2"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -3396,7 +3393,7 @@
       <c r="E249" s="2"/>
       <c r="H249" s="8"/>
     </row>
-    <row r="250" spans="1:8" ht="15">
+    <row r="250" spans="1:8">
       <c r="A250" s="2"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -3404,7 +3401,7 @@
       <c r="E250" s="2"/>
       <c r="H250" s="8"/>
     </row>
-    <row r="251" spans="1:8" ht="15">
+    <row r="251" spans="1:8">
       <c r="A251" s="2"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -3412,7 +3409,7 @@
       <c r="E251" s="2"/>
       <c r="H251" s="8"/>
     </row>
-    <row r="252" spans="1:8" ht="15">
+    <row r="252" spans="1:8">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -3420,7 +3417,7 @@
       <c r="E252" s="2"/>
       <c r="H252" s="8"/>
     </row>
-    <row r="253" spans="1:8" ht="15">
+    <row r="253" spans="1:8">
       <c r="A253" s="2"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -3428,7 +3425,7 @@
       <c r="E253" s="2"/>
       <c r="H253" s="8"/>
     </row>
-    <row r="254" spans="1:8" ht="15">
+    <row r="254" spans="1:8">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -3436,7 +3433,7 @@
       <c r="E254" s="2"/>
       <c r="H254" s="8"/>
     </row>
-    <row r="255" spans="1:8" ht="15">
+    <row r="255" spans="1:8">
       <c r="A255" s="2"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -3444,7 +3441,7 @@
       <c r="E255" s="2"/>
       <c r="H255" s="8"/>
     </row>
-    <row r="256" spans="1:8" ht="15">
+    <row r="256" spans="1:8">
       <c r="A256" s="2"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -3452,7 +3449,7 @@
       <c r="E256" s="2"/>
       <c r="H256" s="8"/>
     </row>
-    <row r="257" spans="1:8" ht="15">
+    <row r="257" spans="1:8">
       <c r="A257" s="2"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -3460,7 +3457,7 @@
       <c r="E257" s="2"/>
       <c r="H257" s="8"/>
     </row>
-    <row r="258" spans="1:8" ht="15">
+    <row r="258" spans="1:8">
       <c r="A258" s="2"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -3468,7 +3465,7 @@
       <c r="E258" s="2"/>
       <c r="H258" s="8"/>
     </row>
-    <row r="259" spans="1:8" ht="15">
+    <row r="259" spans="1:8">
       <c r="A259" s="2"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -3476,7 +3473,7 @@
       <c r="E259" s="2"/>
       <c r="H259" s="8"/>
     </row>
-    <row r="260" spans="1:8" ht="15">
+    <row r="260" spans="1:8">
       <c r="A260" s="2"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -3484,7 +3481,7 @@
       <c r="E260" s="2"/>
       <c r="H260" s="8"/>
     </row>
-    <row r="261" spans="1:8" ht="15">
+    <row r="261" spans="1:8">
       <c r="A261" s="2"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -3492,7 +3489,7 @@
       <c r="E261" s="2"/>
       <c r="H261" s="8"/>
     </row>
-    <row r="262" spans="1:8" ht="15">
+    <row r="262" spans="1:8">
       <c r="A262" s="2"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -3500,7 +3497,7 @@
       <c r="E262" s="2"/>
       <c r="H262" s="8"/>
     </row>
-    <row r="263" spans="1:8" ht="15">
+    <row r="263" spans="1:8">
       <c r="A263" s="2"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -3508,7 +3505,7 @@
       <c r="E263" s="2"/>
       <c r="H263" s="8"/>
     </row>
-    <row r="264" spans="1:8" ht="15">
+    <row r="264" spans="1:8">
       <c r="A264" s="2"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -3516,7 +3513,7 @@
       <c r="E264" s="2"/>
       <c r="H264" s="8"/>
     </row>
-    <row r="265" spans="1:8" ht="15">
+    <row r="265" spans="1:8">
       <c r="A265" s="2"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -3524,7 +3521,7 @@
       <c r="E265" s="2"/>
       <c r="H265" s="8"/>
     </row>
-    <row r="266" spans="1:8" ht="15">
+    <row r="266" spans="1:8">
       <c r="A266" s="2"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -3532,7 +3529,7 @@
       <c r="E266" s="2"/>
       <c r="H266" s="8"/>
     </row>
-    <row r="267" spans="1:8" ht="15">
+    <row r="267" spans="1:8">
       <c r="A267" s="2"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -3540,7 +3537,7 @@
       <c r="E267" s="2"/>
       <c r="H267" s="8"/>
     </row>
-    <row r="268" spans="1:8" ht="15">
+    <row r="268" spans="1:8">
       <c r="A268" s="2"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -3548,7 +3545,7 @@
       <c r="E268" s="2"/>
       <c r="H268" s="8"/>
     </row>
-    <row r="269" spans="1:8" ht="15">
+    <row r="269" spans="1:8">
       <c r="A269" s="2"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -3556,7 +3553,7 @@
       <c r="E269" s="2"/>
       <c r="H269" s="8"/>
     </row>
-    <row r="270" spans="1:8" ht="15">
+    <row r="270" spans="1:8">
       <c r="A270" s="2"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -3564,7 +3561,7 @@
       <c r="E270" s="2"/>
       <c r="H270" s="8"/>
     </row>
-    <row r="271" spans="1:8" ht="15">
+    <row r="271" spans="1:8">
       <c r="A271" s="2"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -3572,7 +3569,7 @@
       <c r="E271" s="2"/>
       <c r="H271" s="8"/>
     </row>
-    <row r="272" spans="1:8" ht="15">
+    <row r="272" spans="1:8">
       <c r="A272" s="2"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -3580,7 +3577,7 @@
       <c r="E272" s="2"/>
       <c r="H272" s="8"/>
     </row>
-    <row r="273" spans="1:8" ht="15">
+    <row r="273" spans="1:8">
       <c r="A273" s="2"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -3588,7 +3585,7 @@
       <c r="E273" s="2"/>
       <c r="H273" s="8"/>
     </row>
-    <row r="274" spans="1:8" ht="15">
+    <row r="274" spans="1:8">
       <c r="A274" s="2"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -3596,7 +3593,7 @@
       <c r="E274" s="2"/>
       <c r="H274" s="8"/>
     </row>
-    <row r="275" spans="1:8" ht="15">
+    <row r="275" spans="1:8">
       <c r="A275" s="2"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -3604,7 +3601,7 @@
       <c r="E275" s="2"/>
       <c r="H275" s="8"/>
     </row>
-    <row r="276" spans="1:8" ht="15">
+    <row r="276" spans="1:8">
       <c r="A276" s="2"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -3612,7 +3609,7 @@
       <c r="E276" s="2"/>
       <c r="H276" s="8"/>
     </row>
-    <row r="277" spans="1:8" ht="15">
+    <row r="277" spans="1:8">
       <c r="A277" s="2"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -3620,7 +3617,7 @@
       <c r="E277" s="2"/>
       <c r="H277" s="8"/>
     </row>
-    <row r="278" spans="1:8" ht="15">
+    <row r="278" spans="1:8">
       <c r="A278" s="2"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -3628,7 +3625,7 @@
       <c r="E278" s="2"/>
       <c r="H278" s="8"/>
     </row>
-    <row r="279" spans="1:8" ht="15">
+    <row r="279" spans="1:8">
       <c r="A279" s="2"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -3636,7 +3633,7 @@
       <c r="E279" s="2"/>
       <c r="H279" s="8"/>
     </row>
-    <row r="280" spans="1:8" ht="15">
+    <row r="280" spans="1:8">
       <c r="A280" s="2"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -3644,7 +3641,7 @@
       <c r="E280" s="2"/>
       <c r="H280" s="8"/>
     </row>
-    <row r="281" spans="1:8" ht="15">
+    <row r="281" spans="1:8">
       <c r="A281" s="2"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -3652,7 +3649,7 @@
       <c r="E281" s="2"/>
       <c r="H281" s="8"/>
     </row>
-    <row r="282" spans="1:8" ht="15">
+    <row r="282" spans="1:8">
       <c r="A282" s="2"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -3660,7 +3657,7 @@
       <c r="E282" s="2"/>
       <c r="H282" s="8"/>
     </row>
-    <row r="283" spans="1:8" ht="15">
+    <row r="283" spans="1:8">
       <c r="A283" s="2"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -3668,7 +3665,7 @@
       <c r="E283" s="2"/>
       <c r="H283" s="8"/>
     </row>
-    <row r="284" spans="1:8" ht="15">
+    <row r="284" spans="1:8">
       <c r="A284" s="2"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -3676,7 +3673,7 @@
       <c r="E284" s="2"/>
       <c r="H284" s="8"/>
     </row>
-    <row r="285" spans="1:8" ht="15">
+    <row r="285" spans="1:8">
       <c r="A285" s="2"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -3684,7 +3681,7 @@
       <c r="E285" s="2"/>
       <c r="H285" s="8"/>
     </row>
-    <row r="286" spans="1:8" ht="15">
+    <row r="286" spans="1:8">
       <c r="A286" s="2"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -3692,7 +3689,7 @@
       <c r="E286" s="2"/>
       <c r="H286" s="8"/>
     </row>
-    <row r="287" spans="1:8" ht="15">
+    <row r="287" spans="1:8">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -3700,7 +3697,7 @@
       <c r="E287" s="2"/>
       <c r="H287" s="8"/>
     </row>
-    <row r="288" spans="1:8" ht="15">
+    <row r="288" spans="1:8">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -3708,7 +3705,7 @@
       <c r="E288" s="2"/>
       <c r="H288" s="8"/>
     </row>
-    <row r="289" spans="1:8" ht="15">
+    <row r="289" spans="1:8">
       <c r="A289" s="2"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -3716,7 +3713,7 @@
       <c r="E289" s="2"/>
       <c r="H289" s="8"/>
     </row>
-    <row r="290" spans="1:8" ht="15">
+    <row r="290" spans="1:8">
       <c r="A290" s="2"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -3724,7 +3721,7 @@
       <c r="E290" s="2"/>
       <c r="H290" s="8"/>
     </row>
-    <row r="291" spans="1:8" ht="15">
+    <row r="291" spans="1:8">
       <c r="A291" s="2"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -3732,7 +3729,7 @@
       <c r="E291" s="2"/>
       <c r="H291" s="8"/>
     </row>
-    <row r="292" spans="1:8" ht="15">
+    <row r="292" spans="1:8">
       <c r="A292" s="2"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -3740,7 +3737,7 @@
       <c r="E292" s="2"/>
       <c r="H292" s="8"/>
     </row>
-    <row r="293" spans="1:8" ht="15">
+    <row r="293" spans="1:8">
       <c r="A293" s="2"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -3748,7 +3745,7 @@
       <c r="E293" s="2"/>
       <c r="H293" s="8"/>
     </row>
-    <row r="294" spans="1:8" ht="15">
+    <row r="294" spans="1:8">
       <c r="A294" s="2"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -3756,7 +3753,7 @@
       <c r="E294" s="2"/>
       <c r="H294" s="8"/>
     </row>
-    <row r="295" spans="1:8" ht="15">
+    <row r="295" spans="1:8">
       <c r="A295" s="2"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -3764,7 +3761,7 @@
       <c r="E295" s="2"/>
       <c r="H295" s="8"/>
     </row>
-    <row r="296" spans="1:8" ht="15">
+    <row r="296" spans="1:8">
       <c r="A296" s="2"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -3772,7 +3769,7 @@
       <c r="E296" s="2"/>
       <c r="H296" s="8"/>
     </row>
-    <row r="297" spans="1:8" ht="15">
+    <row r="297" spans="1:8">
       <c r="A297" s="2"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -3780,7 +3777,7 @@
       <c r="E297" s="2"/>
       <c r="H297" s="8"/>
     </row>
-    <row r="298" spans="1:8" ht="15">
+    <row r="298" spans="1:8">
       <c r="A298" s="2"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -3788,7 +3785,7 @@
       <c r="E298" s="2"/>
       <c r="H298" s="8"/>
     </row>
-    <row r="299" spans="1:8" ht="15">
+    <row r="299" spans="1:8">
       <c r="A299" s="2"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -3796,7 +3793,7 @@
       <c r="E299" s="2"/>
       <c r="H299" s="8"/>
     </row>
-    <row r="300" spans="1:8" ht="15">
+    <row r="300" spans="1:8">
       <c r="A300" s="2"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -3804,7 +3801,7 @@
       <c r="E300" s="2"/>
       <c r="H300" s="8"/>
     </row>
-    <row r="301" spans="1:8" ht="15">
+    <row r="301" spans="1:8">
       <c r="A301" s="2"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -3812,7 +3809,7 @@
       <c r="E301" s="2"/>
       <c r="H301" s="8"/>
     </row>
-    <row r="302" spans="1:8" ht="15">
+    <row r="302" spans="1:8">
       <c r="A302" s="2"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -3820,7 +3817,7 @@
       <c r="E302" s="2"/>
       <c r="H302" s="8"/>
     </row>
-    <row r="303" spans="1:8" ht="15">
+    <row r="303" spans="1:8">
       <c r="A303" s="2"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -3828,7 +3825,7 @@
       <c r="E303" s="2"/>
       <c r="H303" s="8"/>
     </row>
-    <row r="304" spans="1:8" ht="15">
+    <row r="304" spans="1:8">
       <c r="A304" s="2"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -3836,7 +3833,7 @@
       <c r="E304" s="2"/>
       <c r="H304" s="8"/>
     </row>
-    <row r="305" spans="1:8" ht="15">
+    <row r="305" spans="1:8">
       <c r="A305" s="2"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -3844,7 +3841,7 @@
       <c r="E305" s="2"/>
       <c r="H305" s="8"/>
     </row>
-    <row r="306" spans="1:8" ht="15">
+    <row r="306" spans="1:8">
       <c r="A306" s="2"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -3852,7 +3849,7 @@
       <c r="E306" s="2"/>
       <c r="H306" s="8"/>
     </row>
-    <row r="307" spans="1:8" ht="15">
+    <row r="307" spans="1:8">
       <c r="A307" s="2"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -3860,7 +3857,7 @@
       <c r="E307" s="2"/>
       <c r="H307" s="8"/>
     </row>
-    <row r="308" spans="1:8" ht="15">
+    <row r="308" spans="1:8">
       <c r="A308" s="2"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -3868,7 +3865,7 @@
       <c r="E308" s="2"/>
       <c r="H308" s="8"/>
     </row>
-    <row r="309" spans="1:8" ht="15">
+    <row r="309" spans="1:8">
       <c r="A309" s="2"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -3876,7 +3873,7 @@
       <c r="E309" s="2"/>
       <c r="H309" s="8"/>
     </row>
-    <row r="310" spans="1:8" ht="15">
+    <row r="310" spans="1:8">
       <c r="A310" s="2"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -3884,7 +3881,7 @@
       <c r="E310" s="2"/>
       <c r="H310" s="8"/>
     </row>
-    <row r="311" spans="1:8" ht="15">
+    <row r="311" spans="1:8">
       <c r="A311" s="2"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -3892,7 +3889,7 @@
       <c r="E311" s="2"/>
       <c r="H311" s="8"/>
     </row>
-    <row r="312" spans="1:8" ht="15">
+    <row r="312" spans="1:8">
       <c r="A312" s="2"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -3900,7 +3897,7 @@
       <c r="E312" s="2"/>
       <c r="H312" s="8"/>
     </row>
-    <row r="313" spans="1:8" ht="15">
+    <row r="313" spans="1:8">
       <c r="A313" s="2"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -3908,7 +3905,7 @@
       <c r="E313" s="2"/>
       <c r="H313" s="8"/>
     </row>
-    <row r="314" spans="1:8" ht="15">
+    <row r="314" spans="1:8">
       <c r="A314" s="2"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -3916,7 +3913,7 @@
       <c r="E314" s="2"/>
       <c r="H314" s="8"/>
     </row>
-    <row r="315" spans="1:8" ht="15">
+    <row r="315" spans="1:8">
       <c r="A315" s="2"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -3924,7 +3921,7 @@
       <c r="E315" s="2"/>
       <c r="H315" s="8"/>
     </row>
-    <row r="316" spans="1:8" ht="15">
+    <row r="316" spans="1:8">
       <c r="A316" s="2"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -3932,7 +3929,7 @@
       <c r="E316" s="2"/>
       <c r="H316" s="8"/>
     </row>
-    <row r="317" spans="1:8" ht="15">
+    <row r="317" spans="1:8">
       <c r="A317" s="2"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -3940,7 +3937,7 @@
       <c r="E317" s="2"/>
       <c r="H317" s="8"/>
     </row>
-    <row r="318" spans="1:8" ht="15">
+    <row r="318" spans="1:8">
       <c r="A318" s="2"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -3948,7 +3945,7 @@
       <c r="E318" s="2"/>
       <c r="H318" s="8"/>
     </row>
-    <row r="319" spans="1:8" ht="15">
+    <row r="319" spans="1:8">
       <c r="A319" s="2"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -3956,7 +3953,7 @@
       <c r="E319" s="2"/>
       <c r="H319" s="8"/>
     </row>
-    <row r="320" spans="1:8" ht="15">
+    <row r="320" spans="1:8">
       <c r="A320" s="2"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -3964,7 +3961,7 @@
       <c r="E320" s="2"/>
       <c r="H320" s="8"/>
     </row>
-    <row r="321" spans="1:8" ht="15">
+    <row r="321" spans="1:8">
       <c r="A321" s="2"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -3972,7 +3969,7 @@
       <c r="E321" s="2"/>
       <c r="H321" s="8"/>
     </row>
-    <row r="322" spans="1:8" ht="15">
+    <row r="322" spans="1:8">
       <c r="A322" s="2"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -3980,7 +3977,7 @@
       <c r="E322" s="2"/>
       <c r="H322" s="8"/>
     </row>
-    <row r="323" spans="1:8" ht="15">
+    <row r="323" spans="1:8">
       <c r="A323" s="2"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -3988,7 +3985,7 @@
       <c r="E323" s="2"/>
       <c r="H323" s="8"/>
     </row>
-    <row r="324" spans="1:8" ht="15">
+    <row r="324" spans="1:8">
       <c r="A324" s="2"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -3996,7 +3993,7 @@
       <c r="E324" s="2"/>
       <c r="H324" s="8"/>
     </row>
-    <row r="325" spans="1:8" ht="15">
+    <row r="325" spans="1:8">
       <c r="A325" s="2"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -4004,7 +4001,7 @@
       <c r="E325" s="2"/>
       <c r="H325" s="8"/>
     </row>
-    <row r="326" spans="1:8" ht="15">
+    <row r="326" spans="1:8">
       <c r="A326" s="2"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -4012,7 +4009,7 @@
       <c r="E326" s="2"/>
       <c r="H326" s="8"/>
     </row>
-    <row r="327" spans="1:8" ht="15">
+    <row r="327" spans="1:8">
       <c r="A327" s="2"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -4020,7 +4017,7 @@
       <c r="E327" s="2"/>
       <c r="H327" s="8"/>
     </row>
-    <row r="328" spans="1:8" ht="15">
+    <row r="328" spans="1:8">
       <c r="A328" s="2"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -4028,7 +4025,7 @@
       <c r="E328" s="2"/>
       <c r="H328" s="8"/>
     </row>
-    <row r="329" spans="1:8" ht="15">
+    <row r="329" spans="1:8">
       <c r="A329" s="2"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -4036,7 +4033,7 @@
       <c r="E329" s="2"/>
       <c r="H329" s="8"/>
     </row>
-    <row r="330" spans="1:8" ht="15">
+    <row r="330" spans="1:8">
       <c r="A330" s="2"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -4044,7 +4041,7 @@
       <c r="E330" s="2"/>
       <c r="H330" s="8"/>
     </row>
-    <row r="331" spans="1:8" ht="15">
+    <row r="331" spans="1:8">
       <c r="A331" s="2"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -4052,7 +4049,7 @@
       <c r="E331" s="2"/>
       <c r="H331" s="8"/>
     </row>
-    <row r="332" spans="1:8" ht="15">
+    <row r="332" spans="1:8">
       <c r="A332" s="2"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -4060,7 +4057,7 @@
       <c r="E332" s="2"/>
       <c r="H332" s="8"/>
     </row>
-    <row r="333" spans="1:8" ht="15">
+    <row r="333" spans="1:8">
       <c r="A333" s="2"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -4068,7 +4065,7 @@
       <c r="E333" s="2"/>
       <c r="H333" s="8"/>
     </row>
-    <row r="334" spans="1:8" ht="15">
+    <row r="334" spans="1:8">
       <c r="A334" s="2"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -4076,7 +4073,7 @@
       <c r="E334" s="2"/>
       <c r="H334" s="8"/>
     </row>
-    <row r="335" spans="1:8" ht="15">
+    <row r="335" spans="1:8">
       <c r="A335" s="2"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -4084,7 +4081,7 @@
       <c r="E335" s="2"/>
       <c r="H335" s="8"/>
     </row>
-    <row r="336" spans="1:8" ht="15">
+    <row r="336" spans="1:8">
       <c r="A336" s="2"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -4092,7 +4089,7 @@
       <c r="E336" s="2"/>
       <c r="H336" s="8"/>
     </row>
-    <row r="337" spans="1:8" ht="15">
+    <row r="337" spans="1:8">
       <c r="A337" s="2"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -4100,7 +4097,7 @@
       <c r="E337" s="2"/>
       <c r="H337" s="8"/>
     </row>
-    <row r="338" spans="1:8" ht="15">
+    <row r="338" spans="1:8">
       <c r="A338" s="2"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -4108,7 +4105,7 @@
       <c r="E338" s="2"/>
       <c r="H338" s="8"/>
     </row>
-    <row r="339" spans="1:8" ht="15">
+    <row r="339" spans="1:8">
       <c r="A339" s="2"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -4116,7 +4113,7 @@
       <c r="E339" s="2"/>
       <c r="H339" s="8"/>
     </row>
-    <row r="340" spans="1:8" ht="15">
+    <row r="340" spans="1:8">
       <c r="A340" s="2"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -4124,7 +4121,7 @@
       <c r="E340" s="2"/>
       <c r="H340" s="8"/>
     </row>
-    <row r="341" spans="1:8" ht="15">
+    <row r="341" spans="1:8">
       <c r="A341" s="2"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -4132,7 +4129,7 @@
       <c r="E341" s="2"/>
       <c r="H341" s="8"/>
     </row>
-    <row r="342" spans="1:8" ht="15">
+    <row r="342" spans="1:8">
       <c r="A342" s="2"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -4140,7 +4137,7 @@
       <c r="E342" s="2"/>
       <c r="H342" s="8"/>
     </row>
-    <row r="343" spans="1:8" ht="15">
+    <row r="343" spans="1:8">
       <c r="A343" s="2"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -4148,7 +4145,7 @@
       <c r="E343" s="2"/>
       <c r="H343" s="8"/>
     </row>
-    <row r="344" spans="1:8" ht="15">
+    <row r="344" spans="1:8">
       <c r="A344" s="2"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -4156,7 +4153,7 @@
       <c r="E344" s="2"/>
       <c r="H344" s="8"/>
     </row>
-    <row r="345" spans="1:8" ht="15">
+    <row r="345" spans="1:8">
       <c r="A345" s="2"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -4164,7 +4161,7 @@
       <c r="E345" s="2"/>
       <c r="H345" s="8"/>
     </row>
-    <row r="346" spans="1:8" ht="15">
+    <row r="346" spans="1:8">
       <c r="A346" s="2"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -4172,7 +4169,7 @@
       <c r="E346" s="2"/>
       <c r="H346" s="8"/>
     </row>
-    <row r="347" spans="1:8" ht="15">
+    <row r="347" spans="1:8">
       <c r="A347" s="2"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -4180,7 +4177,7 @@
       <c r="E347" s="2"/>
       <c r="H347" s="8"/>
     </row>
-    <row r="348" spans="1:8" ht="15">
+    <row r="348" spans="1:8">
       <c r="A348" s="2"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -4188,7 +4185,7 @@
       <c r="E348" s="2"/>
       <c r="H348" s="8"/>
     </row>
-    <row r="349" spans="1:8" ht="15">
+    <row r="349" spans="1:8">
       <c r="A349" s="2"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -4196,7 +4193,7 @@
       <c r="E349" s="2"/>
       <c r="H349" s="8"/>
     </row>
-    <row r="350" spans="1:8" ht="15">
+    <row r="350" spans="1:8">
       <c r="A350" s="2"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -4204,7 +4201,7 @@
       <c r="E350" s="2"/>
       <c r="H350" s="8"/>
     </row>
-    <row r="351" spans="1:8" ht="15">
+    <row r="351" spans="1:8">
       <c r="A351" s="2"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -4212,7 +4209,7 @@
       <c r="E351" s="2"/>
       <c r="H351" s="8"/>
     </row>
-    <row r="352" spans="1:8" ht="15">
+    <row r="352" spans="1:8">
       <c r="A352" s="2"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -4220,7 +4217,7 @@
       <c r="E352" s="2"/>
       <c r="H352" s="8"/>
     </row>
-    <row r="353" spans="1:8" ht="15">
+    <row r="353" spans="1:8">
       <c r="A353" s="2"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -4228,7 +4225,7 @@
       <c r="E353" s="2"/>
       <c r="H353" s="8"/>
     </row>
-    <row r="354" spans="1:8" ht="15">
+    <row r="354" spans="1:8">
       <c r="A354" s="2"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -4236,7 +4233,7 @@
       <c r="E354" s="2"/>
       <c r="H354" s="8"/>
     </row>
-    <row r="355" spans="1:8" ht="15">
+    <row r="355" spans="1:8">
       <c r="A355" s="2"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -4244,7 +4241,7 @@
       <c r="E355" s="2"/>
       <c r="H355" s="8"/>
     </row>
-    <row r="356" spans="1:8" ht="15">
+    <row r="356" spans="1:8">
       <c r="A356" s="2"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -4252,7 +4249,7 @@
       <c r="E356" s="2"/>
       <c r="H356" s="8"/>
     </row>
-    <row r="357" spans="1:8" ht="15">
+    <row r="357" spans="1:8">
       <c r="A357" s="2"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -4260,7 +4257,7 @@
       <c r="E357" s="2"/>
       <c r="H357" s="8"/>
     </row>
-    <row r="358" spans="1:8" ht="15">
+    <row r="358" spans="1:8">
       <c r="A358" s="2"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -4268,7 +4265,7 @@
       <c r="E358" s="2"/>
       <c r="H358" s="8"/>
     </row>
-    <row r="359" spans="1:8" ht="15">
+    <row r="359" spans="1:8">
       <c r="A359" s="2"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -4276,7 +4273,7 @@
       <c r="E359" s="2"/>
       <c r="H359" s="8"/>
     </row>
-    <row r="360" spans="1:8" ht="15">
+    <row r="360" spans="1:8">
       <c r="A360" s="2"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -4284,7 +4281,7 @@
       <c r="E360" s="2"/>
       <c r="H360" s="8"/>
     </row>
-    <row r="361" spans="1:8" ht="15">
+    <row r="361" spans="1:8">
       <c r="A361" s="2"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -4292,7 +4289,7 @@
       <c r="E361" s="2"/>
       <c r="H361" s="8"/>
     </row>
-    <row r="362" spans="1:8" ht="15">
+    <row r="362" spans="1:8">
       <c r="A362" s="2"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -4300,7 +4297,7 @@
       <c r="E362" s="2"/>
       <c r="H362" s="8"/>
     </row>
-    <row r="363" spans="1:8" ht="15">
+    <row r="363" spans="1:8">
       <c r="A363" s="2"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -4308,7 +4305,7 @@
       <c r="E363" s="2"/>
       <c r="H363" s="8"/>
     </row>
-    <row r="364" spans="1:8" ht="15">
+    <row r="364" spans="1:8">
       <c r="A364" s="2"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -4316,7 +4313,7 @@
       <c r="E364" s="2"/>
       <c r="H364" s="8"/>
     </row>
-    <row r="365" spans="1:8" ht="15">
+    <row r="365" spans="1:8">
       <c r="A365" s="2"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -4324,7 +4321,7 @@
       <c r="E365" s="2"/>
       <c r="H365" s="8"/>
     </row>
-    <row r="366" spans="1:8" ht="15">
+    <row r="366" spans="1:8">
       <c r="A366" s="2"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -4332,7 +4329,7 @@
       <c r="E366" s="2"/>
       <c r="H366" s="8"/>
     </row>
-    <row r="367" spans="1:8" ht="15">
+    <row r="367" spans="1:8">
       <c r="A367" s="2"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -4340,7 +4337,7 @@
       <c r="E367" s="2"/>
       <c r="H367" s="8"/>
     </row>
-    <row r="368" spans="1:8" ht="15">
+    <row r="368" spans="1:8">
       <c r="A368" s="2"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -4348,7 +4345,7 @@
       <c r="E368" s="2"/>
       <c r="H368" s="8"/>
     </row>
-    <row r="369" spans="1:8" ht="15">
+    <row r="369" spans="1:8">
       <c r="A369" s="2"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -4356,7 +4353,7 @@
       <c r="E369" s="2"/>
       <c r="H369" s="8"/>
     </row>
-    <row r="370" spans="1:8" ht="15">
+    <row r="370" spans="1:8">
       <c r="A370" s="2"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -4364,7 +4361,7 @@
       <c r="E370" s="2"/>
       <c r="H370" s="8"/>
     </row>
-    <row r="371" spans="1:8" ht="15">
+    <row r="371" spans="1:8">
       <c r="A371" s="2"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -4372,7 +4369,7 @@
       <c r="E371" s="2"/>
       <c r="H371" s="8"/>
     </row>
-    <row r="372" spans="1:8" ht="15">
+    <row r="372" spans="1:8">
       <c r="A372" s="2"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -4380,7 +4377,7 @@
       <c r="E372" s="2"/>
       <c r="H372" s="8"/>
     </row>
-    <row r="373" spans="1:8" ht="15">
+    <row r="373" spans="1:8">
       <c r="A373" s="2"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -4388,7 +4385,7 @@
       <c r="E373" s="2"/>
       <c r="H373" s="8"/>
     </row>
-    <row r="374" spans="1:8" ht="15">
+    <row r="374" spans="1:8">
       <c r="A374" s="2"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -4396,7 +4393,7 @@
       <c r="E374" s="2"/>
       <c r="H374" s="8"/>
     </row>
-    <row r="375" spans="1:8" ht="15">
+    <row r="375" spans="1:8">
       <c r="A375" s="2"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -4404,7 +4401,7 @@
       <c r="E375" s="2"/>
       <c r="H375" s="8"/>
     </row>
-    <row r="376" spans="1:8" ht="15">
+    <row r="376" spans="1:8">
       <c r="A376" s="2"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -4412,7 +4409,7 @@
       <c r="E376" s="2"/>
       <c r="H376" s="8"/>
     </row>
-    <row r="377" spans="1:8" ht="15">
+    <row r="377" spans="1:8">
       <c r="A377" s="2"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -4420,7 +4417,7 @@
       <c r="E377" s="2"/>
       <c r="H377" s="8"/>
     </row>
-    <row r="378" spans="1:8" ht="15">
+    <row r="378" spans="1:8">
       <c r="A378" s="2"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -4428,7 +4425,7 @@
       <c r="E378" s="2"/>
       <c r="H378" s="8"/>
     </row>
-    <row r="379" spans="1:8" ht="15">
+    <row r="379" spans="1:8">
       <c r="A379" s="2"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -4436,7 +4433,7 @@
       <c r="E379" s="2"/>
       <c r="H379" s="8"/>
     </row>
-    <row r="380" spans="1:8" ht="15">
+    <row r="380" spans="1:8">
       <c r="A380" s="2"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -4444,7 +4441,7 @@
       <c r="E380" s="2"/>
       <c r="H380" s="8"/>
     </row>
-    <row r="381" spans="1:8" ht="15">
+    <row r="381" spans="1:8">
       <c r="A381" s="2"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -4452,7 +4449,7 @@
       <c r="E381" s="2"/>
       <c r="H381" s="8"/>
     </row>
-    <row r="382" spans="1:8" ht="15">
+    <row r="382" spans="1:8">
       <c r="A382" s="2"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -4460,7 +4457,7 @@
       <c r="E382" s="2"/>
       <c r="H382" s="8"/>
     </row>
-    <row r="383" spans="1:8" ht="15">
+    <row r="383" spans="1:8">
       <c r="A383" s="2"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -4468,7 +4465,7 @@
       <c r="E383" s="2"/>
       <c r="H383" s="8"/>
     </row>
-    <row r="384" spans="1:8" ht="15">
+    <row r="384" spans="1:8">
       <c r="A384" s="2"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -4476,7 +4473,7 @@
       <c r="E384" s="2"/>
       <c r="H384" s="8"/>
     </row>
-    <row r="385" spans="1:8" ht="15">
+    <row r="385" spans="1:8">
       <c r="A385" s="2"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -4484,7 +4481,7 @@
       <c r="E385" s="2"/>
       <c r="H385" s="8"/>
     </row>
-    <row r="386" spans="1:8" ht="15">
+    <row r="386" spans="1:8">
       <c r="A386" s="2"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -4492,7 +4489,7 @@
       <c r="E386" s="2"/>
       <c r="H386" s="8"/>
     </row>
-    <row r="387" spans="1:8" ht="15">
+    <row r="387" spans="1:8">
       <c r="A387" s="2"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -4500,7 +4497,7 @@
       <c r="E387" s="2"/>
       <c r="H387" s="8"/>
     </row>
-    <row r="388" spans="1:8" ht="15">
+    <row r="388" spans="1:8">
       <c r="A388" s="2"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -4508,7 +4505,7 @@
       <c r="E388" s="2"/>
       <c r="H388" s="8"/>
     </row>
-    <row r="389" spans="1:8" ht="15">
+    <row r="389" spans="1:8">
       <c r="A389" s="2"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -4516,7 +4513,7 @@
       <c r="E389" s="2"/>
       <c r="H389" s="8"/>
     </row>
-    <row r="390" spans="1:8" ht="15">
+    <row r="390" spans="1:8">
       <c r="A390" s="2"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -4524,7 +4521,7 @@
       <c r="E390" s="2"/>
       <c r="H390" s="8"/>
     </row>
-    <row r="391" spans="1:8" ht="15">
+    <row r="391" spans="1:8">
       <c r="A391" s="2"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -4532,7 +4529,7 @@
       <c r="E391" s="2"/>
       <c r="H391" s="8"/>
     </row>
-    <row r="392" spans="1:8" ht="15">
+    <row r="392" spans="1:8">
       <c r="A392" s="2"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -4540,7 +4537,7 @@
       <c r="E392" s="2"/>
       <c r="H392" s="8"/>
     </row>
-    <row r="393" spans="1:8" ht="15">
+    <row r="393" spans="1:8">
       <c r="A393" s="2"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -4548,7 +4545,7 @@
       <c r="E393" s="2"/>
       <c r="H393" s="8"/>
     </row>
-    <row r="394" spans="1:8" ht="15">
+    <row r="394" spans="1:8">
       <c r="A394" s="2"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -4556,7 +4553,7 @@
       <c r="E394" s="2"/>
       <c r="H394" s="8"/>
     </row>
-    <row r="395" spans="1:8" ht="15">
+    <row r="395" spans="1:8">
       <c r="A395" s="2"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -4564,7 +4561,7 @@
       <c r="E395" s="2"/>
       <c r="H395" s="8"/>
     </row>
-    <row r="396" spans="1:8" ht="15">
+    <row r="396" spans="1:8">
       <c r="A396" s="2"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -4572,7 +4569,7 @@
       <c r="E396" s="2"/>
       <c r="H396" s="8"/>
     </row>
-    <row r="397" spans="1:8" ht="15">
+    <row r="397" spans="1:8">
       <c r="A397" s="2"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -4580,7 +4577,7 @@
       <c r="E397" s="2"/>
       <c r="H397" s="8"/>
     </row>
-    <row r="398" spans="1:8" ht="15">
+    <row r="398" spans="1:8">
       <c r="A398" s="2"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -4588,7 +4585,7 @@
       <c r="E398" s="2"/>
       <c r="H398" s="8"/>
     </row>
-    <row r="399" spans="1:8" ht="15">
+    <row r="399" spans="1:8">
       <c r="A399" s="2"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -4596,7 +4593,7 @@
       <c r="E399" s="2"/>
       <c r="H399" s="8"/>
     </row>
-    <row r="400" spans="1:8" ht="15">
+    <row r="400" spans="1:8">
       <c r="A400" s="2"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -4604,7 +4601,7 @@
       <c r="E400" s="2"/>
       <c r="H400" s="8"/>
     </row>
-    <row r="401" spans="1:8" ht="15">
+    <row r="401" spans="1:8">
       <c r="A401" s="2"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -4612,7 +4609,7 @@
       <c r="E401" s="2"/>
       <c r="H401" s="8"/>
     </row>
-    <row r="402" spans="1:8" ht="15">
+    <row r="402" spans="1:8">
       <c r="A402" s="2"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -4620,7 +4617,7 @@
       <c r="E402" s="2"/>
       <c r="H402" s="8"/>
     </row>
-    <row r="403" spans="1:8" ht="15">
+    <row r="403" spans="1:8">
       <c r="A403" s="2"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -4628,7 +4625,7 @@
       <c r="E403" s="2"/>
       <c r="H403" s="8"/>
     </row>
-    <row r="404" spans="1:8" ht="15">
+    <row r="404" spans="1:8">
       <c r="A404" s="2"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -4636,7 +4633,7 @@
       <c r="E404" s="2"/>
       <c r="H404" s="8"/>
     </row>
-    <row r="405" spans="1:8" ht="15">
+    <row r="405" spans="1:8">
       <c r="A405" s="2"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -4644,7 +4641,7 @@
       <c r="E405" s="2"/>
       <c r="H405" s="8"/>
     </row>
-    <row r="406" spans="1:8" ht="15">
+    <row r="406" spans="1:8">
       <c r="A406" s="2"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -4652,7 +4649,7 @@
       <c r="E406" s="2"/>
       <c r="H406" s="8"/>
     </row>
-    <row r="407" spans="1:8" ht="15">
+    <row r="407" spans="1:8">
       <c r="A407" s="2"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -4660,7 +4657,7 @@
       <c r="E407" s="2"/>
       <c r="H407" s="8"/>
     </row>
-    <row r="408" spans="1:8" ht="15">
+    <row r="408" spans="1:8">
       <c r="A408" s="2"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -4668,7 +4665,7 @@
       <c r="E408" s="2"/>
       <c r="H408" s="8"/>
     </row>
-    <row r="409" spans="1:8" ht="15">
+    <row r="409" spans="1:8">
       <c r="A409" s="2"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -4676,7 +4673,7 @@
       <c r="E409" s="2"/>
       <c r="H409" s="8"/>
     </row>
-    <row r="410" spans="1:8" ht="15">
+    <row r="410" spans="1:8">
       <c r="A410" s="2"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -4684,7 +4681,7 @@
       <c r="E410" s="2"/>
       <c r="H410" s="8"/>
     </row>
-    <row r="411" spans="1:8" ht="15">
+    <row r="411" spans="1:8">
       <c r="A411" s="2"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -4692,7 +4689,7 @@
       <c r="E411" s="2"/>
       <c r="H411" s="8"/>
     </row>
-    <row r="412" spans="1:8" ht="15">
+    <row r="412" spans="1:8">
       <c r="A412" s="2"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -4700,7 +4697,7 @@
       <c r="E412" s="2"/>
       <c r="H412" s="8"/>
     </row>
-    <row r="413" spans="1:8" ht="15">
+    <row r="413" spans="1:8">
       <c r="A413" s="2"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -4708,7 +4705,7 @@
       <c r="E413" s="2"/>
       <c r="H413" s="8"/>
     </row>
-    <row r="414" spans="1:8" ht="15">
+    <row r="414" spans="1:8">
       <c r="A414" s="2"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -4716,7 +4713,7 @@
       <c r="E414" s="2"/>
       <c r="H414" s="8"/>
     </row>
-    <row r="415" spans="1:8" ht="15">
+    <row r="415" spans="1:8">
       <c r="A415" s="2"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -4724,7 +4721,7 @@
       <c r="E415" s="2"/>
       <c r="H415" s="8"/>
     </row>
-    <row r="416" spans="1:8" ht="15">
+    <row r="416" spans="1:8">
       <c r="A416" s="2"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -4732,7 +4729,7 @@
       <c r="E416" s="2"/>
       <c r="H416" s="8"/>
     </row>
-    <row r="417" spans="1:8" ht="15">
+    <row r="417" spans="1:8">
       <c r="A417" s="2"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -4740,7 +4737,7 @@
       <c r="E417" s="2"/>
       <c r="H417" s="8"/>
     </row>
-    <row r="418" spans="1:8" ht="15">
+    <row r="418" spans="1:8">
       <c r="A418" s="2"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -4748,7 +4745,7 @@
       <c r="E418" s="2"/>
       <c r="H418" s="8"/>
     </row>
-    <row r="419" spans="1:8" ht="15">
+    <row r="419" spans="1:8">
       <c r="A419" s="2"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -4756,7 +4753,7 @@
       <c r="E419" s="2"/>
       <c r="H419" s="8"/>
     </row>
-    <row r="420" spans="1:8" ht="15">
+    <row r="420" spans="1:8">
       <c r="A420" s="2"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -4764,7 +4761,7 @@
       <c r="E420" s="2"/>
       <c r="H420" s="8"/>
     </row>
-    <row r="421" spans="1:8" ht="15">
+    <row r="421" spans="1:8">
       <c r="A421" s="2"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -4772,7 +4769,7 @@
       <c r="E421" s="2"/>
       <c r="H421" s="8"/>
     </row>
-    <row r="422" spans="1:8" ht="15">
+    <row r="422" spans="1:8">
       <c r="A422" s="2"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -4780,7 +4777,7 @@
       <c r="E422" s="2"/>
       <c r="H422" s="8"/>
     </row>
-    <row r="423" spans="1:8" ht="15">
+    <row r="423" spans="1:8">
       <c r="A423" s="2"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -4788,7 +4785,7 @@
       <c r="E423" s="2"/>
       <c r="H423" s="8"/>
     </row>
-    <row r="424" spans="1:8" ht="15">
+    <row r="424" spans="1:8">
       <c r="A424" s="2"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -4796,7 +4793,7 @@
       <c r="E424" s="2"/>
       <c r="H424" s="8"/>
     </row>
-    <row r="425" spans="1:8" ht="15">
+    <row r="425" spans="1:8">
       <c r="A425" s="2"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -4804,7 +4801,7 @@
       <c r="E425" s="2"/>
       <c r="H425" s="8"/>
     </row>
-    <row r="426" spans="1:8" ht="15">
+    <row r="426" spans="1:8">
       <c r="A426" s="2"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -4812,7 +4809,7 @@
       <c r="E426" s="2"/>
       <c r="H426" s="8"/>
     </row>
-    <row r="427" spans="1:8" ht="15">
+    <row r="427" spans="1:8">
       <c r="A427" s="2"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -4820,7 +4817,7 @@
       <c r="E427" s="2"/>
       <c r="H427" s="8"/>
     </row>
-    <row r="428" spans="1:8" ht="15">
+    <row r="428" spans="1:8">
       <c r="A428" s="2"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -4828,7 +4825,7 @@
       <c r="E428" s="2"/>
       <c r="H428" s="8"/>
     </row>
-    <row r="429" spans="1:8" ht="15">
+    <row r="429" spans="1:8">
       <c r="A429" s="2"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -4836,7 +4833,7 @@
       <c r="E429" s="2"/>
       <c r="H429" s="8"/>
     </row>
-    <row r="430" spans="1:8" ht="15">
+    <row r="430" spans="1:8">
       <c r="A430" s="2"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -4844,7 +4841,7 @@
       <c r="E430" s="2"/>
       <c r="H430" s="8"/>
     </row>
-    <row r="431" spans="1:8" ht="15">
+    <row r="431" spans="1:8">
       <c r="A431" s="2"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -4852,7 +4849,7 @@
       <c r="E431" s="2"/>
       <c r="H431" s="8"/>
     </row>
-    <row r="432" spans="1:8" ht="15">
+    <row r="432" spans="1:8">
       <c r="A432" s="2"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -4860,7 +4857,7 @@
       <c r="E432" s="2"/>
       <c r="H432" s="8"/>
     </row>
-    <row r="433" spans="1:8" ht="15">
+    <row r="433" spans="1:8">
       <c r="A433" s="2"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -4868,7 +4865,7 @@
       <c r="E433" s="2"/>
       <c r="H433" s="8"/>
     </row>
-    <row r="434" spans="1:8" ht="15">
+    <row r="434" spans="1:8">
       <c r="A434" s="2"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -4876,7 +4873,7 @@
       <c r="E434" s="2"/>
       <c r="H434" s="8"/>
     </row>
-    <row r="435" spans="1:8" ht="15">
+    <row r="435" spans="1:8">
       <c r="A435" s="2"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -4884,7 +4881,7 @@
       <c r="E435" s="2"/>
       <c r="H435" s="8"/>
     </row>
-    <row r="436" spans="1:8" ht="15">
+    <row r="436" spans="1:8">
       <c r="A436" s="2"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -4892,7 +4889,7 @@
       <c r="E436" s="2"/>
       <c r="H436" s="8"/>
     </row>
-    <row r="437" spans="1:8" ht="15">
+    <row r="437" spans="1:8">
       <c r="A437" s="2"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -4900,7 +4897,7 @@
       <c r="E437" s="2"/>
       <c r="H437" s="8"/>
     </row>
-    <row r="438" spans="1:8" ht="15">
+    <row r="438" spans="1:8">
       <c r="A438" s="2"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -4908,7 +4905,7 @@
       <c r="E438" s="2"/>
       <c r="H438" s="8"/>
     </row>
-    <row r="439" spans="1:8" ht="15">
+    <row r="439" spans="1:8">
       <c r="A439" s="2"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -4916,7 +4913,7 @@
       <c r="E439" s="2"/>
       <c r="H439" s="8"/>
     </row>
-    <row r="440" spans="1:8" ht="15">
+    <row r="440" spans="1:8">
       <c r="A440" s="2"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -4924,7 +4921,7 @@
       <c r="E440" s="2"/>
       <c r="H440" s="8"/>
     </row>
-    <row r="441" spans="1:8" ht="15">
+    <row r="441" spans="1:8">
       <c r="A441" s="2"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -4932,7 +4929,7 @@
       <c r="E441" s="2"/>
       <c r="H441" s="8"/>
     </row>
-    <row r="442" spans="1:8" ht="15">
+    <row r="442" spans="1:8">
       <c r="A442" s="2"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -4940,7 +4937,7 @@
       <c r="E442" s="2"/>
       <c r="H442" s="8"/>
     </row>
-    <row r="443" spans="1:8" ht="15">
+    <row r="443" spans="1:8">
       <c r="A443" s="2"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -4948,7 +4945,7 @@
       <c r="E443" s="2"/>
       <c r="H443" s="8"/>
     </row>
-    <row r="444" spans="1:8" ht="15">
+    <row r="444" spans="1:8">
       <c r="A444" s="2"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -4956,7 +4953,7 @@
       <c r="E444" s="2"/>
       <c r="H444" s="8"/>
     </row>
-    <row r="445" spans="1:8" ht="15">
+    <row r="445" spans="1:8">
       <c r="A445" s="2"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -4964,7 +4961,7 @@
       <c r="E445" s="2"/>
       <c r="H445" s="8"/>
     </row>
-    <row r="446" spans="1:8" ht="15">
+    <row r="446" spans="1:8">
       <c r="A446" s="2"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -4972,7 +4969,7 @@
       <c r="E446" s="2"/>
       <c r="H446" s="8"/>
     </row>
-    <row r="447" spans="1:8" ht="15">
+    <row r="447" spans="1:8">
       <c r="A447" s="2"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -4980,7 +4977,7 @@
       <c r="E447" s="2"/>
       <c r="H447" s="8"/>
     </row>
-    <row r="448" spans="1:8" ht="15">
+    <row r="448" spans="1:8">
       <c r="A448" s="2"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -4988,7 +4985,7 @@
       <c r="E448" s="2"/>
       <c r="H448" s="8"/>
     </row>
-    <row r="449" spans="1:8" ht="15">
+    <row r="449" spans="1:8">
       <c r="A449" s="2"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -4996,7 +4993,7 @@
       <c r="E449" s="2"/>
       <c r="H449" s="8"/>
     </row>
-    <row r="450" spans="1:8" ht="15">
+    <row r="450" spans="1:8">
       <c r="A450" s="2"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -5004,7 +5001,7 @@
       <c r="E450" s="2"/>
       <c r="H450" s="8"/>
     </row>
-    <row r="451" spans="1:8" ht="15">
+    <row r="451" spans="1:8">
       <c r="A451" s="2"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -5012,7 +5009,7 @@
       <c r="E451" s="2"/>
       <c r="H451" s="8"/>
     </row>
-    <row r="452" spans="1:8" ht="15">
+    <row r="452" spans="1:8">
       <c r="A452" s="2"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -5020,7 +5017,7 @@
       <c r="E452" s="2"/>
       <c r="H452" s="8"/>
     </row>
-    <row r="453" spans="1:8" ht="15">
+    <row r="453" spans="1:8">
       <c r="A453" s="2"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -5028,7 +5025,7 @@
       <c r="E453" s="2"/>
       <c r="H453" s="8"/>
     </row>
-    <row r="454" spans="1:8" ht="15">
+    <row r="454" spans="1:8">
       <c r="A454" s="2"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -5036,7 +5033,7 @@
       <c r="E454" s="2"/>
       <c r="H454" s="8"/>
     </row>
-    <row r="455" spans="1:8" ht="15">
+    <row r="455" spans="1:8">
       <c r="A455" s="2"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -5044,7 +5041,7 @@
       <c r="E455" s="2"/>
       <c r="H455" s="8"/>
     </row>
-    <row r="456" spans="1:8" ht="15">
+    <row r="456" spans="1:8">
       <c r="A456" s="2"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -5052,7 +5049,7 @@
       <c r="E456" s="2"/>
       <c r="H456" s="8"/>
     </row>
-    <row r="457" spans="1:8" ht="15">
+    <row r="457" spans="1:8">
       <c r="A457" s="2"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -5060,7 +5057,7 @@
       <c r="E457" s="2"/>
       <c r="H457" s="8"/>
     </row>
-    <row r="458" spans="1:8" ht="15">
+    <row r="458" spans="1:8">
       <c r="A458" s="2"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -5068,7 +5065,7 @@
       <c r="E458" s="2"/>
       <c r="H458" s="8"/>
     </row>
-    <row r="459" spans="1:8" ht="15">
+    <row r="459" spans="1:8">
       <c r="A459" s="2"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -5076,7 +5073,7 @@
       <c r="E459" s="2"/>
       <c r="H459" s="8"/>
     </row>
-    <row r="460" spans="1:8" ht="15">
+    <row r="460" spans="1:8">
       <c r="A460" s="2"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -5084,7 +5081,7 @@
       <c r="E460" s="2"/>
       <c r="H460" s="8"/>
     </row>
-    <row r="461" spans="1:8" ht="15">
+    <row r="461" spans="1:8">
       <c r="A461" s="2"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -5092,7 +5089,7 @@
       <c r="E461" s="2"/>
       <c r="H461" s="8"/>
     </row>
-    <row r="462" spans="1:8" ht="15">
+    <row r="462" spans="1:8">
       <c r="A462" s="2"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -5100,7 +5097,7 @@
       <c r="E462" s="2"/>
       <c r="H462" s="8"/>
     </row>
-    <row r="463" spans="1:8" ht="15">
+    <row r="463" spans="1:8">
       <c r="A463" s="2"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -5108,7 +5105,7 @@
       <c r="E463" s="2"/>
       <c r="H463" s="8"/>
     </row>
-    <row r="464" spans="1:8" ht="15">
+    <row r="464" spans="1:8">
       <c r="A464" s="2"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -5116,7 +5113,7 @@
       <c r="E464" s="2"/>
       <c r="H464" s="8"/>
     </row>
-    <row r="465" spans="1:8" ht="15">
+    <row r="465" spans="1:8">
       <c r="A465" s="2"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -5124,7 +5121,7 @@
       <c r="E465" s="2"/>
       <c r="H465" s="8"/>
     </row>
-    <row r="466" spans="1:8" ht="15">
+    <row r="466" spans="1:8">
       <c r="A466" s="2"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -5132,7 +5129,7 @@
       <c r="E466" s="2"/>
       <c r="H466" s="8"/>
     </row>
-    <row r="467" spans="1:8" ht="15">
+    <row r="467" spans="1:8">
       <c r="A467" s="2"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -5140,7 +5137,7 @@
       <c r="E467" s="2"/>
       <c r="H467" s="8"/>
     </row>
-    <row r="468" spans="1:8" ht="15">
+    <row r="468" spans="1:8">
       <c r="A468" s="2"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -5148,7 +5145,7 @@
       <c r="E468" s="2"/>
       <c r="H468" s="8"/>
     </row>
-    <row r="469" spans="1:8" ht="15">
+    <row r="469" spans="1:8">
       <c r="A469" s="2"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -5156,7 +5153,7 @@
       <c r="E469" s="2"/>
       <c r="H469" s="8"/>
     </row>
-    <row r="470" spans="1:8" ht="15">
+    <row r="470" spans="1:8">
       <c r="A470" s="2"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -5164,7 +5161,7 @@
       <c r="E470" s="2"/>
       <c r="H470" s="8"/>
     </row>
-    <row r="471" spans="1:8" ht="15">
+    <row r="471" spans="1:8">
       <c r="A471" s="2"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -5172,7 +5169,7 @@
       <c r="E471" s="2"/>
       <c r="H471" s="8"/>
     </row>
-    <row r="472" spans="1:8" ht="15">
+    <row r="472" spans="1:8">
       <c r="A472" s="2"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -5180,7 +5177,7 @@
       <c r="E472" s="2"/>
       <c r="H472" s="8"/>
     </row>
-    <row r="473" spans="1:8" ht="15">
+    <row r="473" spans="1:8">
       <c r="A473" s="2"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -5188,7 +5185,7 @@
       <c r="E473" s="2"/>
       <c r="H473" s="8"/>
     </row>
-    <row r="474" spans="1:8" ht="15">
+    <row r="474" spans="1:8">
       <c r="A474" s="2"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -5196,7 +5193,7 @@
       <c r="E474" s="2"/>
       <c r="H474" s="8"/>
     </row>
-    <row r="475" spans="1:8" ht="15">
+    <row r="475" spans="1:8">
       <c r="A475" s="2"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -5204,7 +5201,7 @@
       <c r="E475" s="2"/>
       <c r="H475" s="8"/>
     </row>
-    <row r="476" spans="1:8" ht="15">
+    <row r="476" spans="1:8">
       <c r="A476" s="2"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -5212,7 +5209,7 @@
       <c r="E476" s="2"/>
       <c r="H476" s="8"/>
     </row>
-    <row r="477" spans="1:8" ht="15">
+    <row r="477" spans="1:8">
       <c r="A477" s="2"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -5220,7 +5217,7 @@
       <c r="E477" s="2"/>
       <c r="H477" s="8"/>
     </row>
-    <row r="478" spans="1:8" ht="15">
+    <row r="478" spans="1:8">
       <c r="A478" s="2"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -5228,7 +5225,7 @@
       <c r="E478" s="2"/>
       <c r="H478" s="8"/>
     </row>
-    <row r="479" spans="1:8" ht="15">
+    <row r="479" spans="1:8">
       <c r="A479" s="2"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -5236,7 +5233,7 @@
       <c r="E479" s="2"/>
       <c r="H479" s="8"/>
     </row>
-    <row r="480" spans="1:8" ht="15">
+    <row r="480" spans="1:8">
       <c r="A480" s="2"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -5244,7 +5241,7 @@
       <c r="E480" s="2"/>
       <c r="H480" s="8"/>
     </row>
-    <row r="481" spans="1:8" ht="15">
+    <row r="481" spans="1:8">
       <c r="A481" s="2"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -5252,7 +5249,7 @@
       <c r="E481" s="2"/>
       <c r="H481" s="8"/>
     </row>
-    <row r="482" spans="1:8" ht="15">
+    <row r="482" spans="1:8">
       <c r="A482" s="2"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -5260,7 +5257,7 @@
       <c r="E482" s="2"/>
       <c r="H482" s="8"/>
     </row>
-    <row r="483" spans="1:8" ht="15">
+    <row r="483" spans="1:8">
       <c r="A483" s="2"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -5268,7 +5265,7 @@
       <c r="E483" s="2"/>
       <c r="H483" s="8"/>
     </row>
-    <row r="484" spans="1:8" ht="15">
+    <row r="484" spans="1:8">
       <c r="A484" s="2"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -5276,7 +5273,7 @@
       <c r="E484" s="2"/>
       <c r="H484" s="8"/>
     </row>
-    <row r="485" spans="1:8" ht="15">
+    <row r="485" spans="1:8">
       <c r="A485" s="2"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -5284,7 +5281,7 @@
       <c r="E485" s="2"/>
       <c r="H485" s="8"/>
     </row>
-    <row r="486" spans="1:8" ht="15">
+    <row r="486" spans="1:8">
       <c r="A486" s="2"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -5292,7 +5289,7 @@
       <c r="E486" s="2"/>
       <c r="H486" s="8"/>
     </row>
-    <row r="487" spans="1:8" ht="15">
+    <row r="487" spans="1:8">
       <c r="A487" s="2"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -5300,7 +5297,7 @@
       <c r="E487" s="2"/>
       <c r="H487" s="8"/>
     </row>
-    <row r="488" spans="1:8" ht="15">
+    <row r="488" spans="1:8">
       <c r="A488" s="2"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -5308,7 +5305,7 @@
       <c r="E488" s="2"/>
       <c r="H488" s="8"/>
     </row>
-    <row r="489" spans="1:8" ht="15">
+    <row r="489" spans="1:8">
       <c r="A489" s="2"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -5316,7 +5313,7 @@
       <c r="E489" s="2"/>
       <c r="H489" s="8"/>
     </row>
-    <row r="490" spans="1:8" ht="15">
+    <row r="490" spans="1:8">
       <c r="A490" s="2"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -5324,7 +5321,7 @@
       <c r="E490" s="2"/>
       <c r="H490" s="8"/>
     </row>
-    <row r="491" spans="1:8" ht="15">
+    <row r="491" spans="1:8">
       <c r="A491" s="2"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -5332,7 +5329,7 @@
       <c r="E491" s="2"/>
       <c r="H491" s="8"/>
     </row>
-    <row r="492" spans="1:8" ht="15">
+    <row r="492" spans="1:8">
       <c r="A492" s="2"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -5340,7 +5337,7 @@
       <c r="E492" s="2"/>
       <c r="H492" s="8"/>
     </row>
-    <row r="493" spans="1:8" ht="15">
+    <row r="493" spans="1:8">
       <c r="A493" s="2"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -5348,7 +5345,7 @@
       <c r="E493" s="2"/>
       <c r="H493" s="8"/>
     </row>
-    <row r="494" spans="1:8" ht="15">
+    <row r="494" spans="1:8">
       <c r="A494" s="2"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -5356,7 +5353,7 @@
       <c r="E494" s="2"/>
       <c r="H494" s="8"/>
     </row>
-    <row r="495" spans="1:8" ht="15">
+    <row r="495" spans="1:8">
       <c r="A495" s="2"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -5364,7 +5361,7 @@
       <c r="E495" s="2"/>
       <c r="H495" s="8"/>
     </row>
-    <row r="496" spans="1:8" ht="15">
+    <row r="496" spans="1:8">
       <c r="A496" s="2"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -5372,7 +5369,7 @@
       <c r="E496" s="2"/>
       <c r="H496" s="8"/>
     </row>
-    <row r="497" spans="1:8" ht="15">
+    <row r="497" spans="1:8">
       <c r="A497" s="2"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -5380,7 +5377,7 @@
       <c r="E497" s="2"/>
       <c r="H497" s="8"/>
     </row>
-    <row r="498" spans="1:8" ht="15">
+    <row r="498" spans="1:8">
       <c r="A498" s="2"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -5388,7 +5385,7 @@
       <c r="E498" s="2"/>
       <c r="H498" s="8"/>
     </row>
-    <row r="499" spans="1:8" ht="15">
+    <row r="499" spans="1:8">
       <c r="A499" s="2"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -5396,7 +5393,7 @@
       <c r="E499" s="2"/>
       <c r="H499" s="8"/>
     </row>
-    <row r="500" spans="1:8" ht="15">
+    <row r="500" spans="1:8">
       <c r="A500" s="2"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -5404,7 +5401,7 @@
       <c r="E500" s="2"/>
       <c r="H500" s="8"/>
     </row>
-    <row r="501" spans="1:8" ht="15">
+    <row r="501" spans="1:8">
       <c r="A501" s="2"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -5412,7 +5409,7 @@
       <c r="E501" s="2"/>
       <c r="H501" s="8"/>
     </row>
-    <row r="502" spans="1:8" ht="15">
+    <row r="502" spans="1:8">
       <c r="A502" s="2"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -5420,7 +5417,7 @@
       <c r="E502" s="2"/>
       <c r="H502" s="8"/>
     </row>
-    <row r="503" spans="1:8" ht="15">
+    <row r="503" spans="1:8">
       <c r="A503" s="2"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -5428,7 +5425,7 @@
       <c r="E503" s="2"/>
       <c r="H503" s="8"/>
     </row>
-    <row r="504" spans="1:8" ht="15">
+    <row r="504" spans="1:8">
       <c r="A504" s="2"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -5436,7 +5433,7 @@
       <c r="E504" s="2"/>
       <c r="H504" s="8"/>
     </row>
-    <row r="505" spans="1:8" ht="15">
+    <row r="505" spans="1:8">
       <c r="A505" s="2"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -5444,7 +5441,7 @@
       <c r="E505" s="2"/>
       <c r="H505" s="8"/>
     </row>
-    <row r="506" spans="1:8" ht="15">
+    <row r="506" spans="1:8">
       <c r="A506" s="2"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -5452,7 +5449,7 @@
       <c r="E506" s="2"/>
       <c r="H506" s="8"/>
     </row>
-    <row r="507" spans="1:8" ht="15">
+    <row r="507" spans="1:8">
       <c r="A507" s="2"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -5460,7 +5457,7 @@
       <c r="E507" s="2"/>
       <c r="H507" s="8"/>
     </row>
-    <row r="508" spans="1:8" ht="15">
+    <row r="508" spans="1:8">
       <c r="A508" s="2"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -5468,7 +5465,7 @@
       <c r="E508" s="2"/>
       <c r="H508" s="8"/>
     </row>
-    <row r="509" spans="1:8" ht="15">
+    <row r="509" spans="1:8">
       <c r="A509" s="2"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -5476,7 +5473,7 @@
       <c r="E509" s="2"/>
       <c r="H509" s="8"/>
     </row>
-    <row r="510" spans="1:8" ht="15">
+    <row r="510" spans="1:8">
       <c r="A510" s="2"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -5484,7 +5481,7 @@
       <c r="E510" s="2"/>
       <c r="H510" s="8"/>
     </row>
-    <row r="511" spans="1:8" ht="15">
+    <row r="511" spans="1:8">
       <c r="A511" s="2"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -5492,7 +5489,7 @@
       <c r="E511" s="2"/>
       <c r="H511" s="8"/>
     </row>
-    <row r="512" spans="1:8" ht="15">
+    <row r="512" spans="1:8">
       <c r="A512" s="2"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -5500,7 +5497,7 @@
       <c r="E512" s="2"/>
       <c r="H512" s="8"/>
     </row>
-    <row r="513" spans="1:8" ht="15">
+    <row r="513" spans="1:8">
       <c r="A513" s="2"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -5508,7 +5505,7 @@
       <c r="E513" s="2"/>
       <c r="H513" s="8"/>
     </row>
-    <row r="514" spans="1:8" ht="15">
+    <row r="514" spans="1:8">
       <c r="A514" s="2"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -5516,7 +5513,7 @@
       <c r="E514" s="2"/>
       <c r="H514" s="8"/>
     </row>
-    <row r="515" spans="1:8" ht="15">
+    <row r="515" spans="1:8">
       <c r="A515" s="2"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -5524,7 +5521,7 @@
       <c r="E515" s="2"/>
       <c r="H515" s="8"/>
     </row>
-    <row r="516" spans="1:8" ht="15">
+    <row r="516" spans="1:8">
       <c r="A516" s="2"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -5532,7 +5529,7 @@
       <c r="E516" s="2"/>
       <c r="H516" s="8"/>
     </row>
-    <row r="517" spans="1:8" ht="15">
+    <row r="517" spans="1:8">
       <c r="A517" s="2"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -5540,7 +5537,7 @@
       <c r="E517" s="2"/>
       <c r="H517" s="8"/>
     </row>
-    <row r="518" spans="1:8" ht="15">
+    <row r="518" spans="1:8">
       <c r="A518" s="2"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -5548,7 +5545,7 @@
       <c r="E518" s="2"/>
       <c r="H518" s="8"/>
     </row>
-    <row r="519" spans="1:8" ht="15">
+    <row r="519" spans="1:8">
       <c r="A519" s="2"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -5556,7 +5553,7 @@
       <c r="E519" s="2"/>
       <c r="H519" s="8"/>
     </row>
-    <row r="520" spans="1:8" ht="15">
+    <row r="520" spans="1:8">
       <c r="A520" s="2"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -5564,7 +5561,7 @@
       <c r="E520" s="2"/>
       <c r="H520" s="8"/>
     </row>
-    <row r="521" spans="1:8" ht="15">
+    <row r="521" spans="1:8">
       <c r="A521" s="2"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -5572,7 +5569,7 @@
       <c r="E521" s="2"/>
       <c r="H521" s="8"/>
     </row>
-    <row r="522" spans="1:8" ht="15">
+    <row r="522" spans="1:8">
       <c r="A522" s="2"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -5580,7 +5577,7 @@
       <c r="E522" s="2"/>
       <c r="H522" s="8"/>
     </row>
-    <row r="523" spans="1:8" ht="15">
+    <row r="523" spans="1:8">
       <c r="A523" s="2"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -5588,7 +5585,7 @@
       <c r="E523" s="2"/>
       <c r="H523" s="8"/>
     </row>
-    <row r="524" spans="1:8" ht="15">
+    <row r="524" spans="1:8">
       <c r="A524" s="2"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -5596,7 +5593,7 @@
       <c r="E524" s="2"/>
       <c r="H524" s="8"/>
     </row>
-    <row r="525" spans="1:8" ht="15">
+    <row r="525" spans="1:8">
       <c r="A525" s="2"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -5604,7 +5601,7 @@
       <c r="E525" s="2"/>
       <c r="H525" s="8"/>
     </row>
-    <row r="526" spans="1:8" ht="15">
+    <row r="526" spans="1:8">
       <c r="A526" s="2"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -5612,7 +5609,7 @@
       <c r="E526" s="2"/>
       <c r="H526" s="8"/>
     </row>
-    <row r="527" spans="1:8" ht="15">
+    <row r="527" spans="1:8">
       <c r="A527" s="2"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -5620,7 +5617,7 @@
       <c r="E527" s="2"/>
       <c r="H527" s="8"/>
     </row>
-    <row r="528" spans="1:8" ht="15">
+    <row r="528" spans="1:8">
       <c r="A528" s="2"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -5628,7 +5625,7 @@
       <c r="E528" s="2"/>
       <c r="H528" s="8"/>
     </row>
-    <row r="529" spans="1:8" ht="15">
+    <row r="529" spans="1:8">
       <c r="A529" s="2"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -5636,7 +5633,7 @@
       <c r="E529" s="2"/>
       <c r="H529" s="8"/>
     </row>
-    <row r="530" spans="1:8" ht="15">
+    <row r="530" spans="1:8">
       <c r="A530" s="2"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -5644,7 +5641,7 @@
       <c r="E530" s="2"/>
       <c r="H530" s="8"/>
     </row>
-    <row r="531" spans="1:8" ht="15">
+    <row r="531" spans="1:8">
       <c r="A531" s="2"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -5652,7 +5649,7 @@
       <c r="E531" s="2"/>
       <c r="H531" s="8"/>
     </row>
-    <row r="532" spans="1:8" ht="15">
+    <row r="532" spans="1:8">
       <c r="A532" s="2"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -5660,7 +5657,7 @@
       <c r="E532" s="2"/>
       <c r="H532" s="8"/>
     </row>
-    <row r="533" spans="1:8" ht="15">
+    <row r="533" spans="1:8">
       <c r="A533" s="2"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -5668,7 +5665,7 @@
       <c r="E533" s="2"/>
       <c r="H533" s="8"/>
     </row>
-    <row r="534" spans="1:8" ht="15">
+    <row r="534" spans="1:8">
       <c r="A534" s="2"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -5676,7 +5673,7 @@
       <c r="E534" s="2"/>
       <c r="H534" s="8"/>
     </row>
-    <row r="535" spans="1:8" ht="15">
+    <row r="535" spans="1:8">
       <c r="A535" s="2"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -5684,7 +5681,7 @@
       <c r="E535" s="2"/>
       <c r="H535" s="8"/>
     </row>
-    <row r="536" spans="1:8" ht="15">
+    <row r="536" spans="1:8">
       <c r="A536" s="2"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -5692,7 +5689,7 @@
       <c r="E536" s="2"/>
       <c r="H536" s="8"/>
     </row>
-    <row r="537" spans="1:8" ht="15">
+    <row r="537" spans="1:8">
       <c r="A537" s="2"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -5700,7 +5697,7 @@
       <c r="E537" s="2"/>
       <c r="H537" s="8"/>
     </row>
-    <row r="538" spans="1:8" ht="15">
+    <row r="538" spans="1:8">
       <c r="A538" s="2"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -5708,7 +5705,7 @@
       <c r="E538" s="2"/>
       <c r="H538" s="8"/>
     </row>
-    <row r="539" spans="1:8" ht="15">
+    <row r="539" spans="1:8">
       <c r="A539" s="2"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -5716,7 +5713,7 @@
       <c r="E539" s="2"/>
       <c r="H539" s="8"/>
     </row>
-    <row r="540" spans="1:8" ht="15">
+    <row r="540" spans="1:8">
       <c r="A540" s="2"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -5724,7 +5721,7 @@
       <c r="E540" s="2"/>
       <c r="H540" s="8"/>
     </row>
-    <row r="541" spans="1:8" ht="15">
+    <row r="541" spans="1:8">
       <c r="A541" s="2"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -5732,7 +5729,7 @@
       <c r="E541" s="2"/>
       <c r="H541" s="8"/>
     </row>
-    <row r="542" spans="1:8" ht="15">
+    <row r="542" spans="1:8">
       <c r="A542" s="2"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -5740,7 +5737,7 @@
       <c r="E542" s="2"/>
       <c r="H542" s="8"/>
     </row>
-    <row r="543" spans="1:8" ht="15">
+    <row r="543" spans="1:8">
       <c r="A543" s="2"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -5748,7 +5745,7 @@
       <c r="E543" s="2"/>
       <c r="H543" s="8"/>
     </row>
-    <row r="544" spans="1:8" ht="15">
+    <row r="544" spans="1:8">
       <c r="A544" s="2"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -5756,7 +5753,7 @@
       <c r="E544" s="2"/>
       <c r="H544" s="8"/>
     </row>
-    <row r="545" spans="1:8" ht="15">
+    <row r="545" spans="1:8">
       <c r="A545" s="2"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -5764,7 +5761,7 @@
       <c r="E545" s="2"/>
       <c r="H545" s="8"/>
     </row>
-    <row r="546" spans="1:8" ht="15">
+    <row r="546" spans="1:8">
       <c r="A546" s="2"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -5772,7 +5769,7 @@
       <c r="E546" s="2"/>
       <c r="H546" s="8"/>
     </row>
-    <row r="547" spans="1:8" ht="15">
+    <row r="547" spans="1:8">
       <c r="A547" s="2"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -5780,7 +5777,7 @@
       <c r="E547" s="2"/>
       <c r="H547" s="8"/>
     </row>
-    <row r="548" spans="1:8" ht="15">
+    <row r="548" spans="1:8">
       <c r="A548" s="2"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -5788,7 +5785,7 @@
       <c r="E548" s="2"/>
       <c r="H548" s="8"/>
     </row>
-    <row r="549" spans="1:8" ht="15">
+    <row r="549" spans="1:8">
       <c r="A549" s="2"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -5796,7 +5793,7 @@
       <c r="E549" s="2"/>
       <c r="H549" s="8"/>
     </row>
-    <row r="550" spans="1:8" ht="15">
+    <row r="550" spans="1:8">
       <c r="A550" s="2"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -5804,7 +5801,7 @@
       <c r="E550" s="2"/>
       <c r="H550" s="8"/>
     </row>
-    <row r="551" spans="1:8" ht="15">
+    <row r="551" spans="1:8">
       <c r="A551" s="2"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -5812,7 +5809,7 @@
       <c r="E551" s="2"/>
       <c r="H551" s="8"/>
     </row>
-    <row r="552" spans="1:8" ht="15">
+    <row r="552" spans="1:8">
       <c r="A552" s="2"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -5820,7 +5817,7 @@
       <c r="E552" s="2"/>
       <c r="H552" s="8"/>
     </row>
-    <row r="553" spans="1:8" ht="15">
+    <row r="553" spans="1:8">
       <c r="A553" s="2"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -5828,7 +5825,7 @@
       <c r="E553" s="2"/>
       <c r="H553" s="8"/>
     </row>
-    <row r="554" spans="1:8" ht="15">
+    <row r="554" spans="1:8">
       <c r="A554" s="2"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -5836,7 +5833,7 @@
       <c r="E554" s="2"/>
       <c r="H554" s="8"/>
     </row>
-    <row r="555" spans="1:8" ht="15">
+    <row r="555" spans="1:8">
       <c r="A555" s="2"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -5844,7 +5841,7 @@
       <c r="E555" s="2"/>
       <c r="H555" s="8"/>
     </row>
-    <row r="556" spans="1:8" ht="15">
+    <row r="556" spans="1:8">
       <c r="A556" s="2"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -5852,7 +5849,7 @@
       <c r="E556" s="2"/>
       <c r="H556" s="8"/>
     </row>
-    <row r="557" spans="1:8" ht="15">
+    <row r="557" spans="1:8">
       <c r="A557" s="2"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -5860,7 +5857,7 @@
       <c r="E557" s="2"/>
       <c r="H557" s="8"/>
     </row>
-    <row r="558" spans="1:8" ht="15">
+    <row r="558" spans="1:8">
       <c r="A558" s="2"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -5868,7 +5865,7 @@
       <c r="E558" s="2"/>
       <c r="H558" s="8"/>
     </row>
-    <row r="559" spans="1:8" ht="15">
+    <row r="559" spans="1:8">
       <c r="A559" s="2"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -5876,7 +5873,7 @@
       <c r="E559" s="2"/>
       <c r="H559" s="8"/>
     </row>
-    <row r="560" spans="1:8" ht="15">
+    <row r="560" spans="1:8">
       <c r="A560" s="2"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -5884,7 +5881,7 @@
       <c r="E560" s="2"/>
       <c r="H560" s="8"/>
     </row>
-    <row r="561" spans="1:8" ht="15">
+    <row r="561" spans="1:8">
       <c r="A561" s="2"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -5892,7 +5889,7 @@
       <c r="E561" s="2"/>
       <c r="H561" s="8"/>
     </row>
-    <row r="562" spans="1:8" ht="15">
+    <row r="562" spans="1:8">
       <c r="A562" s="2"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -5900,7 +5897,7 @@
       <c r="E562" s="2"/>
       <c r="H562" s="8"/>
     </row>
-    <row r="563" spans="1:8" ht="15">
+    <row r="563" spans="1:8">
       <c r="A563" s="2"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -5908,7 +5905,7 @@
       <c r="E563" s="2"/>
       <c r="H563" s="8"/>
     </row>
-    <row r="564" spans="1:8" ht="15">
+    <row r="564" spans="1:8">
       <c r="A564" s="2"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -5916,7 +5913,7 @@
       <c r="E564" s="2"/>
       <c r="H564" s="8"/>
     </row>
-    <row r="565" spans="1:8" ht="15">
+    <row r="565" spans="1:8">
       <c r="A565" s="2"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -5924,7 +5921,7 @@
       <c r="E565" s="2"/>
       <c r="H565" s="8"/>
     </row>
-    <row r="566" spans="1:8" ht="15">
+    <row r="566" spans="1:8">
       <c r="A566" s="2"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -5932,7 +5929,7 @@
       <c r="E566" s="2"/>
       <c r="H566" s="8"/>
     </row>
-    <row r="567" spans="1:8" ht="15">
+    <row r="567" spans="1:8">
       <c r="A567" s="2"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -5940,7 +5937,7 @@
       <c r="E567" s="2"/>
       <c r="H567" s="8"/>
     </row>
-    <row r="568" spans="1:8" ht="15">
+    <row r="568" spans="1:8">
       <c r="A568" s="2"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -5948,7 +5945,7 @@
       <c r="E568" s="2"/>
       <c r="H568" s="8"/>
     </row>
-    <row r="569" spans="1:8" ht="15">
+    <row r="569" spans="1:8">
       <c r="A569" s="2"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -5956,7 +5953,7 @@
       <c r="E569" s="2"/>
       <c r="H569" s="8"/>
     </row>
-    <row r="570" spans="1:8" ht="15">
+    <row r="570" spans="1:8">
       <c r="A570" s="2"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -5964,7 +5961,7 @@
       <c r="E570" s="2"/>
       <c r="H570" s="8"/>
     </row>
-    <row r="571" spans="1:8" ht="15">
+    <row r="571" spans="1:8">
       <c r="A571" s="2"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -5972,7 +5969,7 @@
       <c r="E571" s="2"/>
       <c r="H571" s="8"/>
     </row>
-    <row r="572" spans="1:8" ht="15">
+    <row r="572" spans="1:8">
       <c r="A572" s="2"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -5980,7 +5977,7 @@
       <c r="E572" s="2"/>
       <c r="H572" s="8"/>
     </row>
-    <row r="573" spans="1:8" ht="15">
+    <row r="573" spans="1:8">
       <c r="A573" s="2"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -5988,7 +5985,7 @@
       <c r="E573" s="2"/>
       <c r="H573" s="8"/>
     </row>
-    <row r="574" spans="1:8" ht="15">
+    <row r="574" spans="1:8">
       <c r="A574" s="2"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -5996,7 +5993,7 @@
       <c r="E574" s="2"/>
       <c r="H574" s="8"/>
     </row>
-    <row r="575" spans="1:8" ht="15">
+    <row r="575" spans="1:8">
       <c r="A575" s="2"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -6004,7 +6001,7 @@
       <c r="E575" s="2"/>
       <c r="H575" s="8"/>
     </row>
-    <row r="576" spans="1:8" ht="15">
+    <row r="576" spans="1:8">
       <c r="A576" s="2"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -6012,7 +6009,7 @@
       <c r="E576" s="2"/>
       <c r="H576" s="8"/>
     </row>
-    <row r="577" spans="1:8" ht="15">
+    <row r="577" spans="1:8">
       <c r="A577" s="2"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -6020,7 +6017,7 @@
       <c r="E577" s="2"/>
       <c r="H577" s="8"/>
     </row>
-    <row r="578" spans="1:8" ht="15">
+    <row r="578" spans="1:8">
       <c r="A578" s="2"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -6028,7 +6025,7 @@
       <c r="E578" s="2"/>
       <c r="H578" s="8"/>
     </row>
-    <row r="579" spans="1:8" ht="15">
+    <row r="579" spans="1:8">
       <c r="A579" s="2"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -6036,7 +6033,7 @@
       <c r="E579" s="2"/>
       <c r="H579" s="8"/>
     </row>
-    <row r="580" spans="1:8" ht="15">
+    <row r="580" spans="1:8">
       <c r="A580" s="2"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -6044,7 +6041,7 @@
       <c r="E580" s="2"/>
       <c r="H580" s="8"/>
     </row>
-    <row r="581" spans="1:8" ht="15">
+    <row r="581" spans="1:8">
       <c r="A581" s="2"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -6052,7 +6049,7 @@
       <c r="E581" s="2"/>
       <c r="H581" s="8"/>
     </row>
-    <row r="582" spans="1:8" ht="15">
+    <row r="582" spans="1:8">
       <c r="A582" s="2"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -6060,7 +6057,7 @@
       <c r="E582" s="2"/>
       <c r="H582" s="8"/>
     </row>
-    <row r="583" spans="1:8" ht="15">
+    <row r="583" spans="1:8">
       <c r="A583" s="2"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -6068,7 +6065,7 @@
       <c r="E583" s="2"/>
       <c r="H583" s="8"/>
     </row>
-    <row r="584" spans="1:8" ht="15">
+    <row r="584" spans="1:8">
       <c r="A584" s="2"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -6076,7 +6073,7 @@
       <c r="E584" s="2"/>
       <c r="H584" s="8"/>
     </row>
-    <row r="585" spans="1:8" ht="15">
+    <row r="585" spans="1:8">
       <c r="A585" s="2"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -6084,7 +6081,7 @@
       <c r="E585" s="2"/>
       <c r="H585" s="8"/>
     </row>
-    <row r="586" spans="1:8" ht="15">
+    <row r="586" spans="1:8">
       <c r="A586" s="2"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -6092,7 +6089,7 @@
       <c r="E586" s="2"/>
       <c r="H586" s="8"/>
     </row>
-    <row r="587" spans="1:8" ht="15">
+    <row r="587" spans="1:8">
       <c r="A587" s="2"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -6100,7 +6097,7 @@
       <c r="E587" s="2"/>
       <c r="H587" s="8"/>
     </row>
-    <row r="588" spans="1:8" ht="15">
+    <row r="588" spans="1:8">
       <c r="A588" s="2"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -6108,7 +6105,7 @@
       <c r="E588" s="2"/>
       <c r="H588" s="8"/>
     </row>
-    <row r="589" spans="1:8" ht="15">
+    <row r="589" spans="1:8">
       <c r="A589" s="2"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -6116,7 +6113,7 @@
       <c r="E589" s="2"/>
       <c r="H589" s="8"/>
     </row>
-    <row r="590" spans="1:8" ht="15">
+    <row r="590" spans="1:8">
       <c r="A590" s="2"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -6124,7 +6121,7 @@
       <c r="E590" s="2"/>
       <c r="H590" s="8"/>
     </row>
-    <row r="591" spans="1:8" ht="15">
+    <row r="591" spans="1:8">
       <c r="A591" s="2"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -6132,7 +6129,7 @@
       <c r="E591" s="2"/>
       <c r="H591" s="8"/>
     </row>
-    <row r="592" spans="1:8" ht="15">
+    <row r="592" spans="1:8">
       <c r="A592" s="2"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -6140,7 +6137,7 @@
       <c r="E592" s="2"/>
       <c r="H592" s="8"/>
     </row>
-    <row r="593" spans="1:8" ht="15">
+    <row r="593" spans="1:8">
       <c r="A593" s="2"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -6148,7 +6145,7 @@
       <c r="E593" s="2"/>
       <c r="H593" s="8"/>
     </row>
-    <row r="594" spans="1:8" ht="15">
+    <row r="594" spans="1:8">
       <c r="A594" s="2"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -6156,7 +6153,7 @@
       <c r="E594" s="2"/>
       <c r="H594" s="8"/>
     </row>
-    <row r="595" spans="1:8" ht="15">
+    <row r="595" spans="1:8">
       <c r="A595" s="2"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -6164,7 +6161,7 @@
       <c r="E595" s="2"/>
       <c r="H595" s="8"/>
     </row>
-    <row r="596" spans="1:8" ht="15">
+    <row r="596" spans="1:8">
       <c r="A596" s="2"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -6172,7 +6169,7 @@
       <c r="E596" s="2"/>
       <c r="H596" s="8"/>
     </row>
-    <row r="597" spans="1:8" ht="15">
+    <row r="597" spans="1:8">
       <c r="A597" s="2"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -6180,7 +6177,7 @@
       <c r="E597" s="2"/>
       <c r="H597" s="8"/>
     </row>
-    <row r="598" spans="1:8" ht="15">
+    <row r="598" spans="1:8">
       <c r="A598" s="2"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -6188,7 +6185,7 @@
       <c r="E598" s="2"/>
       <c r="H598" s="8"/>
     </row>
-    <row r="599" spans="1:8" ht="15">
+    <row r="599" spans="1:8">
       <c r="A599" s="2"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -6196,7 +6193,7 @@
       <c r="E599" s="2"/>
       <c r="H599" s="8"/>
     </row>
-    <row r="600" spans="1:8" ht="15">
+    <row r="600" spans="1:8">
       <c r="A600" s="2"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -6204,7 +6201,7 @@
       <c r="E600" s="2"/>
       <c r="H600" s="8"/>
     </row>
-    <row r="601" spans="1:8" ht="15">
+    <row r="601" spans="1:8">
       <c r="A601" s="2"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -6212,7 +6209,7 @@
       <c r="E601" s="2"/>
       <c r="H601" s="8"/>
     </row>
-    <row r="602" spans="1:8" ht="15">
+    <row r="602" spans="1:8">
       <c r="A602" s="2"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -6220,7 +6217,7 @@
       <c r="E602" s="2"/>
       <c r="H602" s="8"/>
     </row>
-    <row r="603" spans="1:8" ht="15">
+    <row r="603" spans="1:8">
       <c r="A603" s="2"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -6228,7 +6225,7 @@
       <c r="E603" s="2"/>
       <c r="H603" s="8"/>
     </row>
-    <row r="604" spans="1:8" ht="15">
+    <row r="604" spans="1:8">
       <c r="A604" s="2"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -6236,7 +6233,7 @@
       <c r="E604" s="2"/>
       <c r="H604" s="8"/>
     </row>
-    <row r="605" spans="1:8" ht="15">
+    <row r="605" spans="1:8">
       <c r="A605" s="2"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -6244,7 +6241,7 @@
       <c r="E605" s="2"/>
       <c r="H605" s="8"/>
     </row>
-    <row r="606" spans="1:8" ht="15">
+    <row r="606" spans="1:8">
       <c r="A606" s="2"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -6252,7 +6249,7 @@
       <c r="E606" s="2"/>
       <c r="H606" s="8"/>
     </row>
-    <row r="607" spans="1:8" ht="15">
+    <row r="607" spans="1:8">
       <c r="A607" s="2"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -6260,7 +6257,7 @@
       <c r="E607" s="2"/>
       <c r="H607" s="8"/>
     </row>
-    <row r="608" spans="1:8" ht="15">
+    <row r="608" spans="1:8">
       <c r="A608" s="2"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -6268,7 +6265,7 @@
       <c r="E608" s="2"/>
       <c r="H608" s="8"/>
     </row>
-    <row r="609" spans="1:8" ht="15">
+    <row r="609" spans="1:8">
       <c r="A609" s="2"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -6276,7 +6273,7 @@
       <c r="E609" s="2"/>
       <c r="H609" s="8"/>
     </row>
-    <row r="610" spans="1:8" ht="15">
+    <row r="610" spans="1:8">
       <c r="A610" s="2"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -6284,7 +6281,7 @@
       <c r="E610" s="2"/>
       <c r="H610" s="8"/>
     </row>
-    <row r="611" spans="1:8" ht="15">
+    <row r="611" spans="1:8">
       <c r="A611" s="2"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -6292,7 +6289,7 @@
       <c r="E611" s="2"/>
       <c r="H611" s="8"/>
     </row>
-    <row r="612" spans="1:8" ht="15">
+    <row r="612" spans="1:8">
       <c r="A612" s="2"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -6300,7 +6297,7 @@
       <c r="E612" s="2"/>
       <c r="H612" s="8"/>
     </row>
-    <row r="613" spans="1:8" ht="15">
+    <row r="613" spans="1:8">
       <c r="A613" s="2"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -6308,7 +6305,7 @@
       <c r="E613" s="2"/>
       <c r="H613" s="8"/>
     </row>
-    <row r="614" spans="1:8" ht="15">
+    <row r="614" spans="1:8">
       <c r="A614" s="2"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -6316,7 +6313,7 @@
       <c r="E614" s="2"/>
       <c r="H614" s="8"/>
     </row>
-    <row r="615" spans="1:8" ht="15">
+    <row r="615" spans="1:8">
       <c r="A615" s="2"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -6324,7 +6321,7 @@
       <c r="E615" s="2"/>
       <c r="H615" s="8"/>
     </row>
-    <row r="616" spans="1:8" ht="15">
+    <row r="616" spans="1:8">
       <c r="A616" s="2"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -6332,7 +6329,7 @@
       <c r="E616" s="2"/>
       <c r="H616" s="8"/>
     </row>
-    <row r="617" spans="1:8" ht="15">
+    <row r="617" spans="1:8">
       <c r="A617" s="2"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -6340,7 +6337,7 @@
       <c r="E617" s="2"/>
       <c r="H617" s="8"/>
     </row>
-    <row r="618" spans="1:8" ht="15">
+    <row r="618" spans="1:8">
       <c r="A618" s="2"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -6348,7 +6345,7 @@
       <c r="E618" s="2"/>
       <c r="H618" s="8"/>
     </row>
-    <row r="619" spans="1:8" ht="15">
+    <row r="619" spans="1:8">
       <c r="A619" s="2"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -6356,7 +6353,7 @@
       <c r="E619" s="2"/>
       <c r="H619" s="8"/>
     </row>
-    <row r="620" spans="1:8" ht="15">
+    <row r="620" spans="1:8">
       <c r="A620" s="2"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -6364,7 +6361,7 @@
       <c r="E620" s="2"/>
       <c r="H620" s="8"/>
     </row>
-    <row r="621" spans="1:8" ht="15">
+    <row r="621" spans="1:8">
       <c r="A621" s="2"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -6372,7 +6369,7 @@
       <c r="E621" s="2"/>
       <c r="H621" s="8"/>
     </row>
-    <row r="622" spans="1:8" ht="15">
+    <row r="622" spans="1:8">
       <c r="A622" s="2"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -6380,7 +6377,7 @@
       <c r="E622" s="2"/>
       <c r="H622" s="8"/>
     </row>
-    <row r="623" spans="1:8" ht="15">
+    <row r="623" spans="1:8">
       <c r="A623" s="2"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -6388,7 +6385,7 @@
       <c r="E623" s="2"/>
       <c r="H623" s="8"/>
     </row>
-    <row r="624" spans="1:8" ht="15">
+    <row r="624" spans="1:8">
       <c r="A624" s="2"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -6396,7 +6393,7 @@
       <c r="E624" s="2"/>
       <c r="H624" s="8"/>
     </row>
-    <row r="625" spans="1:8" ht="15">
+    <row r="625" spans="1:8">
       <c r="A625" s="2"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -6404,7 +6401,7 @@
       <c r="E625" s="2"/>
       <c r="H625" s="8"/>
     </row>
-    <row r="626" spans="1:8" ht="15">
+    <row r="626" spans="1:8">
       <c r="A626" s="2"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -6412,7 +6409,7 @@
       <c r="E626" s="2"/>
       <c r="H626" s="8"/>
     </row>
-    <row r="627" spans="1:8" ht="15">
+    <row r="627" spans="1:8">
       <c r="A627" s="2"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -6420,7 +6417,7 @@
       <c r="E627" s="2"/>
       <c r="H627" s="8"/>
     </row>
-    <row r="628" spans="1:8" ht="15">
+    <row r="628" spans="1:8">
       <c r="A628" s="2"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -6428,7 +6425,7 @@
       <c r="E628" s="2"/>
       <c r="H628" s="8"/>
     </row>
-    <row r="629" spans="1:8" ht="15">
+    <row r="629" spans="1:8">
       <c r="A629" s="2"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -6436,7 +6433,7 @@
       <c r="E629" s="2"/>
       <c r="H629" s="8"/>
     </row>
-    <row r="630" spans="1:8" ht="15">
+    <row r="630" spans="1:8">
       <c r="A630" s="2"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -6444,7 +6441,7 @@
       <c r="E630" s="2"/>
       <c r="H630" s="8"/>
     </row>
-    <row r="631" spans="1:8" ht="15">
+    <row r="631" spans="1:8">
       <c r="A631" s="2"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -6452,7 +6449,7 @@
       <c r="E631" s="2"/>
       <c r="H631" s="8"/>
     </row>
-    <row r="632" spans="1:8" ht="15">
+    <row r="632" spans="1:8">
       <c r="A632" s="2"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -6460,7 +6457,7 @@
       <c r="E632" s="2"/>
       <c r="H632" s="8"/>
     </row>
-    <row r="633" spans="1:8" ht="15">
+    <row r="633" spans="1:8">
       <c r="A633" s="2"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -6468,7 +6465,7 @@
       <c r="E633" s="2"/>
       <c r="H633" s="8"/>
     </row>
-    <row r="634" spans="1:8" ht="15">
+    <row r="634" spans="1:8">
       <c r="A634" s="2"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -6476,7 +6473,7 @@
       <c r="E634" s="2"/>
       <c r="H634" s="8"/>
     </row>
-    <row r="635" spans="1:8" ht="15">
+    <row r="635" spans="1:8">
       <c r="A635" s="2"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -6484,7 +6481,7 @@
       <c r="E635" s="2"/>
       <c r="H635" s="8"/>
     </row>
-    <row r="636" spans="1:8" ht="15">
+    <row r="636" spans="1:8">
       <c r="A636" s="2"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -6492,7 +6489,7 @@
       <c r="E636" s="2"/>
       <c r="H636" s="8"/>
     </row>
-    <row r="637" spans="1:8" ht="15">
+    <row r="637" spans="1:8">
       <c r="A637" s="2"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -6500,7 +6497,7 @@
       <c r="E637" s="2"/>
       <c r="H637" s="8"/>
     </row>
-    <row r="638" spans="1:8" ht="15">
+    <row r="638" spans="1:8">
       <c r="A638" s="2"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -6508,7 +6505,7 @@
       <c r="E638" s="2"/>
       <c r="H638" s="8"/>
     </row>
-    <row r="639" spans="1:8" ht="15">
+    <row r="639" spans="1:8">
       <c r="A639" s="2"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -6516,7 +6513,7 @@
       <c r="E639" s="2"/>
       <c r="H639" s="8"/>
     </row>
-    <row r="640" spans="1:8" ht="15">
+    <row r="640" spans="1:8">
       <c r="A640" s="2"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -6524,7 +6521,7 @@
       <c r="E640" s="2"/>
       <c r="H640" s="8"/>
     </row>
-    <row r="641" spans="1:8" ht="15">
+    <row r="641" spans="1:8">
       <c r="A641" s="2"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -6532,7 +6529,7 @@
       <c r="E641" s="2"/>
       <c r="H641" s="8"/>
     </row>
-    <row r="642" spans="1:8" ht="15">
+    <row r="642" spans="1:8">
       <c r="A642" s="2"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -6540,7 +6537,7 @@
       <c r="E642" s="2"/>
       <c r="H642" s="8"/>
     </row>
-    <row r="643" spans="1:8" ht="15">
+    <row r="643" spans="1:8">
       <c r="A643" s="2"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -6548,7 +6545,7 @@
       <c r="E643" s="2"/>
       <c r="H643" s="8"/>
     </row>
-    <row r="644" spans="1:8" ht="15">
+    <row r="644" spans="1:8">
       <c r="A644" s="2"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -6556,7 +6553,7 @@
       <c r="E644" s="2"/>
       <c r="H644" s="8"/>
     </row>
-    <row r="645" spans="1:8" ht="15">
+    <row r="645" spans="1:8">
       <c r="A645" s="2"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -6564,7 +6561,7 @@
       <c r="E645" s="2"/>
       <c r="H645" s="8"/>
     </row>
-    <row r="646" spans="1:8" ht="15">
+    <row r="646" spans="1:8">
       <c r="A646" s="2"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -6572,7 +6569,7 @@
       <c r="E646" s="2"/>
       <c r="H646" s="8"/>
     </row>
-    <row r="647" spans="1:8" ht="15">
+    <row r="647" spans="1:8">
       <c r="A647" s="2"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -6580,7 +6577,7 @@
       <c r="E647" s="2"/>
       <c r="H647" s="8"/>
     </row>
-    <row r="648" spans="1:8" ht="15">
+    <row r="648" spans="1:8">
       <c r="A648" s="2"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -6588,7 +6585,7 @@
       <c r="E648" s="2"/>
       <c r="H648" s="8"/>
     </row>
-    <row r="649" spans="1:8" ht="15">
+    <row r="649" spans="1:8">
       <c r="A649" s="2"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -6596,7 +6593,7 @@
       <c r="E649" s="2"/>
       <c r="H649" s="8"/>
     </row>
-    <row r="650" spans="1:8" ht="15">
+    <row r="650" spans="1:8">
       <c r="A650" s="2"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -6604,7 +6601,7 @@
       <c r="E650" s="2"/>
       <c r="H650" s="8"/>
     </row>
-    <row r="651" spans="1:8" ht="15">
+    <row r="651" spans="1:8">
       <c r="A651" s="2"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -6612,7 +6609,7 @@
       <c r="E651" s="2"/>
       <c r="H651" s="8"/>
     </row>
-    <row r="652" spans="1:8" ht="15">
+    <row r="652" spans="1:8">
       <c r="A652" s="2"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -6620,7 +6617,7 @@
       <c r="E652" s="2"/>
       <c r="H652" s="8"/>
     </row>
-    <row r="653" spans="1:8" ht="15">
+    <row r="653" spans="1:8">
       <c r="A653" s="2"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -6628,7 +6625,7 @@
       <c r="E653" s="2"/>
       <c r="H653" s="8"/>
     </row>
-    <row r="654" spans="1:8" ht="15">
+    <row r="654" spans="1:8">
       <c r="A654" s="2"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -6636,7 +6633,7 @@
       <c r="E654" s="2"/>
       <c r="H654" s="8"/>
     </row>
-    <row r="655" spans="1:8" ht="15">
+    <row r="655" spans="1:8">
       <c r="A655" s="2"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -6644,7 +6641,7 @@
       <c r="E655" s="2"/>
       <c r="H655" s="8"/>
     </row>
-    <row r="656" spans="1:8" ht="15">
+    <row r="656" spans="1:8">
       <c r="A656" s="2"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -6652,7 +6649,7 @@
       <c r="E656" s="2"/>
       <c r="H656" s="8"/>
     </row>
-    <row r="657" spans="1:8" ht="15">
+    <row r="657" spans="1:8">
       <c r="A657" s="2"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -6660,7 +6657,7 @@
       <c r="E657" s="2"/>
       <c r="H657" s="8"/>
     </row>
-    <row r="658" spans="1:8" ht="15">
+    <row r="658" spans="1:8">
       <c r="A658" s="2"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -6668,7 +6665,7 @@
       <c r="E658" s="2"/>
       <c r="H658" s="8"/>
     </row>
-    <row r="659" spans="1:8" ht="15">
+    <row r="659" spans="1:8">
       <c r="A659" s="2"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -6676,7 +6673,7 @@
       <c r="E659" s="2"/>
       <c r="H659" s="8"/>
     </row>
-    <row r="660" spans="1:8" ht="15">
+    <row r="660" spans="1:8">
       <c r="A660" s="2"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -6684,7 +6681,7 @@
       <c r="E660" s="2"/>
       <c r="H660" s="8"/>
     </row>
-    <row r="661" spans="1:8" ht="15">
+    <row r="661" spans="1:8">
       <c r="A661" s="2"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -6692,7 +6689,7 @@
       <c r="E661" s="2"/>
       <c r="H661" s="8"/>
     </row>
-    <row r="662" spans="1:8" ht="15">
+    <row r="662" spans="1:8">
       <c r="A662" s="2"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -6700,7 +6697,7 @@
       <c r="E662" s="2"/>
       <c r="H662" s="8"/>
     </row>
-    <row r="663" spans="1:8" ht="15">
+    <row r="663" spans="1:8">
       <c r="A663" s="2"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -6708,7 +6705,7 @@
       <c r="E663" s="2"/>
       <c r="H663" s="8"/>
     </row>
-    <row r="664" spans="1:8" ht="15">
+    <row r="664" spans="1:8">
       <c r="A664" s="2"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -6716,7 +6713,7 @@
       <c r="E664" s="2"/>
       <c r="H664" s="8"/>
     </row>
-    <row r="665" spans="1:8" ht="15">
+    <row r="665" spans="1:8">
       <c r="A665" s="2"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -6724,7 +6721,7 @@
       <c r="E665" s="2"/>
       <c r="H665" s="8"/>
     </row>
-    <row r="666" spans="1:8" ht="15">
+    <row r="666" spans="1:8">
       <c r="A666" s="2"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -6732,7 +6729,7 @@
       <c r="E666" s="2"/>
       <c r="H666" s="8"/>
     </row>
-    <row r="667" spans="1:8" ht="15">
+    <row r="667" spans="1:8">
       <c r="A667" s="2"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -6740,7 +6737,7 @@
       <c r="E667" s="2"/>
       <c r="H667" s="8"/>
     </row>
-    <row r="668" spans="1:8" ht="15">
+    <row r="668" spans="1:8">
       <c r="A668" s="2"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -6748,7 +6745,7 @@
       <c r="E668" s="2"/>
       <c r="H668" s="8"/>
     </row>
-    <row r="669" spans="1:8" ht="15">
+    <row r="669" spans="1:8">
       <c r="A669" s="2"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -6756,7 +6753,7 @@
       <c r="E669" s="2"/>
       <c r="H669" s="8"/>
     </row>
-    <row r="670" spans="1:8" ht="15">
+    <row r="670" spans="1:8">
       <c r="A670" s="2"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -6764,7 +6761,7 @@
       <c r="E670" s="2"/>
       <c r="H670" s="8"/>
     </row>
-    <row r="671" spans="1:8" ht="15">
+    <row r="671" spans="1:8">
       <c r="A671" s="2"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -6772,7 +6769,7 @@
       <c r="E671" s="2"/>
       <c r="H671" s="8"/>
     </row>
-    <row r="672" spans="1:8" ht="15">
+    <row r="672" spans="1:8">
       <c r="A672" s="2"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -6780,7 +6777,7 @@
       <c r="E672" s="2"/>
       <c r="H672" s="8"/>
     </row>
-    <row r="673" spans="1:8" ht="15">
+    <row r="673" spans="1:8">
       <c r="A673" s="2"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -6788,7 +6785,7 @@
       <c r="E673" s="2"/>
       <c r="H673" s="8"/>
     </row>
-    <row r="674" spans="1:8" ht="15">
+    <row r="674" spans="1:8">
       <c r="A674" s="2"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -6796,7 +6793,7 @@
       <c r="E674" s="2"/>
       <c r="H674" s="8"/>
     </row>
-    <row r="675" spans="1:8" ht="15">
+    <row r="675" spans="1:8">
       <c r="A675" s="2"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -6804,7 +6801,7 @@
       <c r="E675" s="2"/>
       <c r="H675" s="8"/>
     </row>
-    <row r="676" spans="1:8" ht="15">
+    <row r="676" spans="1:8">
       <c r="A676" s="2"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -6812,7 +6809,7 @@
       <c r="E676" s="2"/>
       <c r="H676" s="8"/>
     </row>
-    <row r="677" spans="1:8" ht="15">
+    <row r="677" spans="1:8">
       <c r="A677" s="2"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -6820,7 +6817,7 @@
       <c r="E677" s="2"/>
       <c r="H677" s="8"/>
     </row>
-    <row r="678" spans="1:8" ht="15">
+    <row r="678" spans="1:8">
       <c r="A678" s="2"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -6828,7 +6825,7 @@
       <c r="E678" s="2"/>
       <c r="H678" s="8"/>
     </row>
-    <row r="679" spans="1:8" ht="15">
+    <row r="679" spans="1:8">
       <c r="A679" s="2"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -6836,7 +6833,7 @@
       <c r="E679" s="2"/>
       <c r="H679" s="8"/>
     </row>
-    <row r="680" spans="1:8" ht="15">
+    <row r="680" spans="1:8">
       <c r="A680" s="2"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -6844,7 +6841,7 @@
       <c r="E680" s="2"/>
       <c r="H680" s="8"/>
     </row>
-    <row r="681" spans="1:8" ht="15">
+    <row r="681" spans="1:8">
       <c r="A681" s="2"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -6852,7 +6849,7 @@
       <c r="E681" s="2"/>
       <c r="H681" s="8"/>
     </row>
-    <row r="682" spans="1:8" ht="15">
+    <row r="682" spans="1:8">
       <c r="A682" s="2"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -6860,7 +6857,7 @@
       <c r="E682" s="2"/>
       <c r="H682" s="8"/>
     </row>
-    <row r="683" spans="1:8" ht="15">
+    <row r="683" spans="1:8">
       <c r="A683" s="2"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -6868,7 +6865,7 @@
       <c r="E683" s="2"/>
       <c r="H683" s="8"/>
     </row>
-    <row r="684" spans="1:8" ht="15">
+    <row r="684" spans="1:8">
       <c r="A684" s="2"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -6876,7 +6873,7 @@
       <c r="E684" s="2"/>
       <c r="H684" s="8"/>
     </row>
-    <row r="685" spans="1:8" ht="15">
+    <row r="685" spans="1:8">
       <c r="A685" s="2"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -6884,7 +6881,7 @@
       <c r="E685" s="2"/>
       <c r="H685" s="8"/>
     </row>
-    <row r="686" spans="1:8" ht="15">
+    <row r="686" spans="1:8">
       <c r="A686" s="2"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -6892,7 +6889,7 @@
       <c r="E686" s="2"/>
       <c r="H686" s="8"/>
     </row>
-    <row r="687" spans="1:8" ht="15">
+    <row r="687" spans="1:8">
       <c r="A687" s="2"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -6900,7 +6897,7 @@
       <c r="E687" s="2"/>
       <c r="H687" s="8"/>
     </row>
-    <row r="688" spans="1:8" ht="15">
+    <row r="688" spans="1:8">
       <c r="A688" s="2"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -6908,7 +6905,7 @@
       <c r="E688" s="2"/>
       <c r="H688" s="8"/>
     </row>
-    <row r="689" spans="1:8" ht="15">
+    <row r="689" spans="1:8">
       <c r="A689" s="2"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -6916,7 +6913,7 @@
       <c r="E689" s="2"/>
       <c r="H689" s="8"/>
     </row>
-    <row r="690" spans="1:8" ht="15">
+    <row r="690" spans="1:8">
       <c r="A690" s="2"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -6924,7 +6921,7 @@
       <c r="E690" s="2"/>
       <c r="H690" s="8"/>
     </row>
-    <row r="691" spans="1:8" ht="15">
+    <row r="691" spans="1:8">
       <c r="A691" s="2"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -6932,7 +6929,7 @@
       <c r="E691" s="2"/>
       <c r="H691" s="8"/>
     </row>
-    <row r="692" spans="1:8" ht="15">
+    <row r="692" spans="1:8">
       <c r="A692" s="2"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -6940,7 +6937,7 @@
       <c r="E692" s="2"/>
       <c r="H692" s="8"/>
     </row>
-    <row r="693" spans="1:8" ht="15">
+    <row r="693" spans="1:8">
       <c r="A693" s="2"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -6948,7 +6945,7 @@
       <c r="E693" s="2"/>
       <c r="H693" s="8"/>
     </row>
-    <row r="694" spans="1:8" ht="15">
+    <row r="694" spans="1:8">
       <c r="A694" s="2"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -6956,7 +6953,7 @@
       <c r="E694" s="2"/>
       <c r="H694" s="8"/>
     </row>
-    <row r="695" spans="1:8" ht="15">
+    <row r="695" spans="1:8">
       <c r="A695" s="2"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -6964,7 +6961,7 @@
       <c r="E695" s="2"/>
       <c r="H695" s="8"/>
     </row>
-    <row r="696" spans="1:8" ht="15">
+    <row r="696" spans="1:8">
       <c r="A696" s="2"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -6972,7 +6969,7 @@
       <c r="E696" s="2"/>
       <c r="H696" s="8"/>
     </row>
-    <row r="697" spans="1:8" ht="15">
+    <row r="697" spans="1:8">
       <c r="A697" s="2"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -6980,7 +6977,7 @@
       <c r="E697" s="2"/>
       <c r="H697" s="8"/>
     </row>
-    <row r="698" spans="1:8" ht="15">
+    <row r="698" spans="1:8">
       <c r="A698" s="2"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -6988,7 +6985,7 @@
       <c r="E698" s="2"/>
       <c r="H698" s="8"/>
     </row>
-    <row r="699" spans="1:8" ht="15">
+    <row r="699" spans="1:8">
       <c r="A699" s="2"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -6996,7 +6993,7 @@
       <c r="E699" s="2"/>
       <c r="H699" s="8"/>
     </row>
-    <row r="700" spans="1:8" ht="15">
+    <row r="700" spans="1:8">
       <c r="A700" s="2"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -7004,7 +7001,7 @@
       <c r="E700" s="2"/>
       <c r="H700" s="8"/>
     </row>
-    <row r="701" spans="1:8" ht="15">
+    <row r="701" spans="1:8">
       <c r="A701" s="2"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -7012,7 +7009,7 @@
       <c r="E701" s="2"/>
       <c r="H701" s="8"/>
     </row>
-    <row r="702" spans="1:8" ht="15">
+    <row r="702" spans="1:8">
       <c r="A702" s="2"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -7020,7 +7017,7 @@
       <c r="E702" s="2"/>
       <c r="H702" s="8"/>
     </row>
-    <row r="703" spans="1:8" ht="15">
+    <row r="703" spans="1:8">
       <c r="A703" s="2"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -7028,7 +7025,7 @@
       <c r="E703" s="2"/>
       <c r="H703" s="8"/>
     </row>
-    <row r="704" spans="1:8" ht="15">
+    <row r="704" spans="1:8">
       <c r="A704" s="2"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -7036,7 +7033,7 @@
       <c r="E704" s="2"/>
       <c r="H704" s="8"/>
     </row>
-    <row r="705" spans="1:8" ht="15">
+    <row r="705" spans="1:8">
       <c r="A705" s="2"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -7044,7 +7041,7 @@
       <c r="E705" s="2"/>
       <c r="H705" s="8"/>
     </row>
-    <row r="706" spans="1:8" ht="15">
+    <row r="706" spans="1:8">
       <c r="A706" s="2"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -7052,7 +7049,7 @@
       <c r="E706" s="2"/>
       <c r="H706" s="8"/>
     </row>
-    <row r="707" spans="1:8" ht="15">
+    <row r="707" spans="1:8">
       <c r="A707" s="2"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -7060,7 +7057,7 @@
       <c r="E707" s="2"/>
       <c r="H707" s="8"/>
     </row>
-    <row r="708" spans="1:8" ht="15">
+    <row r="708" spans="1:8">
       <c r="A708" s="2"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -7068,7 +7065,7 @@
       <c r="E708" s="2"/>
       <c r="H708" s="8"/>
     </row>
-    <row r="709" spans="1:8" ht="15">
+    <row r="709" spans="1:8">
       <c r="A709" s="2"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -7076,7 +7073,7 @@
       <c r="E709" s="2"/>
       <c r="H709" s="8"/>
     </row>
-    <row r="710" spans="1:8" ht="15">
+    <row r="710" spans="1:8">
       <c r="A710" s="2"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -7084,7 +7081,7 @@
       <c r="E710" s="2"/>
       <c r="H710" s="8"/>
     </row>
-    <row r="711" spans="1:8" ht="15">
+    <row r="711" spans="1:8">
       <c r="A711" s="2"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -7092,7 +7089,7 @@
       <c r="E711" s="2"/>
       <c r="H711" s="8"/>
     </row>
-    <row r="712" spans="1:8" ht="15">
+    <row r="712" spans="1:8">
       <c r="A712" s="2"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -7100,7 +7097,7 @@
       <c r="E712" s="2"/>
       <c r="H712" s="8"/>
     </row>
-    <row r="713" spans="1:8" ht="15">
+    <row r="713" spans="1:8">
       <c r="A713" s="2"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -7108,7 +7105,7 @@
       <c r="E713" s="2"/>
       <c r="H713" s="8"/>
     </row>
-    <row r="714" spans="1:8" ht="15">
+    <row r="714" spans="1:8">
       <c r="A714" s="2"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -7116,7 +7113,7 @@
       <c r="E714" s="2"/>
       <c r="H714" s="8"/>
     </row>
-    <row r="715" spans="1:8" ht="15">
+    <row r="715" spans="1:8">
       <c r="A715" s="2"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -7124,7 +7121,7 @@
       <c r="E715" s="2"/>
       <c r="H715" s="8"/>
     </row>
-    <row r="716" spans="1:8" ht="15">
+    <row r="716" spans="1:8">
       <c r="A716" s="2"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -7132,7 +7129,7 @@
       <c r="E716" s="2"/>
       <c r="H716" s="8"/>
     </row>
-    <row r="717" spans="1:8" ht="15">
+    <row r="717" spans="1:8">
       <c r="A717" s="2"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -7140,7 +7137,7 @@
       <c r="E717" s="2"/>
       <c r="H717" s="8"/>
     </row>
-    <row r="718" spans="1:8" ht="15">
+    <row r="718" spans="1:8">
       <c r="A718" s="2"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -7148,7 +7145,7 @@
       <c r="E718" s="2"/>
       <c r="H718" s="8"/>
     </row>
-    <row r="719" spans="1:8" ht="15">
+    <row r="719" spans="1:8">
       <c r="A719" s="2"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -7156,7 +7153,7 @@
       <c r="E719" s="2"/>
       <c r="H719" s="8"/>
     </row>
-    <row r="720" spans="1:8" ht="15">
+    <row r="720" spans="1:8">
       <c r="A720" s="2"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -7164,7 +7161,7 @@
       <c r="E720" s="2"/>
       <c r="H720" s="8"/>
     </row>
-    <row r="721" spans="1:8" ht="15">
+    <row r="721" spans="1:8">
       <c r="A721" s="2"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -7172,7 +7169,7 @@
       <c r="E721" s="2"/>
       <c r="H721" s="8"/>
     </row>
-    <row r="722" spans="1:8" ht="15">
+    <row r="722" spans="1:8">
       <c r="A722" s="2"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -7180,7 +7177,7 @@
       <c r="E722" s="2"/>
       <c r="H722" s="8"/>
     </row>
-    <row r="723" spans="1:8" ht="15">
+    <row r="723" spans="1:8">
       <c r="A723" s="2"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -7188,7 +7185,7 @@
       <c r="E723" s="2"/>
       <c r="H723" s="8"/>
     </row>
-    <row r="724" spans="1:8" ht="15">
+    <row r="724" spans="1:8">
       <c r="A724" s="2"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -7196,7 +7193,7 @@
       <c r="E724" s="2"/>
       <c r="H724" s="8"/>
     </row>
-    <row r="725" spans="1:8" ht="15">
+    <row r="725" spans="1:8">
       <c r="A725" s="2"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -7204,7 +7201,7 @@
       <c r="E725" s="2"/>
       <c r="H725" s="8"/>
     </row>
-    <row r="726" spans="1:8" ht="15">
+    <row r="726" spans="1:8">
       <c r="A726" s="2"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -7212,7 +7209,7 @@
       <c r="E726" s="2"/>
       <c r="H726" s="8"/>
     </row>
-    <row r="727" spans="1:8" ht="15">
+    <row r="727" spans="1:8">
       <c r="A727" s="2"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -7220,7 +7217,7 @@
       <c r="E727" s="2"/>
       <c r="H727" s="8"/>
     </row>
-    <row r="728" spans="1:8" ht="15">
+    <row r="728" spans="1:8">
       <c r="A728" s="2"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -7228,7 +7225,7 @@
       <c r="E728" s="2"/>
       <c r="H728" s="8"/>
     </row>
-    <row r="729" spans="1:8" ht="15">
+    <row r="729" spans="1:8">
       <c r="A729" s="2"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -7236,7 +7233,7 @@
       <c r="E729" s="2"/>
       <c r="H729" s="8"/>
     </row>
-    <row r="730" spans="1:8" ht="15">
+    <row r="730" spans="1:8">
       <c r="A730" s="2"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -7244,7 +7241,7 @@
       <c r="E730" s="2"/>
       <c r="H730" s="8"/>
     </row>
-    <row r="731" spans="1:8" ht="15">
+    <row r="731" spans="1:8">
       <c r="A731" s="2"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -7252,7 +7249,7 @@
       <c r="E731" s="2"/>
       <c r="H731" s="8"/>
     </row>
-    <row r="732" spans="1:8" ht="15">
+    <row r="732" spans="1:8">
       <c r="A732" s="2"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -7260,7 +7257,7 @@
       <c r="E732" s="2"/>
       <c r="H732" s="8"/>
     </row>
-    <row r="733" spans="1:8" ht="15">
+    <row r="733" spans="1:8">
       <c r="A733" s="2"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -7268,7 +7265,7 @@
       <c r="E733" s="2"/>
       <c r="H733" s="8"/>
     </row>
-    <row r="734" spans="1:8" ht="15">
+    <row r="734" spans="1:8">
       <c r="A734" s="2"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -7276,7 +7273,7 @@
       <c r="E734" s="2"/>
       <c r="H734" s="8"/>
     </row>
-    <row r="735" spans="1:8" ht="15">
+    <row r="735" spans="1:8">
       <c r="A735" s="2"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -7284,7 +7281,7 @@
       <c r="E735" s="2"/>
       <c r="H735" s="8"/>
     </row>
-    <row r="736" spans="1:8" ht="15">
+    <row r="736" spans="1:8">
       <c r="A736" s="2"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -7292,7 +7289,7 @@
       <c r="E736" s="2"/>
       <c r="H736" s="8"/>
     </row>
-    <row r="737" spans="1:8" ht="15">
+    <row r="737" spans="1:8">
       <c r="A737" s="2"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -7300,7 +7297,7 @@
       <c r="E737" s="2"/>
       <c r="H737" s="8"/>
     </row>
-    <row r="738" spans="1:8" ht="15">
+    <row r="738" spans="1:8">
       <c r="A738" s="2"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -7308,7 +7305,7 @@
       <c r="E738" s="2"/>
       <c r="H738" s="8"/>
     </row>
-    <row r="739" spans="1:8" ht="15">
+    <row r="739" spans="1:8">
       <c r="A739" s="2"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -7316,7 +7313,7 @@
       <c r="E739" s="2"/>
       <c r="H739" s="8"/>
     </row>
-    <row r="740" spans="1:8" ht="15">
+    <row r="740" spans="1:8">
       <c r="A740" s="2"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -7324,7 +7321,7 @@
       <c r="E740" s="2"/>
       <c r="H740" s="8"/>
     </row>
-    <row r="741" spans="1:8" ht="15">
+    <row r="741" spans="1:8">
       <c r="A741" s="2"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -7332,7 +7329,7 @@
       <c r="E741" s="2"/>
       <c r="H741" s="8"/>
     </row>
-    <row r="742" spans="1:8" ht="15">
+    <row r="742" spans="1:8">
       <c r="A742" s="2"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -7340,7 +7337,7 @@
       <c r="E742" s="2"/>
       <c r="H742" s="8"/>
     </row>
-    <row r="743" spans="1:8" ht="15">
+    <row r="743" spans="1:8">
       <c r="A743" s="2"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -7348,7 +7345,7 @@
       <c r="E743" s="2"/>
       <c r="H743" s="8"/>
     </row>
-    <row r="744" spans="1:8" ht="15">
+    <row r="744" spans="1:8">
       <c r="A744" s="2"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -7356,7 +7353,7 @@
       <c r="E744" s="2"/>
       <c r="H744" s="8"/>
     </row>
-    <row r="745" spans="1:8" ht="15">
+    <row r="745" spans="1:8">
       <c r="A745" s="2"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -7364,7 +7361,7 @@
       <c r="E745" s="2"/>
       <c r="H745" s="8"/>
     </row>
-    <row r="746" spans="1:8" ht="15">
+    <row r="746" spans="1:8">
       <c r="A746" s="2"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -7372,7 +7369,7 @@
       <c r="E746" s="2"/>
       <c r="H746" s="8"/>
     </row>
-    <row r="747" spans="1:8" ht="15">
+    <row r="747" spans="1:8">
       <c r="A747" s="2"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -7380,7 +7377,7 @@
       <c r="E747" s="2"/>
       <c r="H747" s="8"/>
     </row>
-    <row r="748" spans="1:8" ht="15">
+    <row r="748" spans="1:8">
       <c r="A748" s="2"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -7388,7 +7385,7 @@
       <c r="E748" s="2"/>
       <c r="H748" s="8"/>
     </row>
-    <row r="749" spans="1:8" ht="15">
+    <row r="749" spans="1:8">
       <c r="A749" s="2"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -7396,7 +7393,7 @@
       <c r="E749" s="2"/>
       <c r="H749" s="8"/>
     </row>
-    <row r="750" spans="1:8" ht="15">
+    <row r="750" spans="1:8">
       <c r="A750" s="2"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -7404,7 +7401,7 @@
       <c r="E750" s="2"/>
       <c r="H750" s="8"/>
     </row>
-    <row r="751" spans="1:8" ht="15">
+    <row r="751" spans="1:8">
       <c r="A751" s="2"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -7412,7 +7409,7 @@
       <c r="E751" s="2"/>
       <c r="H751" s="8"/>
     </row>
-    <row r="752" spans="1:8" ht="15">
+    <row r="752" spans="1:8">
       <c r="A752" s="2"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -7420,7 +7417,7 @@
       <c r="E752" s="2"/>
       <c r="H752" s="8"/>
     </row>
-    <row r="753" spans="1:8" ht="15">
+    <row r="753" spans="1:8">
       <c r="A753" s="2"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -7428,7 +7425,7 @@
       <c r="E753" s="2"/>
       <c r="H753" s="8"/>
     </row>
-    <row r="754" spans="1:8" ht="15">
+    <row r="754" spans="1:8">
       <c r="A754" s="2"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -7436,7 +7433,7 @@
       <c r="E754" s="2"/>
       <c r="H754" s="8"/>
     </row>
-    <row r="755" spans="1:8" ht="15">
+    <row r="755" spans="1:8">
       <c r="A755" s="2"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -7444,7 +7441,7 @@
       <c r="E755" s="2"/>
       <c r="H755" s="8"/>
     </row>
-    <row r="756" spans="1:8" ht="15">
+    <row r="756" spans="1:8">
       <c r="A756" s="2"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -7452,7 +7449,7 @@
       <c r="E756" s="2"/>
       <c r="H756" s="8"/>
     </row>
-    <row r="757" spans="1:8" ht="15">
+    <row r="757" spans="1:8">
       <c r="A757" s="2"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -7460,7 +7457,7 @@
       <c r="E757" s="2"/>
       <c r="H757" s="8"/>
     </row>
-    <row r="758" spans="1:8" ht="15">
+    <row r="758" spans="1:8">
       <c r="A758" s="2"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -7468,7 +7465,7 @@
       <c r="E758" s="2"/>
       <c r="H758" s="8"/>
     </row>
-    <row r="759" spans="1:8" ht="15">
+    <row r="759" spans="1:8">
       <c r="A759" s="2"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -7476,7 +7473,7 @@
       <c r="E759" s="2"/>
       <c r="H759" s="8"/>
     </row>
-    <row r="760" spans="1:8" ht="15">
+    <row r="760" spans="1:8">
       <c r="A760" s="2"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -7484,7 +7481,7 @@
       <c r="E760" s="2"/>
       <c r="H760" s="8"/>
     </row>
-    <row r="761" spans="1:8" ht="15">
+    <row r="761" spans="1:8">
       <c r="A761" s="2"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -7492,7 +7489,7 @@
       <c r="E761" s="2"/>
       <c r="H761" s="8"/>
     </row>
-    <row r="762" spans="1:8" ht="15">
+    <row r="762" spans="1:8">
       <c r="A762" s="2"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -7500,7 +7497,7 @@
       <c r="E762" s="2"/>
       <c r="H762" s="8"/>
     </row>
-    <row r="763" spans="1:8" ht="15">
+    <row r="763" spans="1:8">
       <c r="A763" s="2"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -7508,7 +7505,7 @@
       <c r="E763" s="2"/>
       <c r="H763" s="8"/>
     </row>
-    <row r="764" spans="1:8" ht="15">
+    <row r="764" spans="1:8">
       <c r="A764" s="2"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -7516,7 +7513,7 @@
       <c r="E764" s="2"/>
       <c r="H764" s="8"/>
     </row>
-    <row r="765" spans="1:8" ht="15">
+    <row r="765" spans="1:8">
       <c r="A765" s="2"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -7524,7 +7521,7 @@
       <c r="E765" s="2"/>
       <c r="H765" s="8"/>
     </row>
-    <row r="766" spans="1:8" ht="15">
+    <row r="766" spans="1:8">
       <c r="A766" s="2"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -7532,7 +7529,7 @@
       <c r="E766" s="2"/>
       <c r="H766" s="8"/>
     </row>
-    <row r="767" spans="1:8" ht="15">
+    <row r="767" spans="1:8">
       <c r="A767" s="2"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -7540,7 +7537,7 @@
       <c r="E767" s="2"/>
       <c r="H767" s="8"/>
     </row>
-    <row r="768" spans="1:8" ht="15">
+    <row r="768" spans="1:8">
       <c r="A768" s="2"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -7548,7 +7545,7 @@
       <c r="E768" s="2"/>
       <c r="H768" s="8"/>
     </row>
-    <row r="769" spans="1:8" ht="15">
+    <row r="769" spans="1:8">
       <c r="A769" s="2"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -7556,7 +7553,7 @@
       <c r="E769" s="2"/>
       <c r="H769" s="8"/>
     </row>
-    <row r="770" spans="1:8" ht="15">
+    <row r="770" spans="1:8">
       <c r="A770" s="2"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -7564,7 +7561,7 @@
       <c r="E770" s="2"/>
       <c r="H770" s="8"/>
     </row>
-    <row r="771" spans="1:8" ht="15">
+    <row r="771" spans="1:8">
       <c r="A771" s="2"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -7572,7 +7569,7 @@
       <c r="E771" s="2"/>
       <c r="H771" s="8"/>
     </row>
-    <row r="772" spans="1:8" ht="15">
+    <row r="772" spans="1:8">
       <c r="A772" s="2"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -7580,7 +7577,7 @@
       <c r="E772" s="2"/>
       <c r="H772" s="8"/>
     </row>
-    <row r="773" spans="1:8" ht="15">
+    <row r="773" spans="1:8">
       <c r="A773" s="2"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -7588,7 +7585,7 @@
       <c r="E773" s="2"/>
       <c r="H773" s="8"/>
     </row>
-    <row r="774" spans="1:8" ht="15">
+    <row r="774" spans="1:8">
       <c r="A774" s="2"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -7596,7 +7593,7 @@
       <c r="E774" s="2"/>
       <c r="H774" s="8"/>
     </row>
-    <row r="775" spans="1:8" ht="15">
+    <row r="775" spans="1:8">
       <c r="A775" s="2"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -7604,7 +7601,7 @@
       <c r="E775" s="2"/>
       <c r="H775" s="8"/>
     </row>
-    <row r="776" spans="1:8" ht="15">
+    <row r="776" spans="1:8">
       <c r="A776" s="2"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -7612,7 +7609,7 @@
       <c r="E776" s="2"/>
       <c r="H776" s="8"/>
     </row>
-    <row r="777" spans="1:8" ht="15">
+    <row r="777" spans="1:8">
       <c r="A777" s="2"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -7620,7 +7617,7 @@
       <c r="E777" s="2"/>
       <c r="H777" s="8"/>
     </row>
-    <row r="778" spans="1:8" ht="15">
+    <row r="778" spans="1:8">
       <c r="A778" s="2"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -7628,7 +7625,7 @@
       <c r="E778" s="2"/>
       <c r="H778" s="8"/>
     </row>
-    <row r="779" spans="1:8" ht="15">
+    <row r="779" spans="1:8">
       <c r="A779" s="2"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -7636,7 +7633,7 @@
       <c r="E779" s="2"/>
       <c r="H779" s="8"/>
     </row>
-    <row r="780" spans="1:8" ht="15">
+    <row r="780" spans="1:8">
       <c r="A780" s="2"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -7644,7 +7641,7 @@
       <c r="E780" s="2"/>
       <c r="H780" s="8"/>
     </row>
-    <row r="781" spans="1:8" ht="15">
+    <row r="781" spans="1:8">
       <c r="A781" s="2"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -7652,7 +7649,7 @@
       <c r="E781" s="2"/>
       <c r="H781" s="8"/>
     </row>
-    <row r="782" spans="1:8" ht="15">
+    <row r="782" spans="1:8">
       <c r="A782" s="2"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -7660,7 +7657,7 @@
       <c r="E782" s="2"/>
       <c r="H782" s="8"/>
     </row>
-    <row r="783" spans="1:8" ht="15">
+    <row r="783" spans="1:8">
       <c r="A783" s="2"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -7668,7 +7665,7 @@
       <c r="E783" s="2"/>
       <c r="H783" s="8"/>
     </row>
-    <row r="784" spans="1:8" ht="15">
+    <row r="784" spans="1:8">
       <c r="A784" s="2"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -7676,7 +7673,7 @@
       <c r="E784" s="2"/>
       <c r="H784" s="8"/>
     </row>
-    <row r="785" spans="1:8" ht="15">
+    <row r="785" spans="1:8">
       <c r="A785" s="2"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -7684,7 +7681,7 @@
       <c r="E785" s="2"/>
       <c r="H785" s="8"/>
     </row>
-    <row r="786" spans="1:8" ht="15">
+    <row r="786" spans="1:8">
       <c r="A786" s="2"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -7692,7 +7689,7 @@
       <c r="E786" s="2"/>
       <c r="H786" s="8"/>
     </row>
-    <row r="787" spans="1:8" ht="15">
+    <row r="787" spans="1:8">
       <c r="A787" s="2"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -7700,7 +7697,7 @@
       <c r="E787" s="2"/>
       <c r="H787" s="8"/>
     </row>
-    <row r="788" spans="1:8" ht="15">
+    <row r="788" spans="1:8">
       <c r="A788" s="2"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -7708,7 +7705,7 @@
       <c r="E788" s="2"/>
       <c r="H788" s="8"/>
     </row>
-    <row r="789" spans="1:8" ht="15">
+    <row r="789" spans="1:8">
       <c r="A789" s="2"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -7716,7 +7713,7 @@
       <c r="E789" s="2"/>
       <c r="H789" s="8"/>
     </row>
-    <row r="790" spans="1:8" ht="15">
+    <row r="790" spans="1:8">
       <c r="A790" s="2"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -7724,7 +7721,7 @@
       <c r="E790" s="2"/>
       <c r="H790" s="8"/>
     </row>
-    <row r="791" spans="1:8" ht="15">
+    <row r="791" spans="1:8">
       <c r="A791" s="2"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -7732,7 +7729,7 @@
       <c r="E791" s="2"/>
       <c r="H791" s="8"/>
     </row>
-    <row r="792" spans="1:8" ht="15">
+    <row r="792" spans="1:8">
       <c r="A792" s="2"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -7740,7 +7737,7 @@
       <c r="E792" s="2"/>
       <c r="H792" s="8"/>
     </row>
-    <row r="793" spans="1:8" ht="15">
+    <row r="793" spans="1:8">
       <c r="A793" s="2"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -7748,7 +7745,7 @@
       <c r="E793" s="2"/>
       <c r="H793" s="8"/>
     </row>
-    <row r="794" spans="1:8" ht="15">
+    <row r="794" spans="1:8">
       <c r="A794" s="2"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -7756,7 +7753,7 @@
       <c r="E794" s="2"/>
       <c r="H794" s="8"/>
     </row>
-    <row r="795" spans="1:8" ht="15">
+    <row r="795" spans="1:8">
       <c r="A795" s="2"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -7764,7 +7761,7 @@
       <c r="E795" s="2"/>
       <c r="H795" s="8"/>
     </row>
-    <row r="796" spans="1:8" ht="15">
+    <row r="796" spans="1:8">
       <c r="A796" s="2"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -7772,7 +7769,7 @@
       <c r="E796" s="2"/>
       <c r="H796" s="8"/>
     </row>
-    <row r="797" spans="1:8" ht="15">
+    <row r="797" spans="1:8">
       <c r="A797" s="2"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -7780,7 +7777,7 @@
       <c r="E797" s="2"/>
       <c r="H797" s="8"/>
     </row>
-    <row r="798" spans="1:8" ht="15">
+    <row r="798" spans="1:8">
       <c r="A798" s="2"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -7788,7 +7785,7 @@
       <c r="E798" s="2"/>
       <c r="H798" s="8"/>
     </row>
-    <row r="799" spans="1:8" ht="15">
+    <row r="799" spans="1:8">
       <c r="A799" s="2"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -7796,7 +7793,7 @@
       <c r="E799" s="2"/>
       <c r="H799" s="8"/>
     </row>
-    <row r="800" spans="1:8" ht="15">
+    <row r="800" spans="1:8">
       <c r="A800" s="2"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -7804,7 +7801,7 @@
       <c r="E800" s="2"/>
       <c r="H800" s="8"/>
     </row>
-    <row r="801" spans="1:8" ht="15">
+    <row r="801" spans="1:8">
       <c r="A801" s="2"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -7812,7 +7809,7 @@
       <c r="E801" s="2"/>
       <c r="H801" s="8"/>
     </row>
-    <row r="802" spans="1:8" ht="15">
+    <row r="802" spans="1:8">
       <c r="A802" s="2"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -7820,7 +7817,7 @@
       <c r="E802" s="2"/>
       <c r="H802" s="8"/>
     </row>
-    <row r="803" spans="1:8" ht="15">
+    <row r="803" spans="1:8">
       <c r="A803" s="2"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -7828,7 +7825,7 @@
       <c r="E803" s="2"/>
       <c r="H803" s="8"/>
     </row>
-    <row r="804" spans="1:8" ht="15">
+    <row r="804" spans="1:8">
       <c r="A804" s="2"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -7836,7 +7833,7 @@
       <c r="E804" s="2"/>
       <c r="H804" s="8"/>
     </row>
-    <row r="805" spans="1:8" ht="15">
+    <row r="805" spans="1:8">
       <c r="A805" s="2"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -7844,7 +7841,7 @@
       <c r="E805" s="2"/>
       <c r="H805" s="8"/>
     </row>
-    <row r="806" spans="1:8" ht="15">
+    <row r="806" spans="1:8">
       <c r="A806" s="2"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -7852,7 +7849,7 @@
       <c r="E806" s="2"/>
       <c r="H806" s="8"/>
     </row>
-    <row r="807" spans="1:8" ht="15">
+    <row r="807" spans="1:8">
       <c r="A807" s="2"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -7860,7 +7857,7 @@
       <c r="E807" s="2"/>
       <c r="H807" s="8"/>
     </row>
-    <row r="808" spans="1:8" ht="15">
+    <row r="808" spans="1:8">
       <c r="A808" s="2"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -7868,7 +7865,7 @@
       <c r="E808" s="2"/>
       <c r="H808" s="8"/>
     </row>
-    <row r="809" spans="1:8" ht="15">
+    <row r="809" spans="1:8">
       <c r="A809" s="2"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -7876,7 +7873,7 @@
       <c r="E809" s="2"/>
       <c r="H809" s="8"/>
     </row>
-    <row r="810" spans="1:8" ht="15">
+    <row r="810" spans="1:8">
       <c r="A810" s="2"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -7884,7 +7881,7 @@
       <c r="E810" s="2"/>
       <c r="H810" s="8"/>
     </row>
-    <row r="811" spans="1:8" ht="15">
+    <row r="811" spans="1:8">
       <c r="A811" s="2"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -7892,7 +7889,7 @@
       <c r="E811" s="2"/>
       <c r="H811" s="8"/>
     </row>
-    <row r="812" spans="1:8" ht="15">
+    <row r="812" spans="1:8">
       <c r="A812" s="2"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -7900,7 +7897,7 @@
       <c r="E812" s="2"/>
       <c r="H812" s="8"/>
     </row>
-    <row r="813" spans="1:8" ht="15">
+    <row r="813" spans="1:8">
       <c r="A813" s="2"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -7908,7 +7905,7 @@
       <c r="E813" s="2"/>
       <c r="H813" s="8"/>
     </row>
-    <row r="814" spans="1:8" ht="15">
+    <row r="814" spans="1:8">
       <c r="A814" s="2"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -7916,7 +7913,7 @@
       <c r="E814" s="2"/>
       <c r="H814" s="8"/>
     </row>
-    <row r="815" spans="1:8" ht="15">
+    <row r="815" spans="1:8">
       <c r="A815" s="2"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -7924,7 +7921,7 @@
       <c r="E815" s="2"/>
       <c r="H815" s="8"/>
     </row>
-    <row r="816" spans="1:8" ht="15">
+    <row r="816" spans="1:8">
       <c r="A816" s="2"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -7932,7 +7929,7 @@
       <c r="E816" s="2"/>
       <c r="H816" s="8"/>
     </row>
-    <row r="817" spans="1:8" ht="15">
+    <row r="817" spans="1:8">
       <c r="A817" s="2"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -7940,7 +7937,7 @@
       <c r="E817" s="2"/>
       <c r="H817" s="8"/>
     </row>
-    <row r="818" spans="1:8" ht="15">
+    <row r="818" spans="1:8">
       <c r="A818" s="2"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -7948,7 +7945,7 @@
       <c r="E818" s="2"/>
       <c r="H818" s="8"/>
     </row>
-    <row r="819" spans="1:8" ht="15">
+    <row r="819" spans="1:8">
       <c r="A819" s="2"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -7956,7 +7953,7 @@
       <c r="E819" s="2"/>
       <c r="H819" s="8"/>
     </row>
-    <row r="820" spans="1:8" ht="15">
+    <row r="820" spans="1:8">
       <c r="A820" s="2"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -7964,7 +7961,7 @@
       <c r="E820" s="2"/>
       <c r="H820" s="8"/>
     </row>
-    <row r="821" spans="1:8" ht="15">
+    <row r="821" spans="1:8">
       <c r="A821" s="2"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -7972,7 +7969,7 @@
       <c r="E821" s="2"/>
       <c r="H821" s="8"/>
     </row>
-    <row r="822" spans="1:8" ht="15">
+    <row r="822" spans="1:8">
       <c r="A822" s="2"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -7980,7 +7977,7 @@
       <c r="E822" s="2"/>
       <c r="H822" s="8"/>
     </row>
-    <row r="823" spans="1:8" ht="15">
+    <row r="823" spans="1:8">
       <c r="A823" s="2"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -7988,7 +7985,7 @@
       <c r="E823" s="2"/>
       <c r="H823" s="8"/>
     </row>
-    <row r="824" spans="1:8" ht="15">
+    <row r="824" spans="1:8">
       <c r="A824" s="2"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -7996,7 +7993,7 @@
       <c r="E824" s="2"/>
       <c r="H824" s="8"/>
     </row>
-    <row r="825" spans="1:8" ht="15">
+    <row r="825" spans="1:8">
       <c r="A825" s="2"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -8004,7 +8001,7 @@
       <c r="E825" s="2"/>
       <c r="H825" s="8"/>
     </row>
-    <row r="826" spans="1:8" ht="15">
+    <row r="826" spans="1:8">
       <c r="A826" s="2"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -8012,7 +8009,7 @@
       <c r="E826" s="2"/>
       <c r="H826" s="8"/>
     </row>
-    <row r="827" spans="1:8" ht="15">
+    <row r="827" spans="1:8">
       <c r="A827" s="2"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -8020,7 +8017,7 @@
       <c r="E827" s="2"/>
       <c r="H827" s="8"/>
     </row>
-    <row r="828" spans="1:8" ht="15">
+    <row r="828" spans="1:8">
       <c r="A828" s="2"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -8028,7 +8025,7 @@
       <c r="E828" s="2"/>
       <c r="H828" s="8"/>
     </row>
-    <row r="829" spans="1:8" ht="15">
+    <row r="829" spans="1:8">
       <c r="A829" s="2"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -8036,7 +8033,7 @@
       <c r="E829" s="2"/>
       <c r="H829" s="8"/>
     </row>
-    <row r="830" spans="1:8" ht="15">
+    <row r="830" spans="1:8">
       <c r="A830" s="2"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -8044,7 +8041,7 @@
       <c r="E830" s="2"/>
       <c r="H830" s="8"/>
     </row>
-    <row r="831" spans="1:8" ht="15">
+    <row r="831" spans="1:8">
       <c r="A831" s="2"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -8052,7 +8049,7 @@
       <c r="E831" s="2"/>
       <c r="H831" s="8"/>
     </row>
-    <row r="832" spans="1:8" ht="15">
+    <row r="832" spans="1:8">
       <c r="A832" s="2"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -8060,7 +8057,7 @@
       <c r="E832" s="2"/>
       <c r="H832" s="8"/>
     </row>
-    <row r="833" spans="1:8" ht="15">
+    <row r="833" spans="1:8">
       <c r="A833" s="2"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -8068,7 +8065,7 @@
       <c r="E833" s="2"/>
       <c r="H833" s="8"/>
     </row>
-    <row r="834" spans="1:8" ht="15">
+    <row r="834" spans="1:8">
       <c r="A834" s="2"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -8076,7 +8073,7 @@
       <c r="E834" s="2"/>
       <c r="H834" s="8"/>
     </row>
-    <row r="835" spans="1:8" ht="15">
+    <row r="835" spans="1:8">
       <c r="A835" s="2"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -8084,7 +8081,7 @@
       <c r="E835" s="2"/>
       <c r="H835" s="8"/>
     </row>
-    <row r="836" spans="1:8" ht="15">
+    <row r="836" spans="1:8">
       <c r="A836" s="2"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -8092,7 +8089,7 @@
       <c r="E836" s="2"/>
       <c r="H836" s="8"/>
     </row>
-    <row r="837" spans="1:8" ht="15">
+    <row r="837" spans="1:8">
       <c r="A837" s="2"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -8100,7 +8097,7 @@
       <c r="E837" s="2"/>
       <c r="H837" s="8"/>
     </row>
-    <row r="838" spans="1:8" ht="15">
+    <row r="838" spans="1:8">
       <c r="A838" s="2"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -8108,7 +8105,7 @@
       <c r="E838" s="2"/>
       <c r="H838" s="8"/>
     </row>
-    <row r="839" spans="1:8" ht="15">
+    <row r="839" spans="1:8">
       <c r="A839" s="2"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -8116,7 +8113,7 @@
       <c r="E839" s="2"/>
       <c r="H839" s="8"/>
     </row>
-    <row r="840" spans="1:8" ht="15">
+    <row r="840" spans="1:8">
       <c r="A840" s="2"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -8124,7 +8121,7 @@
       <c r="E840" s="2"/>
       <c r="H840" s="8"/>
     </row>
-    <row r="841" spans="1:8" ht="15">
+    <row r="841" spans="1:8">
       <c r="A841" s="2"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -8132,7 +8129,7 @@
       <c r="E841" s="2"/>
       <c r="H841" s="8"/>
     </row>
-    <row r="842" spans="1:8" ht="15">
+    <row r="842" spans="1:8">
       <c r="A842" s="2"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -8140,7 +8137,7 @@
       <c r="E842" s="2"/>
       <c r="H842" s="8"/>
     </row>
-    <row r="843" spans="1:8" ht="15">
+    <row r="843" spans="1:8">
       <c r="A843" s="2"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -8148,7 +8145,7 @@
       <c r="E843" s="2"/>
       <c r="H843" s="8"/>
     </row>
-    <row r="844" spans="1:8" ht="15">
+    <row r="844" spans="1:8">
       <c r="A844" s="2"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -8156,7 +8153,7 @@
       <c r="E844" s="2"/>
       <c r="H844" s="8"/>
     </row>
-    <row r="845" spans="1:8" ht="15">
+    <row r="845" spans="1:8">
       <c r="A845" s="2"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -8164,7 +8161,7 @@
       <c r="E845" s="2"/>
       <c r="H845" s="8"/>
     </row>
-    <row r="846" spans="1:8" ht="15">
+    <row r="846" spans="1:8">
       <c r="A846" s="2"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -8172,7 +8169,7 @@
       <c r="E846" s="2"/>
       <c r="H846" s="8"/>
     </row>
-    <row r="847" spans="1:8" ht="15">
+    <row r="847" spans="1:8">
       <c r="A847" s="2"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -8180,7 +8177,7 @@
       <c r="E847" s="2"/>
       <c r="H847" s="8"/>
     </row>
-    <row r="848" spans="1:8" ht="15">
+    <row r="848" spans="1:8">
       <c r="A848" s="2"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -8188,7 +8185,7 @@
       <c r="E848" s="2"/>
       <c r="H848" s="8"/>
     </row>
-    <row r="849" spans="1:8" ht="15">
+    <row r="849" spans="1:8">
       <c r="A849" s="2"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -8196,7 +8193,7 @@
       <c r="E849" s="2"/>
       <c r="H849" s="8"/>
     </row>
-    <row r="850" spans="1:8" ht="15">
+    <row r="850" spans="1:8">
       <c r="A850" s="2"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -8204,7 +8201,7 @@
       <c r="E850" s="2"/>
       <c r="H850" s="8"/>
     </row>
-    <row r="851" spans="1:8" ht="15">
+    <row r="851" spans="1:8">
       <c r="A851" s="2"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -8212,7 +8209,7 @@
       <c r="E851" s="2"/>
       <c r="H851" s="8"/>
     </row>
-    <row r="852" spans="1:8" ht="15">
+    <row r="852" spans="1:8">
       <c r="A852" s="2"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -8220,7 +8217,7 @@
       <c r="E852" s="2"/>
       <c r="H852" s="8"/>
     </row>
-    <row r="853" spans="1:8" ht="15">
+    <row r="853" spans="1:8">
       <c r="A853" s="2"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -8228,7 +8225,7 @@
       <c r="E853" s="2"/>
       <c r="H853" s="8"/>
     </row>
-    <row r="854" spans="1:8" ht="15">
+    <row r="854" spans="1:8">
       <c r="A854" s="2"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -8236,7 +8233,7 @@
       <c r="E854" s="2"/>
       <c r="H854" s="8"/>
     </row>
-    <row r="855" spans="1:8" ht="15">
+    <row r="855" spans="1:8">
       <c r="A855" s="2"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -8244,7 +8241,7 @@
       <c r="E855" s="2"/>
       <c r="H855" s="8"/>
     </row>
-    <row r="856" spans="1:8" ht="15">
+    <row r="856" spans="1:8">
       <c r="A856" s="2"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -8252,7 +8249,7 @@
       <c r="E856" s="2"/>
       <c r="H856" s="8"/>
     </row>
-    <row r="857" spans="1:8" ht="15">
+    <row r="857" spans="1:8">
       <c r="A857" s="2"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -8260,7 +8257,7 @@
       <c r="E857" s="2"/>
       <c r="H857" s="8"/>
     </row>
-    <row r="858" spans="1:8" ht="15">
+    <row r="858" spans="1:8">
       <c r="A858" s="2"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -8268,7 +8265,7 @@
       <c r="E858" s="2"/>
       <c r="H858" s="8"/>
     </row>
-    <row r="859" spans="1:8" ht="15">
+    <row r="859" spans="1:8">
       <c r="A859" s="2"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -8276,7 +8273,7 @@
       <c r="E859" s="2"/>
       <c r="H859" s="8"/>
     </row>
-    <row r="860" spans="1:8" ht="15">
+    <row r="860" spans="1:8">
       <c r="A860" s="2"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -8284,7 +8281,7 @@
       <c r="E860" s="2"/>
       <c r="H860" s="8"/>
     </row>
-    <row r="861" spans="1:8" ht="15">
+    <row r="861" spans="1:8">
       <c r="A861" s="2"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -8292,7 +8289,7 @@
       <c r="E861" s="2"/>
       <c r="H861" s="8"/>
     </row>
-    <row r="862" spans="1:8" ht="15">
+    <row r="862" spans="1:8">
       <c r="A862" s="2"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -8300,7 +8297,7 @@
       <c r="E862" s="2"/>
       <c r="H862" s="8"/>
     </row>
-    <row r="863" spans="1:8" ht="15">
+    <row r="863" spans="1:8">
       <c r="A863" s="2"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -8308,7 +8305,7 @@
       <c r="E863" s="2"/>
       <c r="H863" s="8"/>
     </row>
-    <row r="864" spans="1:8" ht="15">
+    <row r="864" spans="1:8">
       <c r="A864" s="2"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -8316,7 +8313,7 @@
       <c r="E864" s="2"/>
       <c r="H864" s="8"/>
     </row>
-    <row r="865" spans="1:8" ht="15">
+    <row r="865" spans="1:8">
       <c r="A865" s="2"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -8324,7 +8321,7 @@
       <c r="E865" s="2"/>
       <c r="H865" s="8"/>
     </row>
-    <row r="866" spans="1:8" ht="15">
+    <row r="866" spans="1:8">
       <c r="A866" s="2"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -8332,7 +8329,7 @@
       <c r="E866" s="2"/>
       <c r="H866" s="8"/>
     </row>
-    <row r="867" spans="1:8" ht="15">
+    <row r="867" spans="1:8">
       <c r="A867" s="2"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -8340,7 +8337,7 @@
       <c r="E867" s="2"/>
       <c r="H867" s="8"/>
     </row>
-    <row r="868" spans="1:8" ht="15">
+    <row r="868" spans="1:8">
       <c r="A868" s="2"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -8348,7 +8345,7 @@
       <c r="E868" s="2"/>
       <c r="H868" s="8"/>
     </row>
-    <row r="869" spans="1:8" ht="15">
+    <row r="869" spans="1:8">
       <c r="A869" s="2"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -8356,7 +8353,7 @@
       <c r="E869" s="2"/>
       <c r="H869" s="8"/>
     </row>
-    <row r="870" spans="1:8" ht="15">
+    <row r="870" spans="1:8">
       <c r="A870" s="2"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -8364,7 +8361,7 @@
       <c r="E870" s="2"/>
       <c r="H870" s="8"/>
     </row>
-    <row r="871" spans="1:8" ht="15">
+    <row r="871" spans="1:8">
       <c r="A871" s="2"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -8372,7 +8369,7 @@
       <c r="E871" s="2"/>
       <c r="H871" s="8"/>
     </row>
-    <row r="872" spans="1:8" ht="15">
+    <row r="872" spans="1:8">
       <c r="A872" s="2"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -8380,7 +8377,7 @@
       <c r="E872" s="2"/>
       <c r="H872" s="8"/>
     </row>
-    <row r="873" spans="1:8" ht="15">
+    <row r="873" spans="1:8">
       <c r="A873" s="2"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -8388,7 +8385,7 @@
       <c r="E873" s="2"/>
       <c r="H873" s="8"/>
     </row>
-    <row r="874" spans="1:8" ht="15">
+    <row r="874" spans="1:8">
       <c r="A874" s="2"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -8396,7 +8393,7 @@
       <c r="E874" s="2"/>
       <c r="H874" s="8"/>
     </row>
-    <row r="875" spans="1:8" ht="15">
+    <row r="875" spans="1:8">
       <c r="A875" s="2"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -8404,7 +8401,7 @@
       <c r="E875" s="2"/>
       <c r="H875" s="8"/>
     </row>
-    <row r="876" spans="1:8" ht="15">
+    <row r="876" spans="1:8">
       <c r="A876" s="2"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -8412,7 +8409,7 @@
       <c r="E876" s="2"/>
       <c r="H876" s="8"/>
     </row>
-    <row r="877" spans="1:8" ht="15">
+    <row r="877" spans="1:8">
       <c r="A877" s="2"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -8420,7 +8417,7 @@
       <c r="E877" s="2"/>
       <c r="H877" s="8"/>
     </row>
-    <row r="878" spans="1:8" ht="15">
+    <row r="878" spans="1:8">
       <c r="A878" s="2"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -8428,7 +8425,7 @@
       <c r="E878" s="2"/>
       <c r="H878" s="8"/>
     </row>
-    <row r="879" spans="1:8" ht="15">
+    <row r="879" spans="1:8">
       <c r="A879" s="2"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -8436,7 +8433,7 @@
       <c r="E879" s="2"/>
       <c r="H879" s="8"/>
     </row>
-    <row r="880" spans="1:8" ht="15">
+    <row r="880" spans="1:8">
       <c r="A880" s="2"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -8444,7 +8441,7 @@
       <c r="E880" s="2"/>
       <c r="H880" s="8"/>
     </row>
-    <row r="881" spans="1:8" ht="15">
+    <row r="881" spans="1:8">
       <c r="A881" s="2"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -8452,7 +8449,7 @@
       <c r="E881" s="2"/>
       <c r="H881" s="8"/>
     </row>
-    <row r="882" spans="1:8" ht="15">
+    <row r="882" spans="1:8">
       <c r="A882" s="2"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -8460,7 +8457,7 @@
       <c r="E882" s="2"/>
       <c r="H882" s="8"/>
     </row>
-    <row r="883" spans="1:8" ht="15">
+    <row r="883" spans="1:8">
       <c r="A883" s="2"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -8468,7 +8465,7 @@
       <c r="E883" s="2"/>
       <c r="H883" s="8"/>
     </row>
-    <row r="884" spans="1:8" ht="15">
+    <row r="884" spans="1:8">
       <c r="A884" s="2"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -8476,7 +8473,7 @@
       <c r="E884" s="2"/>
       <c r="H884" s="8"/>
     </row>
-    <row r="885" spans="1:8" ht="15">
+    <row r="885" spans="1:8">
       <c r="A885" s="2"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -8484,7 +8481,7 @@
       <c r="E885" s="2"/>
       <c r="H885" s="8"/>
     </row>
-    <row r="886" spans="1:8" ht="15">
+    <row r="886" spans="1:8">
       <c r="A886" s="2"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -8492,7 +8489,7 @@
       <c r="E886" s="2"/>
       <c r="H886" s="8"/>
     </row>
-    <row r="887" spans="1:8" ht="15">
+    <row r="887" spans="1:8">
       <c r="A887" s="2"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -8500,7 +8497,7 @@
       <c r="E887" s="2"/>
       <c r="H887" s="8"/>
     </row>
-    <row r="888" spans="1:8" ht="15">
+    <row r="888" spans="1:8">
       <c r="A888" s="2"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -8508,7 +8505,7 @@
       <c r="E888" s="2"/>
       <c r="H888" s="8"/>
     </row>
-    <row r="889" spans="1:8" ht="15">
+    <row r="889" spans="1:8">
       <c r="A889" s="2"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -8516,7 +8513,7 @@
       <c r="E889" s="2"/>
       <c r="H889" s="8"/>
     </row>
-    <row r="890" spans="1:8" ht="15">
+    <row r="890" spans="1:8">
       <c r="A890" s="2"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -8524,7 +8521,7 @@
       <c r="E890" s="2"/>
       <c r="H890" s="8"/>
     </row>
-    <row r="891" spans="1:8" ht="15">
+    <row r="891" spans="1:8">
       <c r="A891" s="2"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -8532,7 +8529,7 @@
       <c r="E891" s="2"/>
       <c r="H891" s="8"/>
     </row>
-    <row r="892" spans="1:8" ht="15">
+    <row r="892" spans="1:8">
       <c r="A892" s="2"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -8540,7 +8537,7 @@
       <c r="E892" s="2"/>
       <c r="H892" s="8"/>
     </row>
-    <row r="893" spans="1:8" ht="15">
+    <row r="893" spans="1:8">
       <c r="A893" s="2"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -8548,7 +8545,7 @@
       <c r="E893" s="2"/>
       <c r="H893" s="8"/>
     </row>
-    <row r="894" spans="1:8" ht="15">
+    <row r="894" spans="1:8">
       <c r="A894" s="2"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -8556,7 +8553,7 @@
       <c r="E894" s="2"/>
       <c r="H894" s="8"/>
     </row>
-    <row r="895" spans="1:8" ht="15">
+    <row r="895" spans="1:8">
       <c r="A895" s="2"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -8564,7 +8561,7 @@
       <c r="E895" s="2"/>
       <c r="H895" s="8"/>
     </row>
-    <row r="896" spans="1:8" ht="15">
+    <row r="896" spans="1:8">
       <c r="A896" s="2"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -8572,7 +8569,7 @@
       <c r="E896" s="2"/>
       <c r="H896" s="8"/>
     </row>
-    <row r="897" spans="1:8" ht="15">
+    <row r="897" spans="1:8">
       <c r="A897" s="2"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -8580,7 +8577,7 @@
       <c r="E897" s="2"/>
       <c r="H897" s="8"/>
     </row>
-    <row r="898" spans="1:8" ht="15">
+    <row r="898" spans="1:8">
       <c r="A898" s="2"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -8588,7 +8585,7 @@
       <c r="E898" s="2"/>
       <c r="H898" s="8"/>
     </row>
-    <row r="899" spans="1:8" ht="15">
+    <row r="899" spans="1:8">
       <c r="A899" s="2"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -8596,7 +8593,7 @@
       <c r="E899" s="2"/>
       <c r="H899" s="8"/>
     </row>
-    <row r="900" spans="1:8" ht="15">
+    <row r="900" spans="1:8">
       <c r="A900" s="2"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -8604,7 +8601,7 @@
       <c r="E900" s="2"/>
       <c r="H900" s="8"/>
     </row>
-    <row r="901" spans="1:8" ht="15">
+    <row r="901" spans="1:8">
       <c r="A901" s="2"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -8612,7 +8609,7 @@
       <c r="E901" s="2"/>
       <c r="H901" s="8"/>
     </row>
-    <row r="902" spans="1:8" ht="15">
+    <row r="902" spans="1:8">
       <c r="A902" s="2"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -8620,7 +8617,7 @@
       <c r="E902" s="2"/>
       <c r="H902" s="8"/>
     </row>
-    <row r="903" spans="1:8" ht="15">
+    <row r="903" spans="1:8">
       <c r="A903" s="2"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -8628,7 +8625,7 @@
       <c r="E903" s="2"/>
       <c r="H903" s="8"/>
     </row>
-    <row r="904" spans="1:8" ht="15">
+    <row r="904" spans="1:8">
       <c r="A904" s="2"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -8636,7 +8633,7 @@
       <c r="E904" s="2"/>
       <c r="H904" s="8"/>
     </row>
-    <row r="905" spans="1:8" ht="15">
+    <row r="905" spans="1:8">
       <c r="A905" s="2"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -8644,7 +8641,7 @@
       <c r="E905" s="2"/>
       <c r="H905" s="8"/>
     </row>
-    <row r="906" spans="1:8" ht="15">
+    <row r="906" spans="1:8">
       <c r="A906" s="2"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -8652,7 +8649,7 @@
       <c r="E906" s="2"/>
       <c r="H906" s="8"/>
     </row>
-    <row r="907" spans="1:8" ht="15">
+    <row r="907" spans="1:8">
       <c r="A907" s="2"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -8660,7 +8657,7 @@
       <c r="E907" s="2"/>
       <c r="H907" s="8"/>
     </row>
-    <row r="908" spans="1:8" ht="15">
+    <row r="908" spans="1:8">
       <c r="A908" s="2"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -8668,7 +8665,7 @@
       <c r="E908" s="2"/>
       <c r="H908" s="8"/>
     </row>
-    <row r="909" spans="1:8" ht="15">
+    <row r="909" spans="1:8">
       <c r="A909" s="2"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -8676,7 +8673,7 @@
       <c r="E909" s="2"/>
       <c r="H909" s="8"/>
     </row>
-    <row r="910" spans="1:8" ht="15">
+    <row r="910" spans="1:8">
       <c r="A910" s="2"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -8684,7 +8681,7 @@
       <c r="E910" s="2"/>
       <c r="H910" s="8"/>
     </row>
-    <row r="911" spans="1:8" ht="15">
+    <row r="911" spans="1:8">
       <c r="A911" s="2"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -8692,7 +8689,7 @@
       <c r="E911" s="2"/>
       <c r="H911" s="8"/>
     </row>
-    <row r="912" spans="1:8" ht="15">
+    <row r="912" spans="1:8">
       <c r="A912" s="2"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -8700,7 +8697,7 @@
       <c r="E912" s="2"/>
       <c r="H912" s="8"/>
     </row>
-    <row r="913" spans="1:8" ht="15">
+    <row r="913" spans="1:8">
       <c r="A913" s="2"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -8708,7 +8705,7 @@
       <c r="E913" s="2"/>
       <c r="H913" s="8"/>
     </row>
-    <row r="914" spans="1:8" ht="15">
+    <row r="914" spans="1:8">
       <c r="A914" s="2"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -8716,7 +8713,7 @@
       <c r="E914" s="2"/>
       <c r="H914" s="8"/>
     </row>
-    <row r="915" spans="1:8" ht="15">
+    <row r="915" spans="1:8">
       <c r="A915" s="2"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -8724,7 +8721,7 @@
       <c r="E915" s="2"/>
       <c r="H915" s="8"/>
     </row>
-    <row r="916" spans="1:8" ht="15">
+    <row r="916" spans="1:8">
       <c r="A916" s="2"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -8732,7 +8729,7 @@
       <c r="E916" s="2"/>
       <c r="H916" s="8"/>
     </row>
-    <row r="917" spans="1:8" ht="15">
+    <row r="917" spans="1:8">
       <c r="A917" s="2"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -8740,7 +8737,7 @@
       <c r="E917" s="2"/>
       <c r="H917" s="8"/>
     </row>
-    <row r="918" spans="1:8" ht="15">
+    <row r="918" spans="1:8">
       <c r="A918" s="2"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -8748,7 +8745,7 @@
       <c r="E918" s="2"/>
       <c r="H918" s="8"/>
     </row>
-    <row r="919" spans="1:8" ht="15">
+    <row r="919" spans="1:8">
       <c r="A919" s="2"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -8756,7 +8753,7 @@
       <c r="E919" s="2"/>
       <c r="H919" s="8"/>
     </row>
-    <row r="920" spans="1:8" ht="15">
+    <row r="920" spans="1:8">
       <c r="A920" s="2"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -8764,7 +8761,7 @@
       <c r="E920" s="2"/>
       <c r="H920" s="8"/>
     </row>
-    <row r="921" spans="1:8" ht="15">
+    <row r="921" spans="1:8">
       <c r="A921" s="2"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -8772,7 +8769,7 @@
       <c r="E921" s="2"/>
       <c r="H921" s="8"/>
     </row>
-    <row r="922" spans="1:8" ht="15">
+    <row r="922" spans="1:8">
       <c r="A922" s="2"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -8780,7 +8777,7 @@
       <c r="E922" s="2"/>
       <c r="H922" s="8"/>
     </row>
-    <row r="923" spans="1:8" ht="15">
+    <row r="923" spans="1:8">
       <c r="A923" s="2"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -8788,7 +8785,7 @@
       <c r="E923" s="2"/>
       <c r="H923" s="8"/>
     </row>
-    <row r="924" spans="1:8" ht="15">
+    <row r="924" spans="1:8">
       <c r="A924" s="2"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -8796,7 +8793,7 @@
       <c r="E924" s="2"/>
       <c r="H924" s="8"/>
     </row>
-    <row r="925" spans="1:8" ht="15">
+    <row r="925" spans="1:8">
       <c r="A925" s="2"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -8804,7 +8801,7 @@
       <c r="E925" s="2"/>
       <c r="H925" s="8"/>
     </row>
-    <row r="926" spans="1:8" ht="15">
+    <row r="926" spans="1:8">
       <c r="A926" s="2"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -8812,7 +8809,7 @@
       <c r="E926" s="2"/>
       <c r="H926" s="8"/>
     </row>
-    <row r="927" spans="1:8" ht="15">
+    <row r="927" spans="1:8">
       <c r="A927" s="2"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -8820,7 +8817,7 @@
       <c r="E927" s="2"/>
       <c r="H927" s="8"/>
     </row>
-    <row r="928" spans="1:8" ht="15">
+    <row r="928" spans="1:8">
       <c r="A928" s="2"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -8828,7 +8825,7 @@
       <c r="E928" s="2"/>
       <c r="H928" s="8"/>
     </row>
-    <row r="929" spans="1:8" ht="15">
+    <row r="929" spans="1:8">
       <c r="A929" s="2"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -8836,7 +8833,7 @@
       <c r="E929" s="2"/>
       <c r="H929" s="8"/>
     </row>
-    <row r="930" spans="1:8" ht="15">
+    <row r="930" spans="1:8">
       <c r="A930" s="2"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -8844,7 +8841,7 @@
       <c r="E930" s="2"/>
       <c r="H930" s="8"/>
     </row>
-    <row r="931" spans="1:8" ht="15">
+    <row r="931" spans="1:8">
       <c r="A931" s="2"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -8852,7 +8849,7 @@
       <c r="E931" s="2"/>
       <c r="H931" s="8"/>
     </row>
-    <row r="932" spans="1:8" ht="15">
+    <row r="932" spans="1:8">
       <c r="A932" s="2"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -8860,7 +8857,7 @@
       <c r="E932" s="2"/>
       <c r="H932" s="8"/>
     </row>
-    <row r="933" spans="1:8" ht="15">
+    <row r="933" spans="1:8">
       <c r="A933" s="2"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -8868,7 +8865,7 @@
       <c r="E933" s="2"/>
       <c r="H933" s="8"/>
     </row>
-    <row r="934" spans="1:8" ht="15">
+    <row r="934" spans="1:8">
       <c r="A934" s="2"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -8876,7 +8873,7 @@
       <c r="E934" s="2"/>
       <c r="H934" s="8"/>
     </row>
-    <row r="935" spans="1:8" ht="15">
+    <row r="935" spans="1:8">
       <c r="A935" s="2"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -8884,7 +8881,7 @@
       <c r="E935" s="2"/>
       <c r="H935" s="8"/>
     </row>
-    <row r="936" spans="1:8" ht="15">
+    <row r="936" spans="1:8">
       <c r="A936" s="2"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -8892,7 +8889,7 @@
       <c r="E936" s="2"/>
       <c r="H936" s="8"/>
     </row>
-    <row r="937" spans="1:8" ht="15">
+    <row r="937" spans="1:8">
       <c r="A937" s="2"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -8900,7 +8897,7 @@
       <c r="E937" s="2"/>
       <c r="H937" s="8"/>
     </row>
-    <row r="938" spans="1:8" ht="15">
+    <row r="938" spans="1:8">
       <c r="A938" s="2"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -8908,7 +8905,7 @@
       <c r="E938" s="2"/>
       <c r="H938" s="8"/>
     </row>
-    <row r="939" spans="1:8" ht="15">
+    <row r="939" spans="1:8">
       <c r="A939" s="2"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -8916,7 +8913,7 @@
       <c r="E939" s="2"/>
       <c r="H939" s="8"/>
     </row>
-    <row r="940" spans="1:8" ht="15">
+    <row r="940" spans="1:8">
       <c r="A940" s="2"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -8924,7 +8921,7 @@
       <c r="E940" s="2"/>
       <c r="H940" s="8"/>
     </row>
-    <row r="941" spans="1:8" ht="15">
+    <row r="941" spans="1:8">
       <c r="A941" s="2"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -8932,7 +8929,7 @@
       <c r="E941" s="2"/>
       <c r="H941" s="8"/>
     </row>
-    <row r="942" spans="1:8" ht="15">
+    <row r="942" spans="1:8">
       <c r="A942" s="2"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -8940,7 +8937,7 @@
       <c r="E942" s="2"/>
       <c r="H942" s="8"/>
     </row>
-    <row r="943" spans="1:8" ht="15">
+    <row r="943" spans="1:8">
       <c r="A943" s="2"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -8948,7 +8945,7 @@
       <c r="E943" s="2"/>
       <c r="H943" s="8"/>
     </row>
-    <row r="944" spans="1:8" ht="15">
+    <row r="944" spans="1:8">
       <c r="A944" s="2"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -8956,7 +8953,7 @@
       <c r="E944" s="2"/>
       <c r="H944" s="8"/>
     </row>
-    <row r="945" spans="1:8" ht="15">
+    <row r="945" spans="1:8">
       <c r="A945" s="2"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -8964,7 +8961,7 @@
       <c r="E945" s="2"/>
       <c r="H945" s="8"/>
     </row>
-    <row r="946" spans="1:8" ht="15">
+    <row r="946" spans="1:8">
       <c r="A946" s="2"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -8972,7 +8969,7 @@
       <c r="E946" s="2"/>
       <c r="H946" s="8"/>
     </row>
-    <row r="947" spans="1:8" ht="15">
+    <row r="947" spans="1:8">
       <c r="A947" s="2"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -8980,7 +8977,7 @@
       <c r="E947" s="2"/>
       <c r="H947" s="8"/>
     </row>
-    <row r="948" spans="1:8" ht="15">
+    <row r="948" spans="1:8">
       <c r="A948" s="2"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -8988,7 +8985,7 @@
       <c r="E948" s="2"/>
       <c r="H948" s="8"/>
     </row>
-    <row r="949" spans="1:8" ht="15">
+    <row r="949" spans="1:8">
       <c r="A949" s="2"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -8996,7 +8993,7 @@
       <c r="E949" s="2"/>
       <c r="H949" s="8"/>
     </row>
-    <row r="950" spans="1:8" ht="15">
+    <row r="950" spans="1:8">
       <c r="A950" s="2"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -9004,7 +9001,7 @@
       <c r="E950" s="2"/>
       <c r="H950" s="8"/>
     </row>
-    <row r="951" spans="1:8" ht="15">
+    <row r="951" spans="1:8">
       <c r="A951" s="2"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -9012,7 +9009,7 @@
       <c r="E951" s="2"/>
       <c r="H951" s="8"/>
     </row>
-    <row r="952" spans="1:8" ht="15">
+    <row r="952" spans="1:8">
       <c r="A952" s="2"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -9020,7 +9017,7 @@
       <c r="E952" s="2"/>
       <c r="H952" s="8"/>
     </row>
-    <row r="953" spans="1:8" ht="15">
+    <row r="953" spans="1:8">
       <c r="A953" s="2"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -9028,7 +9025,7 @@
       <c r="E953" s="2"/>
       <c r="H953" s="8"/>
     </row>
-    <row r="954" spans="1:8" ht="15">
+    <row r="954" spans="1:8">
       <c r="A954" s="2"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -9036,7 +9033,7 @@
       <c r="E954" s="2"/>
       <c r="H954" s="8"/>
     </row>
-    <row r="955" spans="1:8" ht="15">
+    <row r="955" spans="1:8">
       <c r="A955" s="2"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -9044,7 +9041,7 @@
       <c r="E955" s="2"/>
       <c r="H955" s="8"/>
     </row>
-    <row r="956" spans="1:8" ht="15">
+    <row r="956" spans="1:8">
       <c r="A956" s="2"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -9052,7 +9049,7 @@
       <c r="E956" s="2"/>
       <c r="H956" s="8"/>
     </row>
-    <row r="957" spans="1:8" ht="15">
+    <row r="957" spans="1:8">
       <c r="A957" s="2"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -9060,7 +9057,7 @@
       <c r="E957" s="2"/>
       <c r="H957" s="8"/>
     </row>
-    <row r="958" spans="1:8" ht="15">
+    <row r="958" spans="1:8">
       <c r="A958" s="2"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -9068,7 +9065,7 @@
       <c r="E958" s="2"/>
       <c r="H958" s="8"/>
     </row>
-    <row r="959" spans="1:8" ht="15">
+    <row r="959" spans="1:8">
       <c r="A959" s="2"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -9076,7 +9073,7 @@
       <c r="E959" s="2"/>
       <c r="H959" s="8"/>
     </row>
-    <row r="960" spans="1:8" ht="15">
+    <row r="960" spans="1:8">
       <c r="A960" s="2"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -9084,7 +9081,7 @@
       <c r="E960" s="2"/>
       <c r="H960" s="8"/>
     </row>
-    <row r="961" spans="1:8" ht="15">
+    <row r="961" spans="1:8">
       <c r="A961" s="2"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -9092,7 +9089,7 @@
       <c r="E961" s="2"/>
       <c r="H961" s="8"/>
     </row>
-    <row r="962" spans="1:8" ht="15">
+    <row r="962" spans="1:8">
       <c r="A962" s="2"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -9100,7 +9097,7 @@
       <c r="E962" s="2"/>
       <c r="H962" s="8"/>
     </row>
-    <row r="963" spans="1:8" ht="15">
+    <row r="963" spans="1:8">
       <c r="A963" s="2"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -9108,7 +9105,7 @@
       <c r="E963" s="2"/>
       <c r="H963" s="8"/>
     </row>
-    <row r="964" spans="1:8" ht="15">
+    <row r="964" spans="1:8">
       <c r="A964" s="2"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -9116,7 +9113,7 @@
       <c r="E964" s="2"/>
       <c r="H964" s="8"/>
     </row>
-    <row r="965" spans="1:8" ht="15">
+    <row r="965" spans="1:8">
       <c r="A965" s="2"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -9124,7 +9121,7 @@
       <c r="E965" s="2"/>
       <c r="H965" s="8"/>
     </row>
-    <row r="966" spans="1:8" ht="15">
+    <row r="966" spans="1:8">
       <c r="A966" s="2"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -9132,7 +9129,7 @@
       <c r="E966" s="2"/>
       <c r="H966" s="8"/>
     </row>
-    <row r="967" spans="1:8" ht="15">
+    <row r="967" spans="1:8">
       <c r="A967" s="2"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -9140,7 +9137,7 @@
       <c r="E967" s="2"/>
       <c r="H967" s="8"/>
     </row>
-    <row r="968" spans="1:8" ht="15">
+    <row r="968" spans="1:8">
       <c r="A968" s="2"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -9148,7 +9145,7 @@
       <c r="E968" s="2"/>
       <c r="H968" s="8"/>
     </row>
-    <row r="969" spans="1:8" ht="15">
+    <row r="969" spans="1:8">
       <c r="A969" s="2"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -9156,7 +9153,7 @@
       <c r="E969" s="2"/>
       <c r="H969" s="8"/>
     </row>
-    <row r="970" spans="1:8" ht="15">
+    <row r="970" spans="1:8">
       <c r="A970" s="2"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -9164,7 +9161,7 @@
       <c r="E970" s="2"/>
       <c r="H970" s="8"/>
     </row>
-    <row r="971" spans="1:8" ht="15">
+    <row r="971" spans="1:8">
       <c r="A971" s="2"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -9172,7 +9169,7 @@
       <c r="E971" s="2"/>
       <c r="H971" s="8"/>
     </row>
-    <row r="972" spans="1:8" ht="15">
+    <row r="972" spans="1:8">
       <c r="A972" s="2"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -9180,7 +9177,7 @@
       <c r="E972" s="2"/>
       <c r="H972" s="8"/>
     </row>
-    <row r="973" spans="1:8" ht="15">
+    <row r="973" spans="1:8">
       <c r="A973" s="2"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -9188,7 +9185,7 @@
       <c r="E973" s="2"/>
       <c r="H973" s="8"/>
     </row>
-    <row r="974" spans="1:8" ht="15">
+    <row r="974" spans="1:8">
       <c r="A974" s="2"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -9196,7 +9193,7 @@
       <c r="E974" s="2"/>
       <c r="H974" s="8"/>
     </row>
-    <row r="975" spans="1:8" ht="15">
+    <row r="975" spans="1:8">
       <c r="A975" s="2"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -9204,7 +9201,7 @@
       <c r="E975" s="2"/>
       <c r="H975" s="8"/>
     </row>
-    <row r="976" spans="1:8" ht="15">
+    <row r="976" spans="1:8">
       <c r="A976" s="2"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -9212,7 +9209,7 @@
       <c r="E976" s="2"/>
       <c r="H976" s="8"/>
     </row>
-    <row r="977" spans="1:8" ht="15">
+    <row r="977" spans="1:8">
       <c r="A977" s="2"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -9220,7 +9217,7 @@
       <c r="E977" s="2"/>
       <c r="H977" s="8"/>
     </row>
-    <row r="978" spans="1:8" ht="15">
+    <row r="978" spans="1:8">
       <c r="A978" s="2"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -9228,7 +9225,7 @@
       <c r="E978" s="2"/>
       <c r="H978" s="8"/>
     </row>
-    <row r="979" spans="1:8" ht="15">
+    <row r="979" spans="1:8">
       <c r="A979" s="2"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -9236,7 +9233,7 @@
       <c r="E979" s="2"/>
       <c r="H979" s="8"/>
     </row>
-    <row r="980" spans="1:8" ht="15">
+    <row r="980" spans="1:8">
       <c r="A980" s="2"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -9244,7 +9241,7 @@
       <c r="E980" s="2"/>
       <c r="H980" s="8"/>
     </row>
-    <row r="981" spans="1:8" ht="15">
+    <row r="981" spans="1:8">
       <c r="A981" s="2"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -9252,7 +9249,7 @@
       <c r="E981" s="2"/>
       <c r="H981" s="8"/>
     </row>
-    <row r="982" spans="1:8" ht="15">
+    <row r="982" spans="1:8">
       <c r="A982" s="2"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -9260,7 +9257,7 @@
       <c r="E982" s="2"/>
       <c r="H982" s="8"/>
     </row>
-    <row r="983" spans="1:8" ht="15">
+    <row r="983" spans="1:8">
       <c r="A983" s="2"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -9268,7 +9265,7 @@
       <c r="E983" s="2"/>
       <c r="H983" s="8"/>
     </row>
-    <row r="984" spans="1:8" ht="15">
+    <row r="984" spans="1:8">
       <c r="A984" s="2"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -9276,7 +9273,7 @@
       <c r="E984" s="2"/>
       <c r="H984" s="8"/>
     </row>
-    <row r="985" spans="1:8" ht="15">
+    <row r="985" spans="1:8">
       <c r="A985" s="2"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -9284,7 +9281,7 @@
       <c r="E985" s="2"/>
       <c r="H985" s="8"/>
     </row>
-    <row r="986" spans="1:8" ht="15">
+    <row r="986" spans="1:8">
       <c r="A986" s="2"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -9292,7 +9289,7 @@
       <c r="E986" s="2"/>
       <c r="H986" s="8"/>
     </row>
-    <row r="987" spans="1:8" ht="15">
+    <row r="987" spans="1:8">
       <c r="A987" s="2"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -9300,7 +9297,7 @@
       <c r="E987" s="2"/>
       <c r="H987" s="8"/>
     </row>
-    <row r="988" spans="1:8" ht="15">
+    <row r="988" spans="1:8">
       <c r="A988" s="2"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -9308,7 +9305,7 @@
       <c r="E988" s="2"/>
       <c r="H988" s="8"/>
     </row>
-    <row r="989" spans="1:8" ht="15">
+    <row r="989" spans="1:8">
       <c r="A989" s="2"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -9316,7 +9313,7 @@
       <c r="E989" s="2"/>
       <c r="H989" s="8"/>
     </row>
-    <row r="990" spans="1:8" ht="15">
+    <row r="990" spans="1:8">
       <c r="A990" s="2"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -9324,7 +9321,7 @@
       <c r="E990" s="2"/>
       <c r="H990" s="8"/>
     </row>
-    <row r="991" spans="1:8" ht="15">
+    <row r="991" spans="1:8">
       <c r="A991" s="2"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -9332,7 +9329,7 @@
       <c r="E991" s="2"/>
       <c r="H991" s="8"/>
     </row>
-    <row r="992" spans="1:8" ht="15">
+    <row r="992" spans="1:8">
       <c r="A992" s="2"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -9340,7 +9337,7 @@
       <c r="E992" s="2"/>
       <c r="H992" s="8"/>
     </row>
-    <row r="993" spans="1:8" ht="15">
+    <row r="993" spans="1:8">
       <c r="A993" s="2"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -9348,7 +9345,7 @@
       <c r="E993" s="2"/>
       <c r="H993" s="8"/>
     </row>
-    <row r="994" spans="1:8" ht="15">
+    <row r="994" spans="1:8">
       <c r="A994" s="2"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -9356,7 +9353,7 @@
       <c r="E994" s="2"/>
       <c r="H994" s="8"/>
     </row>
-    <row r="995" spans="1:8" ht="15">
+    <row r="995" spans="1:8">
       <c r="A995" s="2"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -9364,7 +9361,7 @@
       <c r="E995" s="2"/>
       <c r="H995" s="8"/>
     </row>
-    <row r="996" spans="1:8" ht="15">
+    <row r="996" spans="1:8">
       <c r="A996" s="2"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -9372,7 +9369,7 @@
       <c r="E996" s="2"/>
       <c r="H996" s="8"/>
     </row>
-    <row r="997" spans="1:8" ht="15">
+    <row r="997" spans="1:8">
       <c r="A997" s="2"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -9380,7 +9377,7 @@
       <c r="E997" s="2"/>
       <c r="H997" s="8"/>
     </row>
-    <row r="998" spans="1:8" ht="15">
+    <row r="998" spans="1:8">
       <c r="A998" s="2"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -9388,7 +9385,7 @@
       <c r="E998" s="2"/>
       <c r="H998" s="8"/>
     </row>
-    <row r="999" spans="1:8" ht="15">
+    <row r="999" spans="1:8">
       <c r="A999" s="2"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -9396,7 +9393,7 @@
       <c r="E999" s="2"/>
       <c r="H999" s="8"/>
     </row>
-    <row r="1000" spans="1:8" ht="15">
+    <row r="1000" spans="1:8">
       <c r="A1000" s="2"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -9404,7 +9401,7 @@
       <c r="E1000" s="2"/>
       <c r="H1000" s="8"/>
     </row>
-    <row r="1001" spans="1:8" ht="15">
+    <row r="1001" spans="1:8">
       <c r="A1001" s="2"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
@@ -9412,7 +9409,7 @@
       <c r="E1001" s="2"/>
       <c r="H1001" s="8"/>
     </row>
-    <row r="1002" spans="1:8" ht="15">
+    <row r="1002" spans="1:8">
       <c r="A1002" s="2"/>
       <c r="B1002" s="3"/>
       <c r="C1002" s="3"/>
@@ -9420,7 +9417,7 @@
       <c r="E1002" s="2"/>
       <c r="H1002" s="8"/>
     </row>
-    <row r="1003" spans="1:8" ht="15">
+    <row r="1003" spans="1:8">
       <c r="A1003" s="2"/>
       <c r="B1003" s="3"/>
       <c r="C1003" s="3"/>
@@ -9428,7 +9425,7 @@
       <c r="E1003" s="2"/>
       <c r="H1003" s="8"/>
     </row>
-    <row r="1004" spans="1:8" ht="15">
+    <row r="1004" spans="1:8">
       <c r="A1004" s="2"/>
       <c r="B1004" s="3"/>
       <c r="C1004" s="3"/>
@@ -9436,7 +9433,7 @@
       <c r="E1004" s="2"/>
       <c r="H1004" s="8"/>
     </row>
-    <row r="1005" spans="1:8" ht="15">
+    <row r="1005" spans="1:8">
       <c r="A1005" s="2"/>
       <c r="B1005" s="3"/>
       <c r="C1005" s="3"/>
@@ -9444,7 +9441,7 @@
       <c r="E1005" s="2"/>
       <c r="H1005" s="8"/>
     </row>
-    <row r="1006" spans="1:8" ht="15">
+    <row r="1006" spans="1:8">
       <c r="A1006" s="2"/>
       <c r="B1006" s="3"/>
       <c r="C1006" s="3"/>
@@ -9452,7 +9449,7 @@
       <c r="E1006" s="2"/>
       <c r="H1006" s="8"/>
     </row>
-    <row r="1007" spans="1:8" ht="15">
+    <row r="1007" spans="1:8">
       <c r="A1007" s="2"/>
       <c r="B1007" s="3"/>
       <c r="C1007" s="3"/>
@@ -9460,7 +9457,7 @@
       <c r="E1007" s="2"/>
       <c r="H1007" s="8"/>
     </row>
-    <row r="1008" spans="1:8" ht="15">
+    <row r="1008" spans="1:8">
       <c r="A1008" s="2"/>
       <c r="B1008" s="3"/>
       <c r="C1008" s="3"/>
@@ -9468,7 +9465,7 @@
       <c r="E1008" s="2"/>
       <c r="H1008" s="8"/>
     </row>
-    <row r="1009" spans="1:8" ht="15">
+    <row r="1009" spans="1:8">
       <c r="A1009" s="2"/>
       <c r="B1009" s="3"/>
       <c r="C1009" s="3"/>
@@ -9476,7 +9473,7 @@
       <c r="E1009" s="2"/>
       <c r="H1009" s="8"/>
     </row>
-    <row r="1010" spans="1:8" ht="15">
+    <row r="1010" spans="1:8">
       <c r="A1010" s="2"/>
       <c r="B1010" s="3"/>
       <c r="C1010" s="3"/>
@@ -9484,7 +9481,7 @@
       <c r="E1010" s="2"/>
       <c r="H1010" s="8"/>
     </row>
-    <row r="1011" spans="1:8" ht="15">
+    <row r="1011" spans="1:8">
       <c r="A1011" s="2"/>
       <c r="B1011" s="3"/>
       <c r="C1011" s="3"/>
@@ -9492,7 +9489,7 @@
       <c r="E1011" s="2"/>
       <c r="H1011" s="8"/>
     </row>
-    <row r="1012" spans="1:8" ht="15">
+    <row r="1012" spans="1:8">
       <c r="A1012" s="2"/>
       <c r="B1012" s="3"/>
       <c r="C1012" s="3"/>
@@ -9500,7 +9497,7 @@
       <c r="E1012" s="2"/>
       <c r="H1012" s="8"/>
     </row>
-    <row r="1013" spans="1:8" ht="15">
+    <row r="1013" spans="1:8">
       <c r="A1013" s="2"/>
       <c r="B1013" s="3"/>
       <c r="C1013" s="3"/>
@@ -9508,7 +9505,7 @@
       <c r="E1013" s="2"/>
       <c r="H1013" s="8"/>
     </row>
-    <row r="1014" spans="1:8" ht="15">
+    <row r="1014" spans="1:8">
       <c r="A1014" s="2"/>
       <c r="B1014" s="3"/>
       <c r="C1014" s="3"/>
@@ -9516,7 +9513,7 @@
       <c r="E1014" s="2"/>
       <c r="H1014" s="8"/>
     </row>
-    <row r="1015" spans="1:8" ht="15">
+    <row r="1015" spans="1:8">
       <c r="A1015" s="2"/>
       <c r="B1015" s="3"/>
       <c r="C1015" s="3"/>
@@ -9524,7 +9521,7 @@
       <c r="E1015" s="2"/>
       <c r="H1015" s="8"/>
     </row>
-    <row r="1016" spans="1:8" ht="15">
+    <row r="1016" spans="1:8">
       <c r="A1016" s="2"/>
       <c r="B1016" s="3"/>
       <c r="C1016" s="3"/>
@@ -9532,7 +9529,7 @@
       <c r="E1016" s="2"/>
       <c r="H1016" s="8"/>
     </row>
-    <row r="1017" spans="1:8" ht="15">
+    <row r="1017" spans="1:8">
       <c r="A1017" s="2"/>
       <c r="B1017" s="3"/>
       <c r="C1017" s="3"/>
@@ -9540,7 +9537,7 @@
       <c r="E1017" s="2"/>
       <c r="H1017" s="8"/>
     </row>
-    <row r="1018" spans="1:8" ht="15">
+    <row r="1018" spans="1:8">
       <c r="A1018" s="2"/>
       <c r="B1018" s="3"/>
       <c r="C1018" s="3"/>
@@ -9548,7 +9545,7 @@
       <c r="E1018" s="2"/>
       <c r="H1018" s="8"/>
     </row>
-    <row r="1019" spans="1:8" ht="15">
+    <row r="1019" spans="1:8">
       <c r="A1019" s="2"/>
       <c r="B1019" s="3"/>
       <c r="C1019" s="3"/>
@@ -9556,7 +9553,7 @@
       <c r="E1019" s="2"/>
       <c r="H1019" s="8"/>
     </row>
-    <row r="1020" spans="1:8" ht="15">
+    <row r="1020" spans="1:8">
       <c r="A1020" s="2"/>
       <c r="B1020" s="3"/>
       <c r="C1020" s="3"/>
@@ -9564,7 +9561,7 @@
       <c r="E1020" s="2"/>
       <c r="H1020" s="8"/>
     </row>
-    <row r="1021" spans="1:8" ht="15">
+    <row r="1021" spans="1:8">
       <c r="A1021" s="2"/>
       <c r="B1021" s="3"/>
       <c r="C1021" s="3"/>
@@ -9572,7 +9569,7 @@
       <c r="E1021" s="2"/>
       <c r="H1021" s="8"/>
     </row>
-    <row r="1022" spans="1:8" ht="15">
+    <row r="1022" spans="1:8">
       <c r="A1022" s="2"/>
       <c r="B1022" s="3"/>
       <c r="C1022" s="3"/>
@@ -9580,7 +9577,7 @@
       <c r="E1022" s="2"/>
       <c r="H1022" s="8"/>
     </row>
-    <row r="1023" spans="1:8" ht="15">
+    <row r="1023" spans="1:8">
       <c r="A1023" s="2"/>
       <c r="B1023" s="3"/>
       <c r="C1023" s="3"/>
@@ -9588,7 +9585,7 @@
       <c r="E1023" s="2"/>
       <c r="H1023" s="8"/>
     </row>
-    <row r="1024" spans="1:8" ht="15">
+    <row r="1024" spans="1:8">
       <c r="A1024" s="2"/>
       <c r="B1024" s="3"/>
       <c r="C1024" s="3"/>
@@ -9596,7 +9593,7 @@
       <c r="E1024" s="2"/>
       <c r="H1024" s="8"/>
     </row>
-    <row r="1025" spans="1:8" ht="15">
+    <row r="1025" spans="1:8">
       <c r="A1025" s="2"/>
       <c r="B1025" s="3"/>
       <c r="C1025" s="3"/>
@@ -9604,7 +9601,7 @@
       <c r="E1025" s="2"/>
       <c r="H1025" s="8"/>
     </row>
-    <row r="1026" spans="1:8" ht="15">
+    <row r="1026" spans="1:8">
       <c r="A1026" s="2"/>
       <c r="B1026" s="3"/>
       <c r="C1026" s="3"/>
@@ -9612,7 +9609,7 @@
       <c r="E1026" s="2"/>
       <c r="H1026" s="8"/>
     </row>
-    <row r="1027" spans="1:8" ht="15">
+    <row r="1027" spans="1:8">
       <c r="A1027" s="2"/>
       <c r="B1027" s="3"/>
       <c r="C1027" s="3"/>
@@ -9620,7 +9617,7 @@
       <c r="E1027" s="2"/>
       <c r="H1027" s="8"/>
     </row>
-    <row r="1028" spans="1:8" ht="15">
+    <row r="1028" spans="1:8">
       <c r="A1028" s="2"/>
       <c r="B1028" s="3"/>
       <c r="C1028" s="3"/>
@@ -9628,7 +9625,7 @@
       <c r="E1028" s="2"/>
       <c r="H1028" s="8"/>
     </row>
-    <row r="1029" spans="1:8" ht="15">
+    <row r="1029" spans="1:8">
       <c r="A1029" s="2"/>
       <c r="B1029" s="3"/>
       <c r="C1029" s="3"/>
@@ -9636,7 +9633,7 @@
       <c r="E1029" s="2"/>
       <c r="H1029" s="8"/>
     </row>
-    <row r="1030" spans="1:8" ht="15">
+    <row r="1030" spans="1:8">
       <c r="A1030" s="2"/>
       <c r="B1030" s="3"/>
       <c r="C1030" s="3"/>
@@ -9644,7 +9641,7 @@
       <c r="E1030" s="2"/>
       <c r="H1030" s="8"/>
     </row>
-    <row r="1031" spans="1:8" ht="15">
+    <row r="1031" spans="1:8">
       <c r="A1031" s="2"/>
       <c r="B1031" s="3"/>
       <c r="C1031" s="3"/>
@@ -9652,7 +9649,7 @@
       <c r="E1031" s="2"/>
       <c r="H1031" s="8"/>
     </row>
-    <row r="1032" spans="1:8" ht="15">
+    <row r="1032" spans="1:8">
       <c r="A1032" s="2"/>
       <c r="B1032" s="3"/>
       <c r="C1032" s="3"/>
@@ -9660,7 +9657,7 @@
       <c r="E1032" s="2"/>
       <c r="H1032" s="8"/>
     </row>
-    <row r="1033" spans="1:8" ht="15">
+    <row r="1033" spans="1:8">
       <c r="A1033" s="2"/>
       <c r="B1033" s="3"/>
       <c r="C1033" s="3"/>
@@ -9668,7 +9665,7 @@
       <c r="E1033" s="2"/>
       <c r="H1033" s="8"/>
     </row>
-    <row r="1034" spans="1:8" ht="15">
+    <row r="1034" spans="1:8">
       <c r="A1034" s="2"/>
       <c r="B1034" s="3"/>
       <c r="C1034" s="3"/>
@@ -9676,7 +9673,7 @@
       <c r="E1034" s="2"/>
       <c r="H1034" s="8"/>
     </row>
-    <row r="1035" spans="1:8" ht="15">
+    <row r="1035" spans="1:8">
       <c r="A1035" s="2"/>
       <c r="B1035" s="3"/>
       <c r="C1035" s="3"/>
@@ -9684,7 +9681,7 @@
       <c r="E1035" s="2"/>
       <c r="H1035" s="8"/>
     </row>
-    <row r="1036" spans="1:8" ht="15">
+    <row r="1036" spans="1:8">
       <c r="A1036" s="2"/>
       <c r="B1036" s="3"/>
       <c r="C1036" s="3"/>
@@ -9692,7 +9689,7 @@
       <c r="E1036" s="2"/>
       <c r="H1036" s="8"/>
     </row>
-    <row r="1037" spans="1:8" ht="15">
+    <row r="1037" spans="1:8">
       <c r="A1037" s="2"/>
       <c r="B1037" s="3"/>
       <c r="C1037" s="3"/>
@@ -9700,7 +9697,7 @@
       <c r="E1037" s="2"/>
       <c r="H1037" s="8"/>
     </row>
-    <row r="1038" spans="1:8" ht="15">
+    <row r="1038" spans="1:8">
       <c r="A1038" s="2"/>
       <c r="B1038" s="3"/>
       <c r="C1038" s="3"/>
@@ -9708,7 +9705,7 @@
       <c r="E1038" s="2"/>
       <c r="H1038" s="8"/>
     </row>
-    <row r="1039" spans="1:8" ht="15">
+    <row r="1039" spans="1:8">
       <c r="A1039" s="2"/>
       <c r="B1039" s="3"/>
       <c r="C1039" s="3"/>
@@ -9716,7 +9713,7 @@
       <c r="E1039" s="2"/>
       <c r="H1039" s="8"/>
     </row>
-    <row r="1040" spans="1:8" ht="15">
+    <row r="1040" spans="1:8">
       <c r="A1040" s="2"/>
       <c r="B1040" s="3"/>
       <c r="C1040" s="3"/>
@@ -9724,7 +9721,7 @@
       <c r="E1040" s="2"/>
       <c r="H1040" s="8"/>
     </row>
-    <row r="1041" spans="1:8" ht="15">
+    <row r="1041" spans="1:8">
       <c r="A1041" s="2"/>
       <c r="B1041" s="3"/>
       <c r="C1041" s="3"/>
@@ -9732,7 +9729,7 @@
       <c r="E1041" s="2"/>
       <c r="H1041" s="8"/>
     </row>
-    <row r="1042" spans="1:8" ht="15">
+    <row r="1042" spans="1:8">
       <c r="A1042" s="2"/>
       <c r="B1042" s="3"/>
       <c r="C1042" s="3"/>
@@ -9740,7 +9737,7 @@
       <c r="E1042" s="2"/>
       <c r="H1042" s="8"/>
     </row>
-    <row r="1043" spans="1:8" ht="15">
+    <row r="1043" spans="1:8">
       <c r="A1043" s="2"/>
       <c r="B1043" s="3"/>
       <c r="C1043" s="3"/>
@@ -9748,7 +9745,7 @@
       <c r="E1043" s="2"/>
       <c r="H1043" s="8"/>
     </row>
-    <row r="1044" spans="1:8" ht="15">
+    <row r="1044" spans="1:8">
       <c r="A1044" s="2"/>
       <c r="B1044" s="3"/>
       <c r="C1044" s="3"/>
@@ -9756,7 +9753,7 @@
       <c r="E1044" s="2"/>
       <c r="H1044" s="8"/>
     </row>
-    <row r="1045" spans="1:8" ht="15">
+    <row r="1045" spans="1:8">
       <c r="A1045" s="2"/>
       <c r="B1045" s="3"/>
       <c r="C1045" s="3"/>
@@ -9764,7 +9761,7 @@
       <c r="E1045" s="2"/>
       <c r="H1045" s="8"/>
     </row>
-    <row r="1046" spans="1:8" ht="15">
+    <row r="1046" spans="1:8">
       <c r="A1046" s="2"/>
       <c r="B1046" s="3"/>
       <c r="C1046" s="3"/>
@@ -9772,7 +9769,7 @@
       <c r="E1046" s="2"/>
       <c r="H1046" s="8"/>
     </row>
-    <row r="1047" spans="1:8" ht="15">
+    <row r="1047" spans="1:8">
       <c r="A1047" s="2"/>
       <c r="B1047" s="3"/>
       <c r="C1047" s="3"/>
@@ -9780,7 +9777,7 @@
       <c r="E1047" s="2"/>
       <c r="H1047" s="8"/>
     </row>
-    <row r="1048" spans="1:8" ht="15">
+    <row r="1048" spans="1:8">
       <c r="A1048" s="2"/>
       <c r="B1048" s="3"/>
       <c r="C1048" s="3"/>
@@ -9788,7 +9785,7 @@
       <c r="E1048" s="2"/>
       <c r="H1048" s="8"/>
     </row>
-    <row r="1049" spans="1:8" ht="15">
+    <row r="1049" spans="1:8">
       <c r="A1049" s="2"/>
       <c r="B1049" s="3"/>
       <c r="C1049" s="3"/>
@@ -9796,7 +9793,7 @@
       <c r="E1049" s="2"/>
       <c r="H1049" s="8"/>
     </row>
-    <row r="1050" spans="1:8" ht="15">
+    <row r="1050" spans="1:8">
       <c r="A1050" s="2"/>
       <c r="B1050" s="3"/>
       <c r="C1050" s="3"/>
@@ -9804,7 +9801,7 @@
       <c r="E1050" s="2"/>
       <c r="H1050" s="8"/>
     </row>
-    <row r="1051" spans="1:8" ht="15">
+    <row r="1051" spans="1:8">
       <c r="A1051" s="2"/>
       <c r="B1051" s="3"/>
       <c r="C1051" s="3"/>
@@ -9812,7 +9809,7 @@
       <c r="E1051" s="2"/>
       <c r="H1051" s="8"/>
     </row>
-    <row r="1052" spans="1:8" ht="15">
+    <row r="1052" spans="1:8">
       <c r="A1052" s="2"/>
       <c r="B1052" s="3"/>
       <c r="C1052" s="3"/>
@@ -9820,7 +9817,7 @@
       <c r="E1052" s="2"/>
       <c r="H1052" s="8"/>
     </row>
-    <row r="1053" spans="1:8" ht="15">
+    <row r="1053" spans="1:8">
       <c r="A1053" s="2"/>
       <c r="B1053" s="3"/>
       <c r="C1053" s="3"/>
@@ -9828,7 +9825,7 @@
       <c r="E1053" s="2"/>
       <c r="H1053" s="8"/>
     </row>
-    <row r="1054" spans="1:8" ht="15">
+    <row r="1054" spans="1:8">
       <c r="A1054" s="2"/>
       <c r="B1054" s="3"/>
       <c r="C1054" s="3"/>
@@ -9836,7 +9833,7 @@
       <c r="E1054" s="2"/>
       <c r="H1054" s="8"/>
     </row>
-    <row r="1055" spans="1:8" ht="15">
+    <row r="1055" spans="1:8">
       <c r="A1055" s="2"/>
       <c r="B1055" s="3"/>
       <c r="C1055" s="3"/>
@@ -9844,7 +9841,7 @@
       <c r="E1055" s="2"/>
       <c r="H1055" s="8"/>
     </row>
-    <row r="1056" spans="1:8" ht="15">
+    <row r="1056" spans="1:8">
       <c r="A1056" s="2"/>
       <c r="B1056" s="3"/>
       <c r="C1056" s="3"/>
@@ -9852,7 +9849,7 @@
       <c r="E1056" s="2"/>
       <c r="H1056" s="8"/>
     </row>
-    <row r="1057" spans="1:8" ht="15">
+    <row r="1057" spans="1:8">
       <c r="A1057" s="2"/>
       <c r="B1057" s="3"/>
       <c r="C1057" s="3"/>
@@ -9860,7 +9857,7 @@
       <c r="E1057" s="2"/>
       <c r="H1057" s="8"/>
     </row>
-    <row r="1058" spans="1:8" ht="15">
+    <row r="1058" spans="1:8">
       <c r="A1058" s="2"/>
       <c r="B1058" s="3"/>
       <c r="C1058" s="3"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{63CA155D-0AB4-4F52-8F8E-B49B6943B566}"/>
+  <xr:revisionPtr revIDLastSave="581" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{13C2B843-DE41-4251-B6AD-69905C7E621D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -404,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L57" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L57" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L58" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L58" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="J40" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3">
         <v>43802.629733796297</v>
@@ -1848,6 +1848,24 @@
         <v>17</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2">
+        <v>74</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="581" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{13C2B843-DE41-4251-B6AD-69905C7E621D}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F1F91BF-EA95-4C39-AA1B-478005C23339}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -404,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L58" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L58" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L59" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L59" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J40" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="K40" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1870,12 +1870,22 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2">
+        <v>75</v>
+      </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="5"/>
       <c r="E59" s="2"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="586" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F1F91BF-EA95-4C39-AA1B-478005C23339}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE163585-19CE-45AC-9C20-50C73DEB13B9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,14 @@
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{e491f4fd-ed63-4ecc-ad1e-dec863871954}"</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -404,8 +406,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L59" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L59" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L60" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L60" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -725,7 +727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -751,20 +753,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K40" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="J52" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="44" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="77" style="2" customWidth="1"/>
-    <col min="12" max="12" width="60.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="60.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1888,12 +1890,22 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2">
+        <v>76</v>
+      </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="5"/>
       <c r="E60" s="2"/>
-      <c r="H60" s="8"/>
+      <c r="H60" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE163585-19CE-45AC-9C20-50C73DEB13B9}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{7406BC6E-298E-4452-8EC8-DDDEF7804612}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,12 @@
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{e491f4fd-ed63-4ecc-ad1e-dec863871954}"</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -406,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L60" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L60" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L61" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L61" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -727,7 +725,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -753,20 +751,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J52" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="K43" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="6" width="44" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7265625" style="2" customWidth="1"/>
     <col min="11" max="11" width="77" style="2" customWidth="1"/>
-    <col min="12" max="12" width="60.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="60.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1908,14 +1906,22 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <v>77</v>
+      </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="5"/>
       <c r="E61" s="2"/>
-      <c r="H61" s="7"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9"/>
+      <c r="H61" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE163585-19CE-45AC-9C20-50C73DEB13B9}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{984A8A05-7587-4906-8B09-AE27CAFA283C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,12 @@
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{e491f4fd-ed63-4ecc-ad1e-dec863871954}"</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -406,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L60" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L60" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L62" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L62" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -727,7 +725,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -753,20 +751,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J52" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="K43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="6" width="44" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7265625" style="2" customWidth="1"/>
     <col min="11" max="11" width="77" style="2" customWidth="1"/>
-    <col min="12" max="12" width="60.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="60.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1908,14 +1906,22 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <v>77</v>
+      </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="5"/>
       <c r="E61" s="2"/>
-      <c r="H61" s="7"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9"/>
+      <c r="H61" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2"/>
@@ -1925,7 +1931,7 @@
       <c r="E62" s="2"/>
       <c r="H62" s="7"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="9"/>
+      <c r="L62" s="8"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2"/>
@@ -1935,7 +1941,7 @@
       <c r="E63" s="2"/>
       <c r="H63" s="7"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="9"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE163585-19CE-45AC-9C20-50C73DEB13B9}"/>
+  <xr:revisionPtr revIDLastSave="607" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{356D318D-A75A-44B5-8DB8-69B17A164DBD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,12 @@
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{e491f4fd-ed63-4ecc-ad1e-dec863871954}"</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -406,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L60" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L60" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L63" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L63" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -727,7 +725,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -753,20 +751,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J52" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="6" width="44" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7265625" style="2" customWidth="1"/>
     <col min="11" max="11" width="77" style="2" customWidth="1"/>
-    <col min="12" max="12" width="60.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="60.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1908,24 +1906,40 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <v>77</v>
+      </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="5"/>
       <c r="E61" s="2"/>
-      <c r="H61" s="7"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9"/>
+      <c r="H61" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <v>78</v>
+      </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="5"/>
       <c r="E62" s="2"/>
-      <c r="H62" s="7"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9"/>
+      <c r="H62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2"/>
@@ -1935,7 +1949,7 @@
       <c r="E63" s="2"/>
       <c r="H63" s="7"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="9"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="607" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{356D318D-A75A-44B5-8DB8-69B17A164DBD}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{950E36D2-9C29-4874-80C9-38BA30627A54}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="L44" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1942,14 +1942,22 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2">
+        <v>79</v>
+      </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="5"/>
       <c r="E63" s="2"/>
-      <c r="H63" s="7"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="H63" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2"/>
@@ -1959,7 +1967,7 @@
       <c r="E64" s="2"/>
       <c r="H64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="9"/>
+      <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="613" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{950E36D2-9C29-4874-80C9-38BA30627A54}"/>
+  <xr:revisionPtr revIDLastSave="620" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{D87571D1-16E9-4E98-A6DE-C222875CA909}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -404,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L63" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L63" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L64" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L64" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L44" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1960,14 +1960,22 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="2"/>
+      <c r="A64" s="2">
+        <v>80</v>
+      </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="5"/>
       <c r="E64" s="2"/>
-      <c r="H64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
+      <c r="H64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2"/>
@@ -1977,7 +1985,7 @@
       <c r="E65" s="2"/>
       <c r="H65" s="8"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="9"/>
+      <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="620" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{D87571D1-16E9-4E98-A6DE-C222875CA909}"/>
+  <xr:revisionPtr revIDLastSave="626" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B16ACC5-2BF4-4847-9799-97E4E6B437EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -404,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L64" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L64" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L65" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L65" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -752,7 +752,7 @@
   <dimension ref="A1:L1058"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1978,14 +1978,22 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="2"/>
+      <c r="A65" s="2">
+        <v>81</v>
+      </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="5"/>
       <c r="E65" s="2"/>
-      <c r="H65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
+      <c r="H65" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2"/>
@@ -1995,7 +2003,7 @@
       <c r="E66" s="2"/>
       <c r="H66" s="8"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="9"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="626" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B16ACC5-2BF4-4847-9799-97E4E6B437EB}"/>
+  <xr:revisionPtr revIDLastSave="632" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{9DF76EB5-D601-4CF2-B988-45AA12182152}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -404,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L65" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L65" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L66" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L66" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A8700-FDAD-4C9B-83F0-6DF13647B61E}">
   <dimension ref="A1:L1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="K47" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1996,14 +1996,22 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2">
+        <v>82</v>
+      </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="5"/>
       <c r="E66" s="2"/>
-      <c r="H66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="H66" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2"/>
@@ -2013,7 +2021,7 @@
       <c r="E67" s="2"/>
       <c r="H67" s="8"/>
       <c r="K67" s="8"/>
-      <c r="L67" s="9"/>
+      <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2"/>

--- a/flood-data.xlsx
+++ b/flood-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEllis\OneDrive - Genuent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="632" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{9DF76EB5-D601-4CF2-B988-45AA12182152}"/>
+  <xr:revisionPtr revIDLastSave="636" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00F6C7C8-C1EA-4B88-98D7-537103C19E3D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
   <si>
     <t>Em3e8vs9fkmhF52ExFmf60Qh9FBqxPdCiIY7-Ndyk4xUQkExNUFGMzM5N0tNRzZRN0I3RkNSSkc5WC4u</t>
   </si>
@@ -404,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L66" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L66" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14B15EBC-4FA5-41C2-87D7-0010B66C3065}" name="Table1" displayName="Table1" ref="A1:L67" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L67" xr:uid="{CBA3BFEC-5A06-492A-8B1F-61A50EC87CCB}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B4BDA2D-9302-45BE-A496-A7A9B3A0EEEF}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{9474A232-0890-4CEE-824A-D8166B0A798E}" name="Start time" dataDxfId="10"/>
@@ -752,7 +752,7 @@
   <dimension ref="A1:L1058"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K47" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2014,14 +2014,22 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2">
+        <v>83</v>
+      </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="5"/>
       <c r="E67" s="2"/>
-      <c r="H67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="H67" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2"/>
